--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDA3DF8-64A7-4677-B675-CCFB7C83B761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD31ED4-151B-4218-8F07-16972B1F83DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,21 @@
   </si>
   <si>
     <t>flag方法可能更实用，找规律会更简单，重在不能慌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. Palindrome Number</t>
+  </si>
+  <si>
+    <t>2022.03.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回文数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to_string()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +283,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -342,6 +365,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -652,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -770,7 +796,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -827,6 +853,20 @@
       </c>
       <c r="D9" s="6" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -843,8 +883,9 @@
     <hyperlink ref="A4" r:id="rId6" display="https://leetcode-cn.com/problems/longest-substring-without-repeating-characters/" xr:uid="{9B2FDF23-539B-4538-BE69-0C07F9903A6E}"/>
     <hyperlink ref="A5" r:id="rId7" display="https://leetcode-cn.com/problems/median-of-two-sorted-arrays/" xr:uid="{AB620192-AC9A-4DFC-8A87-0B5725804A58}"/>
     <hyperlink ref="A6" r:id="rId8" display="https://leetcode-cn.com/problems/longest-palindromic-substring/" xr:uid="{953506D6-D737-4673-878F-5E109FEAA7A7}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://leetcode-cn.com/problems/palindrome-number/" xr:uid="{D71FBBB0-8ED3-4D38-9B74-5DB5F2EB187A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD31ED4-151B-4218-8F07-16972B1F83DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8510D21-6093-48E3-B457-B861EA730760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,16 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>topic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +205,120 @@
   </si>
   <si>
     <t>to_string()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 两数之和</t>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.7.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map, multimap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种思路： 1. 全部数据hash再做 2. 边hash边做（从hash过的数据中找匹配）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 两数相加</t>
+  </si>
+  <si>
+    <t>链表,四则运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 0填充 2. 处理最后一个节点  头结点的思想会让算法简单很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 无重复字符的最长子串</t>
+  </si>
+  <si>
+    <t>2022.07.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set, 滑动窗口, 双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑空串， 滑动窗口这里选择左闭右闭的更直观，左闭右开普适性更强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 最长回文子串</t>
+  </si>
+  <si>
+    <t>vector&lt;vector&lt;int&gt;&gt; dp(size, vector&lt;int&gt;(size)) 定义个二维数组都这么麻烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 寻找两个正序数组的中位数</t>
+  </si>
+  <si>
+    <t>climits下有INT_MAX定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期间再看java，有四个月没刷题了，手感下降得厉害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. Z 字形变换</t>
+  </si>
+  <si>
+    <t>小模拟，找规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用isDown来模拟走向，找规律也行，其实就是来回添加数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 字符串转换整数 (atoi)</t>
+  </si>
+  <si>
+    <t>有限状态自动机不会写，用long来偷懒了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 整数反转</t>
+  </si>
+  <si>
+    <t>边界值的判断有意思，用to_string和stoi也可以做出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 回文数</t>
+  </si>
+  <si>
+    <t>数字变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以转换成string偷懒，也可以用数字反转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 正则表达式匹配</t>
+  </si>
+  <si>
+    <t>2022.07.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则表达式,动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细节很难想，第一次用匿名函数，挺不错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +403,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -341,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -363,10 +480,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -678,195 +799,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="47" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="51.75" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.4140625" customWidth="1"/>
+    <col min="4" max="4" width="66.08203125" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" customWidth="1"/>
+    <col min="6" max="6" width="16.58203125" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="D16" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>45</v>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -884,8 +1150,18 @@
     <hyperlink ref="A5" r:id="rId7" display="https://leetcode-cn.com/problems/median-of-two-sorted-arrays/" xr:uid="{AB620192-AC9A-4DFC-8A87-0B5725804A58}"/>
     <hyperlink ref="A6" r:id="rId8" display="https://leetcode-cn.com/problems/longest-palindromic-substring/" xr:uid="{953506D6-D737-4673-878F-5E109FEAA7A7}"/>
     <hyperlink ref="A10" r:id="rId9" display="https://leetcode-cn.com/problems/palindrome-number/" xr:uid="{D71FBBB0-8ED3-4D38-9B74-5DB5F2EB187A}"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://leetcode.cn/problems/two-sum/" xr:uid="{7A16D8EF-143F-4C02-9963-8E9E8B9577CD}"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{09675B96-E282-4B4A-881E-956402EC20C2}"/>
+    <hyperlink ref="A14" r:id="rId12" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{6CE622BE-2401-48B0-89BF-5FA6EEF87148}"/>
+    <hyperlink ref="A16" r:id="rId13" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{E595C756-7830-4824-B70C-A9FE88BC02D9}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{9DAFBFC6-D75C-4916-9E0F-394CA351D6A7}"/>
+    <hyperlink ref="A17" r:id="rId15" display="https://leetcode.cn/problems/zigzag-conversion/" xr:uid="{9390D637-52FA-4105-B9B9-CBCDB28DDBF0}"/>
+    <hyperlink ref="A19" r:id="rId16" display="https://leetcode.cn/problems/string-to-integer-atoi/" xr:uid="{574BC22E-2B74-4A0B-80FC-E239F6C78999}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://leetcode.cn/problems/reverse-integer/" xr:uid="{543A9EFE-6D07-451E-9122-0763470A36EF}"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://leetcode.cn/problems/palindrome-number/" xr:uid="{F683996D-1968-47E3-BA66-B9E6F098620E}"/>
+    <hyperlink ref="A21" r:id="rId19" display="https://leetcode.cn/problems/regular-expression-matching/" xr:uid="{26FF67B9-E708-48A2-A9D5-A8DFE9D62158}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId20"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8510D21-6093-48E3-B457-B861EA730760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB20D6F4-5605-4C68-BF14-C9A5B62C8693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,35 @@
   </si>
   <si>
     <t>细节很难想，第一次用匿名函数，挺不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 盛最多水的容器</t>
+  </si>
+  <si>
+    <t>重在理论证明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 整数转罗马数字</t>
+  </si>
+  <si>
+    <t>打表，数字运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%和/来取特定位数字， &amp;[value, symbol]遍历pair[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13. 罗马数字转整数</t>
+  </si>
+  <si>
+    <t>打表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比上一题还稍微简单一点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1133,6 +1162,48 @@
       </c>
       <c r="D21" s="11" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1160,8 +1231,11 @@
     <hyperlink ref="A18" r:id="rId17" display="https://leetcode.cn/problems/reverse-integer/" xr:uid="{543A9EFE-6D07-451E-9122-0763470A36EF}"/>
     <hyperlink ref="A20" r:id="rId18" display="https://leetcode.cn/problems/palindrome-number/" xr:uid="{F683996D-1968-47E3-BA66-B9E6F098620E}"/>
     <hyperlink ref="A21" r:id="rId19" display="https://leetcode.cn/problems/regular-expression-matching/" xr:uid="{26FF67B9-E708-48A2-A9D5-A8DFE9D62158}"/>
+    <hyperlink ref="A22" r:id="rId20" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{608E2AA1-8F22-43EA-BC84-1D86586A4C0D}"/>
+    <hyperlink ref="A23" r:id="rId21" display="https://leetcode.cn/problems/integer-to-roman/" xr:uid="{6E1F8FD4-5912-4869-ABC7-0403CFB1E914}"/>
+    <hyperlink ref="A24" r:id="rId22" display="https://leetcode.cn/problems/roman-to-integer/" xr:uid="{990DB19A-29FB-4159-8941-055A490D2249}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB20D6F4-5605-4C68-BF14-C9A5B62C8693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96E84B6-546A-4D41-B523-2D4F829314AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7370" yWindow="1940" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +348,46 @@
   </si>
   <si>
     <t>比上一题还稍微简单一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. 三数之和</t>
+  </si>
+  <si>
+    <t>2022.07.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一边增大，一边减小-&gt;双指针， 循环控制有点意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. 最长公共前缀</t>
+  </si>
+  <si>
+    <t>循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return有两种方式： 1. 自己定义一个变量 2. 从已有变量中取值(substr(pos, len))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 最接近的三数之和</t>
+  </si>
+  <si>
+    <t>跟上题基本一样，循环控制有意思,minDiff最小差值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17. 电话号码的字母组合</t>
+  </si>
+  <si>
+    <t>回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典回溯问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,11 +553,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -828,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -878,7 +918,7 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
@@ -898,7 +938,7 @@
       <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
@@ -919,7 +959,7 @@
       <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
@@ -937,7 +977,7 @@
       <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
@@ -958,7 +998,7 @@
       <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1151,7 +1191,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -1204,6 +1244,62 @@
       </c>
       <c r="D24" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1234,8 +1330,12 @@
     <hyperlink ref="A22" r:id="rId20" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{608E2AA1-8F22-43EA-BC84-1D86586A4C0D}"/>
     <hyperlink ref="A23" r:id="rId21" display="https://leetcode.cn/problems/integer-to-roman/" xr:uid="{6E1F8FD4-5912-4869-ABC7-0403CFB1E914}"/>
     <hyperlink ref="A24" r:id="rId22" display="https://leetcode.cn/problems/roman-to-integer/" xr:uid="{990DB19A-29FB-4159-8941-055A490D2249}"/>
+    <hyperlink ref="A26" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{76C214EF-9961-47ED-85A5-18E9E14E32BB}"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://leetcode.cn/problems/longest-common-prefix/" xr:uid="{1848E214-F8B0-408F-922B-4AB8167A705C}"/>
+    <hyperlink ref="A27" r:id="rId25" display="https://leetcode.cn/problems/3sum-closest/" xr:uid="{240DE783-E772-4444-8A47-3DEA8316A393}"/>
+    <hyperlink ref="A28" r:id="rId26" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{4F9DF64F-51AF-4C39-9D1B-FC471F0E9577}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId27"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96E84B6-546A-4D41-B523-2D4F829314AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8AC16-6EF0-4F78-9754-5B66E0FBDA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7370" yWindow="1940" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7710" yWindow="2280" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,6 +388,54 @@
   </si>
   <si>
     <t>经典回溯问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18. 四数之和</t>
+  </si>
+  <si>
+    <t>2022.07.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定一些，移动一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19. 删除链表的倒数第 N 个结点</t>
+  </si>
+  <si>
+    <t>2022.07.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先后指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很经典的简单题，头结点（哑结点）简化了操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20. 有效的括号</t>
+  </si>
+  <si>
+    <t>栈，map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很经典的简单题，stack有push, pop, top，queue则是push, pop, front ,back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21. 合并两个有序链表</t>
+  </si>
+  <si>
+    <t>递归/双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常经典又有趣的一道题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +443,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +529,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -527,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -559,6 +616,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -868,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G832"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1301,6 +1362,4062 @@
       <c r="D28" s="5" t="s">
         <v>94</v>
       </c>
+    </row>
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="20"/>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
+      <c r="D151" s="20"/>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
+      <c r="D156" s="20"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="20"/>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="20"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
+      <c r="D166" s="20"/>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="20"/>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="20"/>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="20"/>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="20"/>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="20"/>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="20"/>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="20"/>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="20"/>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="20"/>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="20"/>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="20"/>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="20"/>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="20"/>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="20"/>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B194" s="20"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="20"/>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="20"/>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="20"/>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="20"/>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="20"/>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="20"/>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="20"/>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B202" s="20"/>
+      <c r="C202" s="20"/>
+      <c r="D202" s="20"/>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B203" s="20"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B204" s="20"/>
+      <c r="C204" s="20"/>
+      <c r="D204" s="20"/>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B205" s="20"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="20"/>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20"/>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B207" s="20"/>
+      <c r="C207" s="20"/>
+      <c r="D207" s="20"/>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B208" s="20"/>
+      <c r="C208" s="20"/>
+      <c r="D208" s="20"/>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B209" s="20"/>
+      <c r="C209" s="20"/>
+      <c r="D209" s="20"/>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="20"/>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="20"/>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B212" s="20"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="20"/>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B213" s="20"/>
+      <c r="C213" s="20"/>
+      <c r="D213" s="20"/>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B214" s="20"/>
+      <c r="C214" s="20"/>
+      <c r="D214" s="20"/>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B215" s="20"/>
+      <c r="C215" s="20"/>
+      <c r="D215" s="20"/>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B216" s="20"/>
+      <c r="C216" s="20"/>
+      <c r="D216" s="20"/>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B217" s="20"/>
+      <c r="C217" s="20"/>
+      <c r="D217" s="20"/>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="20"/>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20"/>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B220" s="20"/>
+      <c r="C220" s="20"/>
+      <c r="D220" s="20"/>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B221" s="20"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="20"/>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B222" s="20"/>
+      <c r="C222" s="20"/>
+      <c r="D222" s="20"/>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B223" s="20"/>
+      <c r="C223" s="20"/>
+      <c r="D223" s="20"/>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B224" s="20"/>
+      <c r="C224" s="20"/>
+      <c r="D224" s="20"/>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B225" s="20"/>
+      <c r="C225" s="20"/>
+      <c r="D225" s="20"/>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B226" s="20"/>
+      <c r="C226" s="20"/>
+      <c r="D226" s="20"/>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B227" s="20"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="20"/>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B228" s="20"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="20"/>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B229" s="20"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="20"/>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B230" s="20"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="20"/>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="20"/>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="20"/>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="20"/>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B234" s="20"/>
+      <c r="C234" s="20"/>
+      <c r="D234" s="20"/>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B235" s="20"/>
+      <c r="C235" s="20"/>
+      <c r="D235" s="20"/>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B236" s="20"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="20"/>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B237" s="20"/>
+      <c r="C237" s="20"/>
+      <c r="D237" s="20"/>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B238" s="20"/>
+      <c r="C238" s="20"/>
+      <c r="D238" s="20"/>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B239" s="20"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="20"/>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B240" s="20"/>
+      <c r="C240" s="20"/>
+      <c r="D240" s="20"/>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B241" s="20"/>
+      <c r="C241" s="20"/>
+      <c r="D241" s="20"/>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B242" s="20"/>
+      <c r="C242" s="20"/>
+      <c r="D242" s="20"/>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B243" s="20"/>
+      <c r="C243" s="20"/>
+      <c r="D243" s="20"/>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B244" s="20"/>
+      <c r="C244" s="20"/>
+      <c r="D244" s="20"/>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B245" s="20"/>
+      <c r="C245" s="20"/>
+      <c r="D245" s="20"/>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B246" s="20"/>
+      <c r="C246" s="20"/>
+      <c r="D246" s="20"/>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B247" s="20"/>
+      <c r="C247" s="20"/>
+      <c r="D247" s="20"/>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B248" s="20"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="20"/>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B249" s="20"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="20"/>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B250" s="20"/>
+      <c r="C250" s="20"/>
+      <c r="D250" s="20"/>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B251" s="20"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="20"/>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B252" s="20"/>
+      <c r="C252" s="20"/>
+      <c r="D252" s="20"/>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B253" s="20"/>
+      <c r="C253" s="20"/>
+      <c r="D253" s="20"/>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B254" s="20"/>
+      <c r="C254" s="20"/>
+      <c r="D254" s="20"/>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B255" s="20"/>
+      <c r="C255" s="20"/>
+      <c r="D255" s="20"/>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B256" s="20"/>
+      <c r="C256" s="20"/>
+      <c r="D256" s="20"/>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B257" s="20"/>
+      <c r="C257" s="20"/>
+      <c r="D257" s="20"/>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B258" s="20"/>
+      <c r="C258" s="20"/>
+      <c r="D258" s="20"/>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B259" s="20"/>
+      <c r="C259" s="20"/>
+      <c r="D259" s="20"/>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B260" s="20"/>
+      <c r="C260" s="20"/>
+      <c r="D260" s="20"/>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B261" s="20"/>
+      <c r="C261" s="20"/>
+      <c r="D261" s="20"/>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B262" s="20"/>
+      <c r="C262" s="20"/>
+      <c r="D262" s="20"/>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B263" s="20"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="20"/>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B264" s="20"/>
+      <c r="C264" s="20"/>
+      <c r="D264" s="20"/>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B265" s="20"/>
+      <c r="C265" s="20"/>
+      <c r="D265" s="20"/>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B266" s="20"/>
+      <c r="C266" s="20"/>
+      <c r="D266" s="20"/>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B267" s="20"/>
+      <c r="C267" s="20"/>
+      <c r="D267" s="20"/>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B268" s="20"/>
+      <c r="C268" s="20"/>
+      <c r="D268" s="20"/>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="20"/>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B270" s="20"/>
+      <c r="C270" s="20"/>
+      <c r="D270" s="20"/>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B271" s="20"/>
+      <c r="C271" s="20"/>
+      <c r="D271" s="20"/>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B272" s="20"/>
+      <c r="C272" s="20"/>
+      <c r="D272" s="20"/>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B273" s="20"/>
+      <c r="C273" s="20"/>
+      <c r="D273" s="20"/>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B274" s="20"/>
+      <c r="C274" s="20"/>
+      <c r="D274" s="20"/>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
+      <c r="D275" s="20"/>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B276" s="20"/>
+      <c r="C276" s="20"/>
+      <c r="D276" s="20"/>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B277" s="20"/>
+      <c r="C277" s="20"/>
+      <c r="D277" s="20"/>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B278" s="20"/>
+      <c r="C278" s="20"/>
+      <c r="D278" s="20"/>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B279" s="20"/>
+      <c r="C279" s="20"/>
+      <c r="D279" s="20"/>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B280" s="20"/>
+      <c r="C280" s="20"/>
+      <c r="D280" s="20"/>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B281" s="20"/>
+      <c r="C281" s="20"/>
+      <c r="D281" s="20"/>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B282" s="20"/>
+      <c r="C282" s="20"/>
+      <c r="D282" s="20"/>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B283" s="20"/>
+      <c r="C283" s="20"/>
+      <c r="D283" s="20"/>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B284" s="20"/>
+      <c r="C284" s="20"/>
+      <c r="D284" s="20"/>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B285" s="20"/>
+      <c r="C285" s="20"/>
+      <c r="D285" s="20"/>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B286" s="20"/>
+      <c r="C286" s="20"/>
+      <c r="D286" s="20"/>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B287" s="20"/>
+      <c r="C287" s="20"/>
+      <c r="D287" s="20"/>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B288" s="20"/>
+      <c r="C288" s="20"/>
+      <c r="D288" s="20"/>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B289" s="20"/>
+      <c r="C289" s="20"/>
+      <c r="D289" s="20"/>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B290" s="20"/>
+      <c r="C290" s="20"/>
+      <c r="D290" s="20"/>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B291" s="20"/>
+      <c r="C291" s="20"/>
+      <c r="D291" s="20"/>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B292" s="20"/>
+      <c r="C292" s="20"/>
+      <c r="D292" s="20"/>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B293" s="20"/>
+      <c r="C293" s="20"/>
+      <c r="D293" s="20"/>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B294" s="20"/>
+      <c r="C294" s="20"/>
+      <c r="D294" s="20"/>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B295" s="20"/>
+      <c r="C295" s="20"/>
+      <c r="D295" s="20"/>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
+      <c r="D296" s="20"/>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B297" s="20"/>
+      <c r="C297" s="20"/>
+      <c r="D297" s="20"/>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B298" s="20"/>
+      <c r="C298" s="20"/>
+      <c r="D298" s="20"/>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B299" s="20"/>
+      <c r="C299" s="20"/>
+      <c r="D299" s="20"/>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B300" s="20"/>
+      <c r="C300" s="20"/>
+      <c r="D300" s="20"/>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B301" s="20"/>
+      <c r="C301" s="20"/>
+      <c r="D301" s="20"/>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B302" s="20"/>
+      <c r="C302" s="20"/>
+      <c r="D302" s="20"/>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B303" s="20"/>
+      <c r="C303" s="20"/>
+      <c r="D303" s="20"/>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B304" s="20"/>
+      <c r="C304" s="20"/>
+      <c r="D304" s="20"/>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B305" s="20"/>
+      <c r="C305" s="20"/>
+      <c r="D305" s="20"/>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B306" s="20"/>
+      <c r="C306" s="20"/>
+      <c r="D306" s="20"/>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B307" s="20"/>
+      <c r="C307" s="20"/>
+      <c r="D307" s="20"/>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B308" s="20"/>
+      <c r="C308" s="20"/>
+      <c r="D308" s="20"/>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B309" s="20"/>
+      <c r="C309" s="20"/>
+      <c r="D309" s="20"/>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B310" s="20"/>
+      <c r="C310" s="20"/>
+      <c r="D310" s="20"/>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B311" s="20"/>
+      <c r="C311" s="20"/>
+      <c r="D311" s="20"/>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B312" s="20"/>
+      <c r="C312" s="20"/>
+      <c r="D312" s="20"/>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B313" s="20"/>
+      <c r="C313" s="20"/>
+      <c r="D313" s="20"/>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B314" s="20"/>
+      <c r="C314" s="20"/>
+      <c r="D314" s="20"/>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B315" s="20"/>
+      <c r="C315" s="20"/>
+      <c r="D315" s="20"/>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B316" s="20"/>
+      <c r="C316" s="20"/>
+      <c r="D316" s="20"/>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B317" s="20"/>
+      <c r="C317" s="20"/>
+      <c r="D317" s="20"/>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B318" s="20"/>
+      <c r="C318" s="20"/>
+      <c r="D318" s="20"/>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B319" s="20"/>
+      <c r="C319" s="20"/>
+      <c r="D319" s="20"/>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B320" s="20"/>
+      <c r="C320" s="20"/>
+      <c r="D320" s="20"/>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B321" s="20"/>
+      <c r="C321" s="20"/>
+      <c r="D321" s="20"/>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B322" s="20"/>
+      <c r="C322" s="20"/>
+      <c r="D322" s="20"/>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B323" s="20"/>
+      <c r="C323" s="20"/>
+      <c r="D323" s="20"/>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B324" s="20"/>
+      <c r="C324" s="20"/>
+      <c r="D324" s="20"/>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B325" s="20"/>
+      <c r="C325" s="20"/>
+      <c r="D325" s="20"/>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B326" s="20"/>
+      <c r="C326" s="20"/>
+      <c r="D326" s="20"/>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B327" s="20"/>
+      <c r="C327" s="20"/>
+      <c r="D327" s="20"/>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B328" s="20"/>
+      <c r="C328" s="20"/>
+      <c r="D328" s="20"/>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B329" s="20"/>
+      <c r="C329" s="20"/>
+      <c r="D329" s="20"/>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B330" s="20"/>
+      <c r="C330" s="20"/>
+      <c r="D330" s="20"/>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B331" s="20"/>
+      <c r="C331" s="20"/>
+      <c r="D331" s="20"/>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B332" s="20"/>
+      <c r="C332" s="20"/>
+      <c r="D332" s="20"/>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B333" s="20"/>
+      <c r="C333" s="20"/>
+      <c r="D333" s="20"/>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B334" s="20"/>
+      <c r="C334" s="20"/>
+      <c r="D334" s="20"/>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B335" s="20"/>
+      <c r="C335" s="20"/>
+      <c r="D335" s="20"/>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
+      <c r="D336" s="20"/>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B337" s="20"/>
+      <c r="C337" s="20"/>
+      <c r="D337" s="20"/>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B338" s="20"/>
+      <c r="C338" s="20"/>
+      <c r="D338" s="20"/>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B339" s="20"/>
+      <c r="C339" s="20"/>
+      <c r="D339" s="20"/>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B340" s="20"/>
+      <c r="C340" s="20"/>
+      <c r="D340" s="20"/>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B341" s="20"/>
+      <c r="C341" s="20"/>
+      <c r="D341" s="20"/>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B342" s="20"/>
+      <c r="C342" s="20"/>
+      <c r="D342" s="20"/>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B343" s="20"/>
+      <c r="C343" s="20"/>
+      <c r="D343" s="20"/>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B344" s="20"/>
+      <c r="C344" s="20"/>
+      <c r="D344" s="20"/>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B345" s="20"/>
+      <c r="C345" s="20"/>
+      <c r="D345" s="20"/>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B346" s="20"/>
+      <c r="C346" s="20"/>
+      <c r="D346" s="20"/>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B347" s="20"/>
+      <c r="C347" s="20"/>
+      <c r="D347" s="20"/>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B348" s="20"/>
+      <c r="C348" s="20"/>
+      <c r="D348" s="20"/>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B349" s="20"/>
+      <c r="C349" s="20"/>
+      <c r="D349" s="20"/>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B350" s="20"/>
+      <c r="C350" s="20"/>
+      <c r="D350" s="20"/>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B351" s="20"/>
+      <c r="C351" s="20"/>
+      <c r="D351" s="20"/>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B352" s="20"/>
+      <c r="C352" s="20"/>
+      <c r="D352" s="20"/>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B353" s="20"/>
+      <c r="C353" s="20"/>
+      <c r="D353" s="20"/>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B354" s="20"/>
+      <c r="C354" s="20"/>
+      <c r="D354" s="20"/>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B355" s="20"/>
+      <c r="C355" s="20"/>
+      <c r="D355" s="20"/>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B356" s="20"/>
+      <c r="C356" s="20"/>
+      <c r="D356" s="20"/>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B357" s="20"/>
+      <c r="C357" s="20"/>
+      <c r="D357" s="20"/>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B358" s="20"/>
+      <c r="C358" s="20"/>
+      <c r="D358" s="20"/>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B359" s="20"/>
+      <c r="C359" s="20"/>
+      <c r="D359" s="20"/>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B360" s="20"/>
+      <c r="C360" s="20"/>
+      <c r="D360" s="20"/>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B361" s="20"/>
+      <c r="C361" s="20"/>
+      <c r="D361" s="20"/>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B362" s="20"/>
+      <c r="C362" s="20"/>
+      <c r="D362" s="20"/>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B363" s="20"/>
+      <c r="C363" s="20"/>
+      <c r="D363" s="20"/>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B364" s="20"/>
+      <c r="C364" s="20"/>
+      <c r="D364" s="20"/>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B365" s="20"/>
+      <c r="C365" s="20"/>
+      <c r="D365" s="20"/>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B366" s="20"/>
+      <c r="C366" s="20"/>
+      <c r="D366" s="20"/>
+    </row>
+    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B367" s="20"/>
+      <c r="C367" s="20"/>
+      <c r="D367" s="20"/>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B368" s="20"/>
+      <c r="C368" s="20"/>
+      <c r="D368" s="20"/>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B369" s="20"/>
+      <c r="C369" s="20"/>
+      <c r="D369" s="20"/>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B370" s="20"/>
+      <c r="C370" s="20"/>
+      <c r="D370" s="20"/>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B371" s="20"/>
+      <c r="C371" s="20"/>
+      <c r="D371" s="20"/>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B372" s="20"/>
+      <c r="C372" s="20"/>
+      <c r="D372" s="20"/>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B373" s="20"/>
+      <c r="C373" s="20"/>
+      <c r="D373" s="20"/>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B374" s="20"/>
+      <c r="C374" s="20"/>
+      <c r="D374" s="20"/>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B375" s="20"/>
+      <c r="C375" s="20"/>
+      <c r="D375" s="20"/>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B376" s="20"/>
+      <c r="C376" s="20"/>
+      <c r="D376" s="20"/>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B377" s="20"/>
+      <c r="C377" s="20"/>
+      <c r="D377" s="20"/>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B378" s="20"/>
+      <c r="C378" s="20"/>
+      <c r="D378" s="20"/>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B379" s="20"/>
+      <c r="C379" s="20"/>
+      <c r="D379" s="20"/>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B380" s="20"/>
+      <c r="C380" s="20"/>
+      <c r="D380" s="20"/>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B381" s="20"/>
+      <c r="C381" s="20"/>
+      <c r="D381" s="20"/>
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B382" s="20"/>
+      <c r="C382" s="20"/>
+      <c r="D382" s="20"/>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B383" s="20"/>
+      <c r="C383" s="20"/>
+      <c r="D383" s="20"/>
+    </row>
+    <row r="384" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B384" s="20"/>
+      <c r="C384" s="20"/>
+      <c r="D384" s="20"/>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B385" s="20"/>
+      <c r="C385" s="20"/>
+      <c r="D385" s="20"/>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B386" s="20"/>
+      <c r="C386" s="20"/>
+      <c r="D386" s="20"/>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B387" s="20"/>
+      <c r="C387" s="20"/>
+      <c r="D387" s="20"/>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B388" s="20"/>
+      <c r="C388" s="20"/>
+      <c r="D388" s="20"/>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B389" s="20"/>
+      <c r="C389" s="20"/>
+      <c r="D389" s="20"/>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B390" s="20"/>
+      <c r="C390" s="20"/>
+      <c r="D390" s="20"/>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B391" s="20"/>
+      <c r="C391" s="20"/>
+      <c r="D391" s="20"/>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B392" s="20"/>
+      <c r="C392" s="20"/>
+      <c r="D392" s="20"/>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B393" s="20"/>
+      <c r="C393" s="20"/>
+      <c r="D393" s="20"/>
+    </row>
+    <row r="394" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B394" s="20"/>
+      <c r="C394" s="20"/>
+      <c r="D394" s="20"/>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B395" s="20"/>
+      <c r="C395" s="20"/>
+      <c r="D395" s="20"/>
+    </row>
+    <row r="396" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B396" s="20"/>
+      <c r="C396" s="20"/>
+      <c r="D396" s="20"/>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B397" s="20"/>
+      <c r="C397" s="20"/>
+      <c r="D397" s="20"/>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B398" s="20"/>
+      <c r="C398" s="20"/>
+      <c r="D398" s="20"/>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B399" s="20"/>
+      <c r="C399" s="20"/>
+      <c r="D399" s="20"/>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B400" s="20"/>
+      <c r="C400" s="20"/>
+      <c r="D400" s="20"/>
+    </row>
+    <row r="401" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B401" s="20"/>
+      <c r="C401" s="20"/>
+      <c r="D401" s="20"/>
+    </row>
+    <row r="402" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
+      <c r="D402" s="20"/>
+    </row>
+    <row r="403" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B403" s="20"/>
+      <c r="C403" s="20"/>
+      <c r="D403" s="20"/>
+    </row>
+    <row r="404" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B404" s="20"/>
+      <c r="C404" s="20"/>
+      <c r="D404" s="20"/>
+    </row>
+    <row r="405" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B405" s="20"/>
+      <c r="C405" s="20"/>
+      <c r="D405" s="20"/>
+    </row>
+    <row r="406" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B406" s="20"/>
+      <c r="C406" s="20"/>
+      <c r="D406" s="20"/>
+    </row>
+    <row r="407" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B407" s="20"/>
+      <c r="C407" s="20"/>
+      <c r="D407" s="20"/>
+    </row>
+    <row r="408" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B408" s="20"/>
+      <c r="C408" s="20"/>
+      <c r="D408" s="20"/>
+    </row>
+    <row r="409" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B409" s="20"/>
+      <c r="C409" s="20"/>
+      <c r="D409" s="20"/>
+    </row>
+    <row r="410" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B410" s="20"/>
+      <c r="C410" s="20"/>
+      <c r="D410" s="20"/>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B411" s="20"/>
+      <c r="C411" s="20"/>
+      <c r="D411" s="20"/>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B412" s="20"/>
+      <c r="C412" s="20"/>
+      <c r="D412" s="20"/>
+    </row>
+    <row r="413" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B413" s="20"/>
+      <c r="C413" s="20"/>
+      <c r="D413" s="20"/>
+    </row>
+    <row r="414" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B414" s="20"/>
+      <c r="C414" s="20"/>
+      <c r="D414" s="20"/>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B415" s="20"/>
+      <c r="C415" s="20"/>
+      <c r="D415" s="20"/>
+    </row>
+    <row r="416" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B416" s="20"/>
+      <c r="C416" s="20"/>
+      <c r="D416" s="20"/>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B417" s="20"/>
+      <c r="C417" s="20"/>
+      <c r="D417" s="20"/>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B418" s="20"/>
+      <c r="C418" s="20"/>
+      <c r="D418" s="20"/>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B419" s="20"/>
+      <c r="C419" s="20"/>
+      <c r="D419" s="20"/>
+    </row>
+    <row r="420" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B420" s="20"/>
+      <c r="C420" s="20"/>
+      <c r="D420" s="20"/>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B421" s="20"/>
+      <c r="C421" s="20"/>
+      <c r="D421" s="20"/>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B422" s="20"/>
+      <c r="C422" s="20"/>
+      <c r="D422" s="20"/>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B423" s="20"/>
+      <c r="C423" s="20"/>
+      <c r="D423" s="20"/>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B424" s="20"/>
+      <c r="C424" s="20"/>
+      <c r="D424" s="20"/>
+    </row>
+    <row r="425" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B425" s="20"/>
+      <c r="C425" s="20"/>
+      <c r="D425" s="20"/>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B426" s="20"/>
+      <c r="C426" s="20"/>
+      <c r="D426" s="20"/>
+    </row>
+    <row r="427" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B427" s="20"/>
+      <c r="C427" s="20"/>
+      <c r="D427" s="20"/>
+    </row>
+    <row r="428" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B428" s="20"/>
+      <c r="C428" s="20"/>
+      <c r="D428" s="20"/>
+    </row>
+    <row r="429" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B429" s="20"/>
+      <c r="C429" s="20"/>
+      <c r="D429" s="20"/>
+    </row>
+    <row r="430" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B430" s="20"/>
+      <c r="C430" s="20"/>
+      <c r="D430" s="20"/>
+    </row>
+    <row r="431" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B431" s="20"/>
+      <c r="C431" s="20"/>
+      <c r="D431" s="20"/>
+    </row>
+    <row r="432" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B432" s="20"/>
+      <c r="C432" s="20"/>
+      <c r="D432" s="20"/>
+    </row>
+    <row r="433" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B433" s="20"/>
+      <c r="C433" s="20"/>
+      <c r="D433" s="20"/>
+    </row>
+    <row r="434" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B434" s="20"/>
+      <c r="C434" s="20"/>
+      <c r="D434" s="20"/>
+    </row>
+    <row r="435" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B435" s="20"/>
+      <c r="C435" s="20"/>
+      <c r="D435" s="20"/>
+    </row>
+    <row r="436" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B436" s="20"/>
+      <c r="C436" s="20"/>
+      <c r="D436" s="20"/>
+    </row>
+    <row r="437" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B437" s="20"/>
+      <c r="C437" s="20"/>
+      <c r="D437" s="20"/>
+    </row>
+    <row r="438" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B438" s="20"/>
+      <c r="C438" s="20"/>
+      <c r="D438" s="20"/>
+    </row>
+    <row r="439" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B439" s="20"/>
+      <c r="C439" s="20"/>
+      <c r="D439" s="20"/>
+    </row>
+    <row r="440" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B440" s="20"/>
+      <c r="C440" s="20"/>
+      <c r="D440" s="20"/>
+    </row>
+    <row r="441" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B441" s="20"/>
+      <c r="C441" s="20"/>
+      <c r="D441" s="20"/>
+    </row>
+    <row r="442" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B442" s="20"/>
+      <c r="C442" s="20"/>
+      <c r="D442" s="20"/>
+    </row>
+    <row r="443" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B443" s="20"/>
+      <c r="C443" s="20"/>
+      <c r="D443" s="20"/>
+    </row>
+    <row r="444" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B444" s="20"/>
+      <c r="C444" s="20"/>
+      <c r="D444" s="20"/>
+    </row>
+    <row r="445" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B445" s="20"/>
+      <c r="C445" s="20"/>
+      <c r="D445" s="20"/>
+    </row>
+    <row r="446" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B446" s="20"/>
+      <c r="C446" s="20"/>
+      <c r="D446" s="20"/>
+    </row>
+    <row r="447" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B447" s="20"/>
+      <c r="C447" s="20"/>
+      <c r="D447" s="20"/>
+    </row>
+    <row r="448" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B448" s="20"/>
+      <c r="C448" s="20"/>
+      <c r="D448" s="20"/>
+    </row>
+    <row r="449" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B449" s="20"/>
+      <c r="C449" s="20"/>
+      <c r="D449" s="20"/>
+    </row>
+    <row r="450" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B450" s="20"/>
+      <c r="C450" s="20"/>
+      <c r="D450" s="20"/>
+    </row>
+    <row r="451" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B451" s="20"/>
+      <c r="C451" s="20"/>
+      <c r="D451" s="20"/>
+    </row>
+    <row r="452" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B452" s="20"/>
+      <c r="C452" s="20"/>
+      <c r="D452" s="20"/>
+    </row>
+    <row r="453" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B453" s="20"/>
+      <c r="C453" s="20"/>
+      <c r="D453" s="20"/>
+    </row>
+    <row r="454" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B454" s="20"/>
+      <c r="C454" s="20"/>
+      <c r="D454" s="20"/>
+    </row>
+    <row r="455" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B455" s="20"/>
+      <c r="C455" s="20"/>
+      <c r="D455" s="20"/>
+    </row>
+    <row r="456" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B456" s="20"/>
+      <c r="C456" s="20"/>
+      <c r="D456" s="20"/>
+    </row>
+    <row r="457" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B457" s="20"/>
+      <c r="C457" s="20"/>
+      <c r="D457" s="20"/>
+    </row>
+    <row r="458" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B458" s="20"/>
+      <c r="C458" s="20"/>
+      <c r="D458" s="20"/>
+    </row>
+    <row r="459" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B459" s="20"/>
+      <c r="C459" s="20"/>
+      <c r="D459" s="20"/>
+    </row>
+    <row r="460" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B460" s="20"/>
+      <c r="C460" s="20"/>
+      <c r="D460" s="20"/>
+    </row>
+    <row r="461" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B461" s="20"/>
+      <c r="C461" s="20"/>
+      <c r="D461" s="20"/>
+    </row>
+    <row r="462" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B462" s="20"/>
+      <c r="C462" s="20"/>
+      <c r="D462" s="20"/>
+    </row>
+    <row r="463" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B463" s="20"/>
+      <c r="C463" s="20"/>
+      <c r="D463" s="20"/>
+    </row>
+    <row r="464" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B464" s="20"/>
+      <c r="C464" s="20"/>
+      <c r="D464" s="20"/>
+    </row>
+    <row r="465" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B465" s="20"/>
+      <c r="C465" s="20"/>
+      <c r="D465" s="20"/>
+    </row>
+    <row r="466" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B466" s="20"/>
+      <c r="C466" s="20"/>
+      <c r="D466" s="20"/>
+    </row>
+    <row r="467" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B467" s="20"/>
+      <c r="C467" s="20"/>
+      <c r="D467" s="20"/>
+    </row>
+    <row r="468" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B468" s="20"/>
+      <c r="C468" s="20"/>
+      <c r="D468" s="20"/>
+    </row>
+    <row r="469" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B469" s="20"/>
+      <c r="C469" s="20"/>
+      <c r="D469" s="20"/>
+    </row>
+    <row r="470" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B470" s="20"/>
+      <c r="C470" s="20"/>
+      <c r="D470" s="20"/>
+    </row>
+    <row r="471" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B471" s="20"/>
+      <c r="C471" s="20"/>
+      <c r="D471" s="20"/>
+    </row>
+    <row r="472" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B472" s="20"/>
+      <c r="C472" s="20"/>
+      <c r="D472" s="20"/>
+    </row>
+    <row r="473" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B473" s="20"/>
+      <c r="C473" s="20"/>
+      <c r="D473" s="20"/>
+    </row>
+    <row r="474" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B474" s="20"/>
+      <c r="C474" s="20"/>
+      <c r="D474" s="20"/>
+    </row>
+    <row r="475" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B475" s="20"/>
+      <c r="C475" s="20"/>
+      <c r="D475" s="20"/>
+    </row>
+    <row r="476" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B476" s="20"/>
+      <c r="C476" s="20"/>
+      <c r="D476" s="20"/>
+    </row>
+    <row r="477" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B477" s="20"/>
+      <c r="C477" s="20"/>
+      <c r="D477" s="20"/>
+    </row>
+    <row r="478" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B478" s="20"/>
+      <c r="C478" s="20"/>
+      <c r="D478" s="20"/>
+    </row>
+    <row r="479" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B479" s="20"/>
+      <c r="C479" s="20"/>
+      <c r="D479" s="20"/>
+    </row>
+    <row r="480" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B480" s="20"/>
+      <c r="C480" s="20"/>
+      <c r="D480" s="20"/>
+    </row>
+    <row r="481" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B481" s="20"/>
+      <c r="C481" s="20"/>
+      <c r="D481" s="20"/>
+    </row>
+    <row r="482" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B482" s="20"/>
+      <c r="C482" s="20"/>
+      <c r="D482" s="20"/>
+    </row>
+    <row r="483" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B483" s="20"/>
+      <c r="C483" s="20"/>
+      <c r="D483" s="20"/>
+    </row>
+    <row r="484" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B484" s="20"/>
+      <c r="C484" s="20"/>
+      <c r="D484" s="20"/>
+    </row>
+    <row r="485" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B485" s="20"/>
+      <c r="C485" s="20"/>
+      <c r="D485" s="20"/>
+    </row>
+    <row r="486" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B486" s="20"/>
+      <c r="C486" s="20"/>
+      <c r="D486" s="20"/>
+    </row>
+    <row r="487" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B487" s="20"/>
+      <c r="C487" s="20"/>
+      <c r="D487" s="20"/>
+    </row>
+    <row r="488" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B488" s="20"/>
+      <c r="C488" s="20"/>
+      <c r="D488" s="20"/>
+    </row>
+    <row r="489" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B489" s="20"/>
+      <c r="C489" s="20"/>
+      <c r="D489" s="20"/>
+    </row>
+    <row r="490" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B490" s="20"/>
+      <c r="C490" s="20"/>
+      <c r="D490" s="20"/>
+    </row>
+    <row r="491" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B491" s="20"/>
+      <c r="C491" s="20"/>
+      <c r="D491" s="20"/>
+    </row>
+    <row r="492" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B492" s="20"/>
+      <c r="C492" s="20"/>
+      <c r="D492" s="20"/>
+    </row>
+    <row r="493" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B493" s="20"/>
+      <c r="C493" s="20"/>
+      <c r="D493" s="20"/>
+    </row>
+    <row r="494" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B494" s="20"/>
+      <c r="C494" s="20"/>
+      <c r="D494" s="20"/>
+    </row>
+    <row r="495" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B495" s="20"/>
+      <c r="C495" s="20"/>
+      <c r="D495" s="20"/>
+    </row>
+    <row r="496" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B496" s="20"/>
+      <c r="C496" s="20"/>
+      <c r="D496" s="20"/>
+    </row>
+    <row r="497" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B497" s="20"/>
+      <c r="C497" s="20"/>
+      <c r="D497" s="20"/>
+    </row>
+    <row r="498" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B498" s="20"/>
+      <c r="C498" s="20"/>
+      <c r="D498" s="20"/>
+    </row>
+    <row r="499" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B499" s="20"/>
+      <c r="C499" s="20"/>
+      <c r="D499" s="20"/>
+    </row>
+    <row r="500" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B500" s="20"/>
+      <c r="C500" s="20"/>
+      <c r="D500" s="20"/>
+    </row>
+    <row r="501" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B501" s="20"/>
+      <c r="C501" s="20"/>
+      <c r="D501" s="20"/>
+    </row>
+    <row r="502" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B502" s="20"/>
+      <c r="C502" s="20"/>
+      <c r="D502" s="20"/>
+    </row>
+    <row r="503" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B503" s="20"/>
+      <c r="C503" s="20"/>
+      <c r="D503" s="20"/>
+    </row>
+    <row r="504" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B504" s="20"/>
+      <c r="C504" s="20"/>
+      <c r="D504" s="20"/>
+    </row>
+    <row r="505" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B505" s="20"/>
+      <c r="C505" s="20"/>
+      <c r="D505" s="20"/>
+    </row>
+    <row r="506" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B506" s="20"/>
+      <c r="C506" s="20"/>
+      <c r="D506" s="20"/>
+    </row>
+    <row r="507" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B507" s="20"/>
+      <c r="C507" s="20"/>
+      <c r="D507" s="20"/>
+    </row>
+    <row r="508" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B508" s="20"/>
+      <c r="C508" s="20"/>
+      <c r="D508" s="20"/>
+    </row>
+    <row r="509" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B509" s="20"/>
+      <c r="C509" s="20"/>
+      <c r="D509" s="20"/>
+    </row>
+    <row r="510" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B510" s="20"/>
+      <c r="C510" s="20"/>
+      <c r="D510" s="20"/>
+    </row>
+    <row r="511" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B511" s="20"/>
+      <c r="C511" s="20"/>
+      <c r="D511" s="20"/>
+    </row>
+    <row r="512" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B512" s="20"/>
+      <c r="C512" s="20"/>
+      <c r="D512" s="20"/>
+    </row>
+    <row r="513" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B513" s="20"/>
+      <c r="C513" s="20"/>
+      <c r="D513" s="20"/>
+    </row>
+    <row r="514" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B514" s="20"/>
+      <c r="C514" s="20"/>
+      <c r="D514" s="20"/>
+    </row>
+    <row r="515" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B515" s="20"/>
+      <c r="C515" s="20"/>
+      <c r="D515" s="20"/>
+    </row>
+    <row r="516" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B516" s="20"/>
+      <c r="C516" s="20"/>
+      <c r="D516" s="20"/>
+    </row>
+    <row r="517" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B517" s="20"/>
+      <c r="C517" s="20"/>
+      <c r="D517" s="20"/>
+    </row>
+    <row r="518" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B518" s="20"/>
+      <c r="C518" s="20"/>
+      <c r="D518" s="20"/>
+    </row>
+    <row r="519" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B519" s="20"/>
+      <c r="C519" s="20"/>
+      <c r="D519" s="20"/>
+    </row>
+    <row r="520" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B520" s="20"/>
+      <c r="C520" s="20"/>
+      <c r="D520" s="20"/>
+    </row>
+    <row r="521" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B521" s="20"/>
+      <c r="C521" s="20"/>
+      <c r="D521" s="20"/>
+    </row>
+    <row r="522" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B522" s="20"/>
+      <c r="C522" s="20"/>
+      <c r="D522" s="20"/>
+    </row>
+    <row r="523" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B523" s="20"/>
+      <c r="C523" s="20"/>
+      <c r="D523" s="20"/>
+    </row>
+    <row r="524" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B524" s="20"/>
+      <c r="C524" s="20"/>
+      <c r="D524" s="20"/>
+    </row>
+    <row r="525" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B525" s="20"/>
+      <c r="C525" s="20"/>
+      <c r="D525" s="20"/>
+    </row>
+    <row r="526" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B526" s="20"/>
+      <c r="C526" s="20"/>
+      <c r="D526" s="20"/>
+    </row>
+    <row r="527" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B527" s="20"/>
+      <c r="C527" s="20"/>
+      <c r="D527" s="20"/>
+    </row>
+    <row r="528" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B528" s="20"/>
+      <c r="C528" s="20"/>
+      <c r="D528" s="20"/>
+    </row>
+    <row r="529" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B529" s="20"/>
+      <c r="C529" s="20"/>
+      <c r="D529" s="20"/>
+    </row>
+    <row r="530" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B530" s="20"/>
+      <c r="C530" s="20"/>
+      <c r="D530" s="20"/>
+    </row>
+    <row r="531" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B531" s="20"/>
+      <c r="C531" s="20"/>
+      <c r="D531" s="20"/>
+    </row>
+    <row r="532" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B532" s="20"/>
+      <c r="C532" s="20"/>
+      <c r="D532" s="20"/>
+    </row>
+    <row r="533" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B533" s="20"/>
+      <c r="C533" s="20"/>
+      <c r="D533" s="20"/>
+    </row>
+    <row r="534" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B534" s="20"/>
+      <c r="C534" s="20"/>
+      <c r="D534" s="20"/>
+    </row>
+    <row r="535" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B535" s="20"/>
+      <c r="C535" s="20"/>
+      <c r="D535" s="20"/>
+    </row>
+    <row r="536" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B536" s="20"/>
+      <c r="C536" s="20"/>
+      <c r="D536" s="20"/>
+    </row>
+    <row r="537" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B537" s="20"/>
+      <c r="C537" s="20"/>
+      <c r="D537" s="20"/>
+    </row>
+    <row r="538" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B538" s="20"/>
+      <c r="C538" s="20"/>
+      <c r="D538" s="20"/>
+    </row>
+    <row r="539" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B539" s="20"/>
+      <c r="C539" s="20"/>
+      <c r="D539" s="20"/>
+    </row>
+    <row r="540" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B540" s="20"/>
+      <c r="C540" s="20"/>
+      <c r="D540" s="20"/>
+    </row>
+    <row r="541" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B541" s="20"/>
+      <c r="C541" s="20"/>
+      <c r="D541" s="20"/>
+    </row>
+    <row r="542" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B542" s="20"/>
+      <c r="C542" s="20"/>
+      <c r="D542" s="20"/>
+    </row>
+    <row r="543" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B543" s="20"/>
+      <c r="C543" s="20"/>
+      <c r="D543" s="20"/>
+    </row>
+    <row r="544" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B544" s="20"/>
+      <c r="C544" s="20"/>
+      <c r="D544" s="20"/>
+    </row>
+    <row r="545" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B545" s="20"/>
+      <c r="C545" s="20"/>
+      <c r="D545" s="20"/>
+    </row>
+    <row r="546" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B546" s="20"/>
+      <c r="C546" s="20"/>
+      <c r="D546" s="20"/>
+    </row>
+    <row r="547" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B547" s="20"/>
+      <c r="C547" s="20"/>
+      <c r="D547" s="20"/>
+    </row>
+    <row r="548" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B548" s="20"/>
+      <c r="C548" s="20"/>
+      <c r="D548" s="20"/>
+    </row>
+    <row r="549" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B549" s="20"/>
+      <c r="C549" s="20"/>
+      <c r="D549" s="20"/>
+    </row>
+    <row r="550" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B550" s="20"/>
+      <c r="C550" s="20"/>
+      <c r="D550" s="20"/>
+    </row>
+    <row r="551" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B551" s="20"/>
+      <c r="C551" s="20"/>
+      <c r="D551" s="20"/>
+    </row>
+    <row r="552" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B552" s="20"/>
+      <c r="C552" s="20"/>
+      <c r="D552" s="20"/>
+    </row>
+    <row r="553" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B553" s="20"/>
+      <c r="C553" s="20"/>
+      <c r="D553" s="20"/>
+    </row>
+    <row r="554" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B554" s="20"/>
+      <c r="C554" s="20"/>
+      <c r="D554" s="20"/>
+    </row>
+    <row r="555" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B555" s="20"/>
+      <c r="C555" s="20"/>
+      <c r="D555" s="20"/>
+    </row>
+    <row r="556" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B556" s="20"/>
+      <c r="C556" s="20"/>
+      <c r="D556" s="20"/>
+    </row>
+    <row r="557" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B557" s="20"/>
+      <c r="C557" s="20"/>
+      <c r="D557" s="20"/>
+    </row>
+    <row r="558" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B558" s="20"/>
+      <c r="C558" s="20"/>
+      <c r="D558" s="20"/>
+    </row>
+    <row r="559" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B559" s="20"/>
+      <c r="C559" s="20"/>
+      <c r="D559" s="20"/>
+    </row>
+    <row r="560" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B560" s="20"/>
+      <c r="C560" s="20"/>
+      <c r="D560" s="20"/>
+    </row>
+    <row r="561" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B561" s="20"/>
+      <c r="C561" s="20"/>
+      <c r="D561" s="20"/>
+    </row>
+    <row r="562" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B562" s="20"/>
+      <c r="C562" s="20"/>
+      <c r="D562" s="20"/>
+    </row>
+    <row r="563" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B563" s="20"/>
+      <c r="C563" s="20"/>
+      <c r="D563" s="20"/>
+    </row>
+    <row r="564" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B564" s="20"/>
+      <c r="C564" s="20"/>
+      <c r="D564" s="20"/>
+    </row>
+    <row r="565" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B565" s="20"/>
+      <c r="C565" s="20"/>
+      <c r="D565" s="20"/>
+    </row>
+    <row r="566" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B566" s="20"/>
+      <c r="C566" s="20"/>
+      <c r="D566" s="20"/>
+    </row>
+    <row r="567" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B567" s="20"/>
+      <c r="C567" s="20"/>
+      <c r="D567" s="20"/>
+    </row>
+    <row r="568" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B568" s="20"/>
+      <c r="C568" s="20"/>
+      <c r="D568" s="20"/>
+    </row>
+    <row r="569" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B569" s="20"/>
+      <c r="C569" s="20"/>
+      <c r="D569" s="20"/>
+    </row>
+    <row r="570" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B570" s="20"/>
+      <c r="C570" s="20"/>
+      <c r="D570" s="20"/>
+    </row>
+    <row r="571" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B571" s="20"/>
+      <c r="C571" s="20"/>
+      <c r="D571" s="20"/>
+    </row>
+    <row r="572" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B572" s="20"/>
+      <c r="C572" s="20"/>
+      <c r="D572" s="20"/>
+    </row>
+    <row r="573" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B573" s="20"/>
+      <c r="C573" s="20"/>
+      <c r="D573" s="20"/>
+    </row>
+    <row r="574" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B574" s="20"/>
+      <c r="C574" s="20"/>
+      <c r="D574" s="20"/>
+    </row>
+    <row r="575" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B575" s="20"/>
+      <c r="C575" s="20"/>
+      <c r="D575" s="20"/>
+    </row>
+    <row r="576" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B576" s="20"/>
+      <c r="C576" s="20"/>
+      <c r="D576" s="20"/>
+    </row>
+    <row r="577" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B577" s="20"/>
+      <c r="C577" s="20"/>
+      <c r="D577" s="20"/>
+    </row>
+    <row r="578" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B578" s="20"/>
+      <c r="C578" s="20"/>
+      <c r="D578" s="20"/>
+    </row>
+    <row r="579" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B579" s="20"/>
+      <c r="C579" s="20"/>
+      <c r="D579" s="20"/>
+    </row>
+    <row r="580" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B580" s="20"/>
+      <c r="C580" s="20"/>
+      <c r="D580" s="20"/>
+    </row>
+    <row r="581" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B581" s="20"/>
+      <c r="C581" s="20"/>
+      <c r="D581" s="20"/>
+    </row>
+    <row r="582" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B582" s="20"/>
+      <c r="C582" s="20"/>
+      <c r="D582" s="20"/>
+    </row>
+    <row r="583" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B583" s="20"/>
+      <c r="C583" s="20"/>
+      <c r="D583" s="20"/>
+    </row>
+    <row r="584" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B584" s="20"/>
+      <c r="C584" s="20"/>
+      <c r="D584" s="20"/>
+    </row>
+    <row r="585" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B585" s="20"/>
+      <c r="C585" s="20"/>
+      <c r="D585" s="20"/>
+    </row>
+    <row r="586" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B586" s="20"/>
+      <c r="C586" s="20"/>
+      <c r="D586" s="20"/>
+    </row>
+    <row r="587" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B587" s="20"/>
+      <c r="C587" s="20"/>
+      <c r="D587" s="20"/>
+    </row>
+    <row r="588" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B588" s="20"/>
+      <c r="C588" s="20"/>
+      <c r="D588" s="20"/>
+    </row>
+    <row r="589" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B589" s="20"/>
+      <c r="C589" s="20"/>
+      <c r="D589" s="20"/>
+    </row>
+    <row r="590" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B590" s="20"/>
+      <c r="C590" s="20"/>
+      <c r="D590" s="20"/>
+    </row>
+    <row r="591" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B591" s="20"/>
+      <c r="C591" s="20"/>
+      <c r="D591" s="20"/>
+    </row>
+    <row r="592" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B592" s="20"/>
+      <c r="C592" s="20"/>
+      <c r="D592" s="20"/>
+    </row>
+    <row r="593" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B593" s="20"/>
+      <c r="C593" s="20"/>
+      <c r="D593" s="20"/>
+    </row>
+    <row r="594" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B594" s="20"/>
+      <c r="C594" s="20"/>
+      <c r="D594" s="20"/>
+    </row>
+    <row r="595" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B595" s="20"/>
+      <c r="C595" s="20"/>
+      <c r="D595" s="20"/>
+    </row>
+    <row r="596" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B596" s="20"/>
+      <c r="C596" s="20"/>
+      <c r="D596" s="20"/>
+    </row>
+    <row r="597" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B597" s="20"/>
+      <c r="C597" s="20"/>
+      <c r="D597" s="20"/>
+    </row>
+    <row r="598" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B598" s="20"/>
+      <c r="C598" s="20"/>
+      <c r="D598" s="20"/>
+    </row>
+    <row r="599" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B599" s="20"/>
+      <c r="C599" s="20"/>
+      <c r="D599" s="20"/>
+    </row>
+    <row r="600" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B600" s="20"/>
+      <c r="C600" s="20"/>
+      <c r="D600" s="20"/>
+    </row>
+    <row r="601" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B601" s="20"/>
+      <c r="C601" s="20"/>
+      <c r="D601" s="20"/>
+    </row>
+    <row r="602" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B602" s="20"/>
+      <c r="C602" s="20"/>
+      <c r="D602" s="20"/>
+    </row>
+    <row r="603" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B603" s="20"/>
+      <c r="C603" s="20"/>
+      <c r="D603" s="20"/>
+    </row>
+    <row r="604" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B604" s="20"/>
+      <c r="C604" s="20"/>
+      <c r="D604" s="20"/>
+    </row>
+    <row r="605" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B605" s="20"/>
+      <c r="C605" s="20"/>
+      <c r="D605" s="20"/>
+    </row>
+    <row r="606" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B606" s="20"/>
+      <c r="C606" s="20"/>
+      <c r="D606" s="20"/>
+    </row>
+    <row r="607" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B607" s="20"/>
+      <c r="C607" s="20"/>
+      <c r="D607" s="20"/>
+    </row>
+    <row r="608" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B608" s="20"/>
+      <c r="C608" s="20"/>
+      <c r="D608" s="20"/>
+    </row>
+    <row r="609" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B609" s="20"/>
+      <c r="C609" s="20"/>
+      <c r="D609" s="20"/>
+    </row>
+    <row r="610" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B610" s="20"/>
+      <c r="C610" s="20"/>
+      <c r="D610" s="20"/>
+    </row>
+    <row r="611" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B611" s="20"/>
+      <c r="C611" s="20"/>
+      <c r="D611" s="20"/>
+    </row>
+    <row r="612" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B612" s="20"/>
+      <c r="C612" s="20"/>
+      <c r="D612" s="20"/>
+    </row>
+    <row r="613" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B613" s="20"/>
+      <c r="C613" s="20"/>
+      <c r="D613" s="20"/>
+    </row>
+    <row r="614" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B614" s="20"/>
+      <c r="C614" s="20"/>
+      <c r="D614" s="20"/>
+    </row>
+    <row r="615" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B615" s="20"/>
+      <c r="C615" s="20"/>
+      <c r="D615" s="20"/>
+    </row>
+    <row r="616" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B616" s="20"/>
+      <c r="C616" s="20"/>
+      <c r="D616" s="20"/>
+    </row>
+    <row r="617" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B617" s="20"/>
+      <c r="C617" s="20"/>
+      <c r="D617" s="20"/>
+    </row>
+    <row r="618" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B618" s="20"/>
+      <c r="C618" s="20"/>
+      <c r="D618" s="20"/>
+    </row>
+    <row r="619" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B619" s="20"/>
+      <c r="C619" s="20"/>
+      <c r="D619" s="20"/>
+    </row>
+    <row r="620" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B620" s="20"/>
+      <c r="C620" s="20"/>
+      <c r="D620" s="20"/>
+    </row>
+    <row r="621" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B621" s="20"/>
+      <c r="C621" s="20"/>
+      <c r="D621" s="20"/>
+    </row>
+    <row r="622" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B622" s="20"/>
+      <c r="C622" s="20"/>
+      <c r="D622" s="20"/>
+    </row>
+    <row r="623" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B623" s="20"/>
+      <c r="C623" s="20"/>
+      <c r="D623" s="20"/>
+    </row>
+    <row r="624" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B624" s="20"/>
+      <c r="C624" s="20"/>
+      <c r="D624" s="20"/>
+    </row>
+    <row r="625" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B625" s="20"/>
+      <c r="C625" s="20"/>
+      <c r="D625" s="20"/>
+    </row>
+    <row r="626" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B626" s="20"/>
+      <c r="C626" s="20"/>
+      <c r="D626" s="20"/>
+    </row>
+    <row r="627" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B627" s="20"/>
+      <c r="C627" s="20"/>
+      <c r="D627" s="20"/>
+    </row>
+    <row r="628" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B628" s="20"/>
+      <c r="C628" s="20"/>
+      <c r="D628" s="20"/>
+    </row>
+    <row r="629" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B629" s="20"/>
+      <c r="C629" s="20"/>
+      <c r="D629" s="20"/>
+    </row>
+    <row r="630" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B630" s="20"/>
+      <c r="C630" s="20"/>
+      <c r="D630" s="20"/>
+    </row>
+    <row r="631" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B631" s="20"/>
+      <c r="C631" s="20"/>
+      <c r="D631" s="20"/>
+    </row>
+    <row r="632" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B632" s="20"/>
+      <c r="C632" s="20"/>
+      <c r="D632" s="20"/>
+    </row>
+    <row r="633" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B633" s="20"/>
+      <c r="C633" s="20"/>
+      <c r="D633" s="20"/>
+    </row>
+    <row r="634" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B634" s="20"/>
+      <c r="C634" s="20"/>
+      <c r="D634" s="20"/>
+    </row>
+    <row r="635" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B635" s="20"/>
+      <c r="C635" s="20"/>
+      <c r="D635" s="20"/>
+    </row>
+    <row r="636" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B636" s="20"/>
+      <c r="C636" s="20"/>
+      <c r="D636" s="20"/>
+    </row>
+    <row r="637" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B637" s="20"/>
+      <c r="C637" s="20"/>
+      <c r="D637" s="20"/>
+    </row>
+    <row r="638" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B638" s="20"/>
+      <c r="C638" s="20"/>
+      <c r="D638" s="20"/>
+    </row>
+    <row r="639" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B639" s="20"/>
+      <c r="C639" s="20"/>
+      <c r="D639" s="20"/>
+    </row>
+    <row r="640" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B640" s="20"/>
+      <c r="C640" s="20"/>
+      <c r="D640" s="20"/>
+    </row>
+    <row r="641" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B641" s="20"/>
+      <c r="C641" s="20"/>
+      <c r="D641" s="20"/>
+    </row>
+    <row r="642" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B642" s="20"/>
+      <c r="C642" s="20"/>
+      <c r="D642" s="20"/>
+    </row>
+    <row r="643" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B643" s="20"/>
+      <c r="C643" s="20"/>
+      <c r="D643" s="20"/>
+    </row>
+    <row r="644" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B644" s="20"/>
+      <c r="C644" s="20"/>
+      <c r="D644" s="20"/>
+    </row>
+    <row r="645" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B645" s="20"/>
+      <c r="C645" s="20"/>
+      <c r="D645" s="20"/>
+    </row>
+    <row r="646" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B646" s="20"/>
+      <c r="C646" s="20"/>
+      <c r="D646" s="20"/>
+    </row>
+    <row r="647" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B647" s="20"/>
+      <c r="C647" s="20"/>
+      <c r="D647" s="20"/>
+    </row>
+    <row r="648" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B648" s="20"/>
+      <c r="C648" s="20"/>
+      <c r="D648" s="20"/>
+    </row>
+    <row r="649" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B649" s="20"/>
+      <c r="C649" s="20"/>
+      <c r="D649" s="20"/>
+    </row>
+    <row r="650" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B650" s="20"/>
+      <c r="C650" s="20"/>
+      <c r="D650" s="20"/>
+    </row>
+    <row r="651" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B651" s="20"/>
+      <c r="C651" s="20"/>
+      <c r="D651" s="20"/>
+    </row>
+    <row r="652" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B652" s="20"/>
+      <c r="C652" s="20"/>
+      <c r="D652" s="20"/>
+    </row>
+    <row r="653" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B653" s="20"/>
+      <c r="C653" s="20"/>
+      <c r="D653" s="20"/>
+    </row>
+    <row r="654" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B654" s="20"/>
+      <c r="C654" s="20"/>
+      <c r="D654" s="20"/>
+    </row>
+    <row r="655" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B655" s="20"/>
+      <c r="C655" s="20"/>
+      <c r="D655" s="20"/>
+    </row>
+    <row r="656" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B656" s="20"/>
+      <c r="C656" s="20"/>
+      <c r="D656" s="20"/>
+    </row>
+    <row r="657" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B657" s="20"/>
+      <c r="C657" s="20"/>
+      <c r="D657" s="20"/>
+    </row>
+    <row r="658" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B658" s="20"/>
+      <c r="C658" s="20"/>
+      <c r="D658" s="20"/>
+    </row>
+    <row r="659" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B659" s="20"/>
+      <c r="C659" s="20"/>
+      <c r="D659" s="20"/>
+    </row>
+    <row r="660" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B660" s="20"/>
+      <c r="C660" s="20"/>
+      <c r="D660" s="20"/>
+    </row>
+    <row r="661" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B661" s="20"/>
+      <c r="C661" s="20"/>
+      <c r="D661" s="20"/>
+    </row>
+    <row r="662" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B662" s="20"/>
+      <c r="C662" s="20"/>
+      <c r="D662" s="20"/>
+    </row>
+    <row r="663" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B663" s="20"/>
+      <c r="C663" s="20"/>
+      <c r="D663" s="20"/>
+    </row>
+    <row r="664" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B664" s="20"/>
+      <c r="C664" s="20"/>
+      <c r="D664" s="20"/>
+    </row>
+    <row r="665" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B665" s="20"/>
+      <c r="C665" s="20"/>
+      <c r="D665" s="20"/>
+    </row>
+    <row r="666" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B666" s="20"/>
+      <c r="C666" s="20"/>
+      <c r="D666" s="20"/>
+    </row>
+    <row r="667" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B667" s="20"/>
+      <c r="C667" s="20"/>
+      <c r="D667" s="20"/>
+    </row>
+    <row r="668" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B668" s="20"/>
+      <c r="C668" s="20"/>
+      <c r="D668" s="20"/>
+    </row>
+    <row r="669" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B669" s="20"/>
+      <c r="C669" s="20"/>
+      <c r="D669" s="20"/>
+    </row>
+    <row r="670" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B670" s="20"/>
+      <c r="C670" s="20"/>
+      <c r="D670" s="20"/>
+    </row>
+    <row r="671" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B671" s="20"/>
+      <c r="C671" s="20"/>
+      <c r="D671" s="20"/>
+    </row>
+    <row r="672" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B672" s="20"/>
+      <c r="C672" s="20"/>
+      <c r="D672" s="20"/>
+    </row>
+    <row r="673" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B673" s="20"/>
+      <c r="C673" s="20"/>
+      <c r="D673" s="20"/>
+    </row>
+    <row r="674" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B674" s="20"/>
+      <c r="C674" s="20"/>
+      <c r="D674" s="20"/>
+    </row>
+    <row r="675" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B675" s="20"/>
+      <c r="C675" s="20"/>
+      <c r="D675" s="20"/>
+    </row>
+    <row r="676" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B676" s="20"/>
+      <c r="C676" s="20"/>
+      <c r="D676" s="20"/>
+    </row>
+    <row r="677" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B677" s="20"/>
+      <c r="C677" s="20"/>
+      <c r="D677" s="20"/>
+    </row>
+    <row r="678" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B678" s="20"/>
+      <c r="C678" s="20"/>
+      <c r="D678" s="20"/>
+    </row>
+    <row r="679" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B679" s="20"/>
+      <c r="C679" s="20"/>
+      <c r="D679" s="20"/>
+    </row>
+    <row r="680" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B680" s="20"/>
+      <c r="C680" s="20"/>
+      <c r="D680" s="20"/>
+    </row>
+    <row r="681" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B681" s="20"/>
+      <c r="C681" s="20"/>
+      <c r="D681" s="20"/>
+    </row>
+    <row r="682" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B682" s="20"/>
+      <c r="C682" s="20"/>
+      <c r="D682" s="20"/>
+    </row>
+    <row r="683" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B683" s="20"/>
+      <c r="C683" s="20"/>
+      <c r="D683" s="20"/>
+    </row>
+    <row r="684" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B684" s="20"/>
+      <c r="C684" s="20"/>
+      <c r="D684" s="20"/>
+    </row>
+    <row r="685" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B685" s="20"/>
+      <c r="C685" s="20"/>
+      <c r="D685" s="20"/>
+    </row>
+    <row r="686" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B686" s="20"/>
+      <c r="C686" s="20"/>
+      <c r="D686" s="20"/>
+    </row>
+    <row r="687" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B687" s="20"/>
+      <c r="C687" s="20"/>
+      <c r="D687" s="20"/>
+    </row>
+    <row r="688" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B688" s="20"/>
+      <c r="C688" s="20"/>
+      <c r="D688" s="20"/>
+    </row>
+    <row r="689" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B689" s="20"/>
+      <c r="C689" s="20"/>
+      <c r="D689" s="20"/>
+    </row>
+    <row r="690" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B690" s="20"/>
+      <c r="C690" s="20"/>
+      <c r="D690" s="20"/>
+    </row>
+    <row r="691" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B691" s="20"/>
+      <c r="C691" s="20"/>
+      <c r="D691" s="20"/>
+    </row>
+    <row r="692" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B692" s="20"/>
+      <c r="C692" s="20"/>
+      <c r="D692" s="20"/>
+    </row>
+    <row r="693" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B693" s="20"/>
+      <c r="C693" s="20"/>
+      <c r="D693" s="20"/>
+    </row>
+    <row r="694" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B694" s="20"/>
+      <c r="C694" s="20"/>
+      <c r="D694" s="20"/>
+    </row>
+    <row r="695" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B695" s="20"/>
+      <c r="C695" s="20"/>
+      <c r="D695" s="20"/>
+    </row>
+    <row r="696" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B696" s="20"/>
+      <c r="C696" s="20"/>
+      <c r="D696" s="20"/>
+    </row>
+    <row r="697" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B697" s="20"/>
+      <c r="C697" s="20"/>
+      <c r="D697" s="20"/>
+    </row>
+    <row r="698" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B698" s="20"/>
+      <c r="C698" s="20"/>
+      <c r="D698" s="20"/>
+    </row>
+    <row r="699" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B699" s="20"/>
+      <c r="C699" s="20"/>
+      <c r="D699" s="20"/>
+    </row>
+    <row r="700" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B700" s="20"/>
+      <c r="C700" s="20"/>
+      <c r="D700" s="20"/>
+    </row>
+    <row r="701" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B701" s="20"/>
+      <c r="C701" s="20"/>
+      <c r="D701" s="20"/>
+    </row>
+    <row r="702" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B702" s="20"/>
+      <c r="C702" s="20"/>
+      <c r="D702" s="20"/>
+    </row>
+    <row r="703" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B703" s="20"/>
+      <c r="C703" s="20"/>
+      <c r="D703" s="20"/>
+    </row>
+    <row r="704" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B704" s="20"/>
+      <c r="C704" s="20"/>
+      <c r="D704" s="20"/>
+    </row>
+    <row r="705" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B705" s="20"/>
+      <c r="C705" s="20"/>
+      <c r="D705" s="20"/>
+    </row>
+    <row r="706" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B706" s="20"/>
+      <c r="C706" s="20"/>
+      <c r="D706" s="20"/>
+    </row>
+    <row r="707" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B707" s="20"/>
+      <c r="C707" s="20"/>
+      <c r="D707" s="20"/>
+    </row>
+    <row r="708" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B708" s="20"/>
+      <c r="C708" s="20"/>
+      <c r="D708" s="20"/>
+    </row>
+    <row r="709" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B709" s="20"/>
+      <c r="C709" s="20"/>
+      <c r="D709" s="20"/>
+    </row>
+    <row r="710" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B710" s="20"/>
+      <c r="C710" s="20"/>
+      <c r="D710" s="20"/>
+    </row>
+    <row r="711" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B711" s="20"/>
+      <c r="C711" s="20"/>
+      <c r="D711" s="20"/>
+    </row>
+    <row r="712" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B712" s="20"/>
+      <c r="C712" s="20"/>
+      <c r="D712" s="20"/>
+    </row>
+    <row r="713" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B713" s="20"/>
+      <c r="C713" s="20"/>
+      <c r="D713" s="20"/>
+    </row>
+    <row r="714" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B714" s="20"/>
+      <c r="C714" s="20"/>
+      <c r="D714" s="20"/>
+    </row>
+    <row r="715" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B715" s="20"/>
+      <c r="C715" s="20"/>
+      <c r="D715" s="20"/>
+    </row>
+    <row r="716" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B716" s="20"/>
+      <c r="C716" s="20"/>
+      <c r="D716" s="20"/>
+    </row>
+    <row r="717" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B717" s="20"/>
+      <c r="C717" s="20"/>
+      <c r="D717" s="20"/>
+    </row>
+    <row r="718" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B718" s="20"/>
+      <c r="C718" s="20"/>
+      <c r="D718" s="20"/>
+    </row>
+    <row r="719" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B719" s="20"/>
+      <c r="C719" s="20"/>
+      <c r="D719" s="20"/>
+    </row>
+    <row r="720" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B720" s="20"/>
+      <c r="C720" s="20"/>
+      <c r="D720" s="20"/>
+    </row>
+    <row r="721" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B721" s="20"/>
+      <c r="C721" s="20"/>
+      <c r="D721" s="20"/>
+    </row>
+    <row r="722" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B722" s="20"/>
+      <c r="C722" s="20"/>
+      <c r="D722" s="20"/>
+    </row>
+    <row r="723" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B723" s="20"/>
+      <c r="C723" s="20"/>
+      <c r="D723" s="20"/>
+    </row>
+    <row r="724" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B724" s="20"/>
+      <c r="C724" s="20"/>
+      <c r="D724" s="20"/>
+    </row>
+    <row r="725" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B725" s="20"/>
+      <c r="C725" s="20"/>
+      <c r="D725" s="20"/>
+    </row>
+    <row r="726" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B726" s="20"/>
+      <c r="C726" s="20"/>
+      <c r="D726" s="20"/>
+    </row>
+    <row r="727" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B727" s="20"/>
+      <c r="C727" s="20"/>
+      <c r="D727" s="20"/>
+    </row>
+    <row r="728" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B728" s="20"/>
+      <c r="C728" s="20"/>
+      <c r="D728" s="20"/>
+    </row>
+    <row r="729" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B729" s="20"/>
+      <c r="C729" s="20"/>
+      <c r="D729" s="20"/>
+    </row>
+    <row r="730" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B730" s="20"/>
+      <c r="C730" s="20"/>
+      <c r="D730" s="20"/>
+    </row>
+    <row r="731" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B731" s="20"/>
+      <c r="C731" s="20"/>
+      <c r="D731" s="20"/>
+    </row>
+    <row r="732" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B732" s="20"/>
+      <c r="C732" s="20"/>
+      <c r="D732" s="20"/>
+    </row>
+    <row r="733" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B733" s="20"/>
+      <c r="C733" s="20"/>
+      <c r="D733" s="20"/>
+    </row>
+    <row r="734" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B734" s="20"/>
+      <c r="C734" s="20"/>
+      <c r="D734" s="20"/>
+    </row>
+    <row r="735" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B735" s="20"/>
+      <c r="C735" s="20"/>
+      <c r="D735" s="20"/>
+    </row>
+    <row r="736" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B736" s="20"/>
+      <c r="C736" s="20"/>
+      <c r="D736" s="20"/>
+    </row>
+    <row r="737" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B737" s="20"/>
+      <c r="C737" s="20"/>
+      <c r="D737" s="20"/>
+    </row>
+    <row r="738" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B738" s="20"/>
+      <c r="C738" s="20"/>
+      <c r="D738" s="20"/>
+    </row>
+    <row r="739" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B739" s="20"/>
+      <c r="C739" s="20"/>
+      <c r="D739" s="20"/>
+    </row>
+    <row r="740" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B740" s="20"/>
+      <c r="C740" s="20"/>
+      <c r="D740" s="20"/>
+    </row>
+    <row r="741" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B741" s="20"/>
+      <c r="C741" s="20"/>
+      <c r="D741" s="20"/>
+    </row>
+    <row r="742" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B742" s="20"/>
+      <c r="C742" s="20"/>
+      <c r="D742" s="20"/>
+    </row>
+    <row r="743" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B743" s="20"/>
+      <c r="C743" s="20"/>
+      <c r="D743" s="20"/>
+    </row>
+    <row r="744" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B744" s="20"/>
+      <c r="C744" s="20"/>
+      <c r="D744" s="20"/>
+    </row>
+    <row r="745" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B745" s="20"/>
+      <c r="C745" s="20"/>
+      <c r="D745" s="20"/>
+    </row>
+    <row r="746" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B746" s="20"/>
+      <c r="C746" s="20"/>
+      <c r="D746" s="20"/>
+    </row>
+    <row r="747" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B747" s="20"/>
+      <c r="C747" s="20"/>
+      <c r="D747" s="20"/>
+    </row>
+    <row r="748" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B748" s="20"/>
+      <c r="C748" s="20"/>
+      <c r="D748" s="20"/>
+    </row>
+    <row r="749" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B749" s="20"/>
+      <c r="C749" s="20"/>
+      <c r="D749" s="20"/>
+    </row>
+    <row r="750" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B750" s="20"/>
+      <c r="C750" s="20"/>
+      <c r="D750" s="20"/>
+    </row>
+    <row r="751" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B751" s="20"/>
+      <c r="C751" s="20"/>
+      <c r="D751" s="20"/>
+    </row>
+    <row r="752" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B752" s="20"/>
+      <c r="C752" s="20"/>
+      <c r="D752" s="20"/>
+    </row>
+    <row r="753" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B753" s="20"/>
+      <c r="C753" s="20"/>
+      <c r="D753" s="20"/>
+    </row>
+    <row r="754" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B754" s="20"/>
+      <c r="C754" s="20"/>
+      <c r="D754" s="20"/>
+    </row>
+    <row r="755" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B755" s="20"/>
+      <c r="C755" s="20"/>
+      <c r="D755" s="20"/>
+    </row>
+    <row r="756" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B756" s="20"/>
+      <c r="C756" s="20"/>
+      <c r="D756" s="20"/>
+    </row>
+    <row r="757" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B757" s="20"/>
+      <c r="C757" s="20"/>
+      <c r="D757" s="20"/>
+    </row>
+    <row r="758" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B758" s="20"/>
+      <c r="C758" s="20"/>
+      <c r="D758" s="20"/>
+    </row>
+    <row r="759" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B759" s="20"/>
+      <c r="C759" s="20"/>
+      <c r="D759" s="20"/>
+    </row>
+    <row r="760" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B760" s="20"/>
+      <c r="C760" s="20"/>
+      <c r="D760" s="20"/>
+    </row>
+    <row r="761" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B761" s="20"/>
+      <c r="C761" s="20"/>
+      <c r="D761" s="20"/>
+    </row>
+    <row r="762" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B762" s="20"/>
+      <c r="C762" s="20"/>
+      <c r="D762" s="20"/>
+    </row>
+    <row r="763" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B763" s="20"/>
+      <c r="C763" s="20"/>
+      <c r="D763" s="20"/>
+    </row>
+    <row r="764" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B764" s="20"/>
+      <c r="C764" s="20"/>
+      <c r="D764" s="20"/>
+    </row>
+    <row r="765" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B765" s="20"/>
+      <c r="C765" s="20"/>
+      <c r="D765" s="20"/>
+    </row>
+    <row r="766" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B766" s="20"/>
+      <c r="C766" s="20"/>
+      <c r="D766" s="20"/>
+    </row>
+    <row r="767" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B767" s="20"/>
+      <c r="C767" s="20"/>
+      <c r="D767" s="20"/>
+    </row>
+    <row r="768" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B768" s="20"/>
+      <c r="C768" s="20"/>
+      <c r="D768" s="20"/>
+    </row>
+    <row r="769" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B769" s="20"/>
+      <c r="C769" s="20"/>
+      <c r="D769" s="20"/>
+    </row>
+    <row r="770" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B770" s="20"/>
+      <c r="C770" s="20"/>
+      <c r="D770" s="20"/>
+    </row>
+    <row r="771" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B771" s="20"/>
+      <c r="C771" s="20"/>
+      <c r="D771" s="20"/>
+    </row>
+    <row r="772" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B772" s="20"/>
+      <c r="C772" s="20"/>
+      <c r="D772" s="20"/>
+    </row>
+    <row r="773" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B773" s="20"/>
+      <c r="C773" s="20"/>
+      <c r="D773" s="20"/>
+    </row>
+    <row r="774" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B774" s="20"/>
+      <c r="C774" s="20"/>
+      <c r="D774" s="20"/>
+    </row>
+    <row r="775" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B775" s="20"/>
+      <c r="C775" s="20"/>
+      <c r="D775" s="20"/>
+    </row>
+    <row r="776" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B776" s="20"/>
+      <c r="C776" s="20"/>
+      <c r="D776" s="20"/>
+    </row>
+    <row r="777" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B777" s="20"/>
+      <c r="C777" s="20"/>
+      <c r="D777" s="20"/>
+    </row>
+    <row r="778" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B778" s="20"/>
+      <c r="C778" s="20"/>
+      <c r="D778" s="20"/>
+    </row>
+    <row r="779" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B779" s="20"/>
+      <c r="C779" s="20"/>
+      <c r="D779" s="20"/>
+    </row>
+    <row r="780" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B780" s="20"/>
+      <c r="C780" s="20"/>
+      <c r="D780" s="20"/>
+    </row>
+    <row r="781" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B781" s="20"/>
+      <c r="C781" s="20"/>
+      <c r="D781" s="20"/>
+    </row>
+    <row r="782" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B782" s="20"/>
+      <c r="C782" s="20"/>
+      <c r="D782" s="20"/>
+    </row>
+    <row r="783" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B783" s="20"/>
+      <c r="C783" s="20"/>
+      <c r="D783" s="20"/>
+    </row>
+    <row r="784" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B784" s="20"/>
+      <c r="C784" s="20"/>
+      <c r="D784" s="20"/>
+    </row>
+    <row r="785" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B785" s="20"/>
+      <c r="C785" s="20"/>
+      <c r="D785" s="20"/>
+    </row>
+    <row r="786" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B786" s="20"/>
+      <c r="C786" s="20"/>
+      <c r="D786" s="20"/>
+    </row>
+    <row r="787" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B787" s="20"/>
+      <c r="C787" s="20"/>
+      <c r="D787" s="20"/>
+    </row>
+    <row r="788" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B788" s="20"/>
+      <c r="C788" s="20"/>
+      <c r="D788" s="20"/>
+    </row>
+    <row r="789" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B789" s="20"/>
+      <c r="C789" s="20"/>
+      <c r="D789" s="20"/>
+    </row>
+    <row r="790" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B790" s="20"/>
+      <c r="C790" s="20"/>
+      <c r="D790" s="20"/>
+    </row>
+    <row r="791" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B791" s="20"/>
+      <c r="C791" s="20"/>
+      <c r="D791" s="20"/>
+    </row>
+    <row r="792" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B792" s="20"/>
+      <c r="C792" s="20"/>
+      <c r="D792" s="20"/>
+    </row>
+    <row r="793" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B793" s="20"/>
+      <c r="C793" s="20"/>
+      <c r="D793" s="20"/>
+    </row>
+    <row r="794" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B794" s="20"/>
+      <c r="C794" s="20"/>
+      <c r="D794" s="20"/>
+    </row>
+    <row r="795" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B795" s="20"/>
+      <c r="C795" s="20"/>
+      <c r="D795" s="20"/>
+    </row>
+    <row r="796" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B796" s="20"/>
+      <c r="C796" s="20"/>
+      <c r="D796" s="20"/>
+    </row>
+    <row r="797" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B797" s="20"/>
+      <c r="C797" s="20"/>
+      <c r="D797" s="20"/>
+    </row>
+    <row r="798" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B798" s="20"/>
+      <c r="C798" s="20"/>
+      <c r="D798" s="20"/>
+    </row>
+    <row r="799" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B799" s="20"/>
+      <c r="C799" s="20"/>
+      <c r="D799" s="20"/>
+    </row>
+    <row r="800" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B800" s="20"/>
+      <c r="C800" s="20"/>
+      <c r="D800" s="20"/>
+    </row>
+    <row r="801" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B801" s="20"/>
+      <c r="C801" s="20"/>
+      <c r="D801" s="20"/>
+    </row>
+    <row r="802" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B802" s="20"/>
+      <c r="C802" s="20"/>
+      <c r="D802" s="20"/>
+    </row>
+    <row r="803" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B803" s="20"/>
+      <c r="C803" s="20"/>
+      <c r="D803" s="20"/>
+    </row>
+    <row r="804" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B804" s="20"/>
+      <c r="C804" s="20"/>
+      <c r="D804" s="20"/>
+    </row>
+    <row r="805" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B805" s="20"/>
+      <c r="C805" s="20"/>
+      <c r="D805" s="20"/>
+    </row>
+    <row r="806" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B806" s="20"/>
+      <c r="C806" s="20"/>
+      <c r="D806" s="20"/>
+    </row>
+    <row r="807" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B807" s="20"/>
+      <c r="C807" s="20"/>
+      <c r="D807" s="20"/>
+    </row>
+    <row r="808" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B808" s="20"/>
+      <c r="C808" s="20"/>
+      <c r="D808" s="20"/>
+    </row>
+    <row r="809" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B809" s="20"/>
+      <c r="C809" s="20"/>
+      <c r="D809" s="20"/>
+    </row>
+    <row r="810" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B810" s="20"/>
+      <c r="C810" s="20"/>
+      <c r="D810" s="20"/>
+    </row>
+    <row r="811" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B811" s="20"/>
+      <c r="C811" s="20"/>
+      <c r="D811" s="20"/>
+    </row>
+    <row r="812" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B812" s="20"/>
+      <c r="C812" s="20"/>
+      <c r="D812" s="20"/>
+    </row>
+    <row r="813" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B813" s="20"/>
+      <c r="C813" s="20"/>
+      <c r="D813" s="20"/>
+    </row>
+    <row r="814" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B814" s="20"/>
+      <c r="C814" s="20"/>
+      <c r="D814" s="20"/>
+    </row>
+    <row r="815" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B815" s="20"/>
+      <c r="C815" s="20"/>
+      <c r="D815" s="20"/>
+    </row>
+    <row r="816" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B816" s="20"/>
+      <c r="C816" s="20"/>
+      <c r="D816" s="20"/>
+    </row>
+    <row r="817" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B817" s="20"/>
+      <c r="C817" s="20"/>
+      <c r="D817" s="20"/>
+    </row>
+    <row r="818" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B818" s="20"/>
+      <c r="C818" s="20"/>
+      <c r="D818" s="20"/>
+    </row>
+    <row r="819" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B819" s="20"/>
+      <c r="C819" s="20"/>
+      <c r="D819" s="20"/>
+    </row>
+    <row r="820" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B820" s="20"/>
+      <c r="C820" s="20"/>
+      <c r="D820" s="20"/>
+    </row>
+    <row r="821" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B821" s="20"/>
+      <c r="C821" s="20"/>
+      <c r="D821" s="20"/>
+    </row>
+    <row r="822" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B822" s="20"/>
+      <c r="C822" s="20"/>
+      <c r="D822" s="20"/>
+    </row>
+    <row r="823" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B823" s="20"/>
+      <c r="C823" s="20"/>
+      <c r="D823" s="20"/>
+    </row>
+    <row r="824" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B824" s="20"/>
+      <c r="C824" s="20"/>
+      <c r="D824" s="20"/>
+    </row>
+    <row r="825" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B825" s="20"/>
+      <c r="C825" s="20"/>
+      <c r="D825" s="20"/>
+    </row>
+    <row r="826" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B826" s="20"/>
+      <c r="C826" s="20"/>
+      <c r="D826" s="20"/>
+    </row>
+    <row r="827" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B827" s="20"/>
+      <c r="C827" s="20"/>
+      <c r="D827" s="20"/>
+    </row>
+    <row r="828" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B828" s="20"/>
+      <c r="C828" s="20"/>
+      <c r="D828" s="20"/>
+    </row>
+    <row r="829" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B829" s="20"/>
+      <c r="C829" s="20"/>
+      <c r="D829" s="20"/>
+    </row>
+    <row r="830" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B830" s="20"/>
+      <c r="C830" s="20"/>
+      <c r="D830" s="20"/>
+    </row>
+    <row r="831" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B831" s="20"/>
+      <c r="C831" s="20"/>
+      <c r="D831" s="20"/>
+    </row>
+    <row r="832" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B832" s="20"/>
+      <c r="C832" s="20"/>
+      <c r="D832" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1334,8 +5451,12 @@
     <hyperlink ref="A25" r:id="rId24" display="https://leetcode.cn/problems/longest-common-prefix/" xr:uid="{1848E214-F8B0-408F-922B-4AB8167A705C}"/>
     <hyperlink ref="A27" r:id="rId25" display="https://leetcode.cn/problems/3sum-closest/" xr:uid="{240DE783-E772-4444-8A47-3DEA8316A393}"/>
     <hyperlink ref="A28" r:id="rId26" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{4F9DF64F-51AF-4C39-9D1B-FC471F0E9577}"/>
+    <hyperlink ref="A29" r:id="rId27" display="https://leetcode.cn/problems/4sum/" xr:uid="{6137551F-8676-439C-94A4-328CA6AE1322}"/>
+    <hyperlink ref="A30" r:id="rId28" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{F1AC9113-C29E-46F5-97CC-F1B9B56C63CB}"/>
+    <hyperlink ref="A31" r:id="rId29" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{7C867382-A02C-475D-A3E3-5A62D2497C4A}"/>
+    <hyperlink ref="A32" r:id="rId30" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{5E73760C-4FA3-4727-BA44-93246258222B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId31"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36633AB5-2AA5-4F9A-815B-B3A27A680277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F795DDE-6C25-48C1-9DA6-5524AF7E4324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="2280" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6650" yWindow="2220" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="135">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,6 +476,65 @@
   </si>
   <si>
     <t xml:space="preserve">a little hard / worthwhile </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26. 删除有序数组中的重复项</t>
+  </si>
+  <si>
+    <t>2022.07.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都快成套路了，if + continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过重复项，双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27. 移除元素</t>
+  </si>
+  <si>
+    <t>快慢指针，首尾指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路更重要，用stl的remove可以偷懒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28. 实现 strStr()</t>
+  </si>
+  <si>
+    <t>暴力法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大名鼎鼎的字符串匹配，不过kmp肯定是写不出来的，暴力就简单了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50. Pow(x, n)</t>
+  </si>
+  <si>
+    <t>快速幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归/迭代两种写法，long long 接受 int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29. 两数相除</t>
+  </si>
+  <si>
+    <t>快速乘，二分法，溢出问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多细节在里面，&gt;&gt;的优先级很低，比+还低</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,11 +725,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -983,15 +1042,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G832"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.75" customWidth="1"/>
     <col min="2" max="2" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.4140625" customWidth="1"/>
+    <col min="3" max="3" width="23.9140625" customWidth="1"/>
     <col min="4" max="4" width="66.08203125" customWidth="1"/>
     <col min="5" max="5" width="11.08203125" customWidth="1"/>
     <col min="6" max="6" width="16.58203125" customWidth="1"/>
@@ -1031,7 +1090,7 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
@@ -1051,7 +1110,7 @@
       <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1072,7 +1131,7 @@
       <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
@@ -1090,7 +1149,7 @@
       <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1111,7 +1170,7 @@
       <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1472,7 +1531,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1486,7 +1545,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>109</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -1514,7 +1573,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>115</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -1527,30 +1586,75 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+    <row r="37" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" s="19"/>
@@ -5547,8 +5651,13 @@
     <hyperlink ref="A34" r:id="rId32" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{D80C27B4-4C10-476B-8227-FC6756C3A9D1}"/>
     <hyperlink ref="A35" r:id="rId33" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{591FDB74-9EBD-48E5-A8B1-51874E7ED96A}"/>
     <hyperlink ref="A36" r:id="rId34" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{06421339-9604-4764-AFF2-99E1B9A32964}"/>
+    <hyperlink ref="A38" r:id="rId35" display="https://leetcode.cn/problems/remove-element/" xr:uid="{762FA3EE-3B97-4BF2-8ECE-2CA3CA39AA34}"/>
+    <hyperlink ref="A37" r:id="rId36" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-array/" xr:uid="{FB31CAFE-B879-4217-9C50-B702743CEAEF}"/>
+    <hyperlink ref="A39" r:id="rId37" display="https://leetcode.cn/problems/implement-strstr/" xr:uid="{E1172238-B8FE-4564-BE37-752D5C6A59A0}"/>
+    <hyperlink ref="A40" r:id="rId38" display="https://leetcode.cn/problems/powx-n/" xr:uid="{2E9B638B-2603-4F85-B362-EE6CDA034D54}"/>
+    <hyperlink ref="A41" r:id="rId39" display="https://leetcode.cn/problems/divide-two-integers/" xr:uid="{BDA94D61-911A-4AD1-81B7-DD7F6208411C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId40"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F795DDE-6C25-48C1-9DA6-5524AF7E4324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CFFD8A-90A1-4BEC-8F80-F730D8C1E1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6650" yWindow="2220" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13610" yWindow="2400" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="145">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,6 +535,43 @@
   </si>
   <si>
     <t>很多细节在里面，&gt;&gt;的优先级很低，比+还低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30. 串联所有单词的子串</t>
+  </si>
+  <si>
+    <t>2022.07.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口，map用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map用法好多坑，题目没有多难，暴力也能写出来，头脑不在状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31. 下一个排列</t>
+  </si>
+  <si>
+    <t>全排列，翻转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码简单，思路难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32. 最长有效括号</t>
+  </si>
+  <si>
+    <t>栈，括号匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划也行，容易错，栈注意放个初值-1, 括号匹配成功的形式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1043,7 +1080,7 @@
   <dimension ref="A1:G832"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1656,20 +1693,47 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
+    <row r="42" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" s="19"/>
@@ -5656,8 +5720,11 @@
     <hyperlink ref="A39" r:id="rId37" display="https://leetcode.cn/problems/implement-strstr/" xr:uid="{E1172238-B8FE-4564-BE37-752D5C6A59A0}"/>
     <hyperlink ref="A40" r:id="rId38" display="https://leetcode.cn/problems/powx-n/" xr:uid="{2E9B638B-2603-4F85-B362-EE6CDA034D54}"/>
     <hyperlink ref="A41" r:id="rId39" display="https://leetcode.cn/problems/divide-two-integers/" xr:uid="{BDA94D61-911A-4AD1-81B7-DD7F6208411C}"/>
+    <hyperlink ref="A42" r:id="rId40" display="https://leetcode.cn/problems/substring-with-concatenation-of-all-words/" xr:uid="{68EFFC9C-4E7F-401B-AD15-0A8A71E893A2}"/>
+    <hyperlink ref="A43" r:id="rId41" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{C3ECB5E0-3B4A-4F03-ADD2-77EF16313C19}"/>
+    <hyperlink ref="A44" r:id="rId42" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{96E18196-AD1C-4A04-BD8C-E3A396229D02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId43"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CFFD8A-90A1-4BEC-8F80-F730D8C1E1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064723C6-0FF2-486F-912C-249C424EA00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13610" yWindow="2400" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5570" yWindow="1390" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="159">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -572,6 +572,57 @@
   </si>
   <si>
     <t>动态规划也行，容易错，栈注意放个初值-1, 括号匹配成功的形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33. 搜索旋转排序数组</t>
+  </si>
+  <si>
+    <t>2022.07.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非递增也能二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34. 在排序数组中查找元素的第一个和最后一个位置</t>
+  </si>
+  <si>
+    <t>二分范围查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower_bound和upper_bound，ans的初始值值得研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35. 搜索插入位置</t>
+  </si>
+  <si>
+    <t>lower_bound的实现套路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36. 有效的数独</t>
+  </si>
+  <si>
+    <t>二维三维hashTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以用set，效率低一点点，行列选择有意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38. 外观数列</t>
+  </si>
+  <si>
+    <t>to_string()的效率比+=低很多， for循环控制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -767,6 +818,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1079,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1735,262 +1789,343 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="19"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="19"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E52" s="19"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E53" s="19"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E54" s="19"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E55" s="19"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E56" s="19"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E57" s="19"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E58" s="19"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="19"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E60" s="19"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E61" s="19"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E62" s="19"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E64" s="19"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E65" s="19"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E66" s="19"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="19"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E68" s="19"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E69" s="19"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E70" s="19"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E71" s="19"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E72" s="19"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E73" s="19"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E74" s="19"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E75" s="19"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E76" s="19"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E77" s="19"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E78" s="19"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E79" s="19"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E80" s="19"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E81" s="19"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E82" s="19"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E83" s="19"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E84" s="19"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E85" s="19"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
       <c r="D96" s="19"/>
@@ -5723,8 +5858,13 @@
     <hyperlink ref="A42" r:id="rId40" display="https://leetcode.cn/problems/substring-with-concatenation-of-all-words/" xr:uid="{68EFFC9C-4E7F-401B-AD15-0A8A71E893A2}"/>
     <hyperlink ref="A43" r:id="rId41" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{C3ECB5E0-3B4A-4F03-ADD2-77EF16313C19}"/>
     <hyperlink ref="A44" r:id="rId42" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{96E18196-AD1C-4A04-BD8C-E3A396229D02}"/>
+    <hyperlink ref="A45" r:id="rId43" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B9BDE8F8-B582-4184-B1ED-526FDF150D4A}"/>
+    <hyperlink ref="A46" r:id="rId44" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{D8BBBEA4-3688-41E2-8F2F-14A3AD1B5E34}"/>
+    <hyperlink ref="A47" r:id="rId45" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{9EC11C82-3373-4B94-BD9C-C57BDED1771C}"/>
+    <hyperlink ref="A48" r:id="rId46" display="https://leetcode.cn/problems/valid-sudoku/" xr:uid="{104B5349-3D8B-40AC-9B70-956C85ECB5F5}"/>
+    <hyperlink ref="A49" r:id="rId47" display="https://leetcode.cn/problems/count-and-say/" xr:uid="{A5094EF4-6644-4CB9-A817-776D0560BB3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId43"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId48"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064723C6-0FF2-486F-912C-249C424EA00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAB1C8E-2C6F-4490-8BDF-580640B6A288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5570" yWindow="1390" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="1730" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="169">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,6 +623,43 @@
   </si>
   <si>
     <t>to_string()的效率比+=低很多， for循环控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37. 解数独</t>
+  </si>
+  <si>
+    <t>2022.07.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯，哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准的排列树，dfs的退出方式值得借鉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39. 组合总和</t>
+  </si>
+  <si>
+    <t>经典回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个字，经典，不算难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40. 组合总和 II</t>
+  </si>
+  <si>
+    <t>回溯剪枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重在剪枝，虽然做出来了，参考答案的思路也很有意思</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,11 +853,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1134,7 +1171,7 @@
   <dimension ref="A1:G832"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1181,7 +1218,7 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
@@ -1201,7 +1238,7 @@
       <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1222,7 +1259,7 @@
       <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
@@ -1240,7 +1277,7 @@
       <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1261,7 +1298,7 @@
       <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1818,7 +1855,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>152</v>
       </c>
       <c r="B47" s="19" t="s">
@@ -1832,7 +1869,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>154</v>
       </c>
       <c r="B48" s="19" t="s">
@@ -1859,23 +1896,48 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
+    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
+      <c r="A51" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>165</v>
+      </c>
       <c r="E51" s="19"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
+    <row r="52" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" s="19"/>
@@ -5863,8 +5925,11 @@
     <hyperlink ref="A47" r:id="rId45" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{9EC11C82-3373-4B94-BD9C-C57BDED1771C}"/>
     <hyperlink ref="A48" r:id="rId46" display="https://leetcode.cn/problems/valid-sudoku/" xr:uid="{104B5349-3D8B-40AC-9B70-956C85ECB5F5}"/>
     <hyperlink ref="A49" r:id="rId47" display="https://leetcode.cn/problems/count-and-say/" xr:uid="{A5094EF4-6644-4CB9-A817-776D0560BB3D}"/>
+    <hyperlink ref="A50" r:id="rId48" display="https://leetcode.cn/problems/sudoku-solver/" xr:uid="{DCB6E377-CEDA-46DC-88BE-76C9FAAC4D66}"/>
+    <hyperlink ref="A51" r:id="rId49" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{B1DAB062-EA61-4D68-BFB7-E46584681267}"/>
+    <hyperlink ref="A52" r:id="rId50" display="https://leetcode.cn/problems/combination-sum-ii/" xr:uid="{43E1BA57-24BD-432A-9713-AC83587EA020}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId51"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAB1C8E-2C6F-4490-8BDF-580640B6A288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4234413-839F-4653-9234-F7DD0F0474B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="1730" windowWidth="28800" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="177">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,6 +660,36 @@
   </si>
   <si>
     <t>重在剪枝，虽然做出来了，参考答案的思路也很有意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41. 缺失的第一个正数</t>
+  </si>
+  <si>
+    <t>2022.07.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原地哈希标记/交换排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先明确结果范围，然后原地标记/原地交换排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42. 接雨水</t>
+  </si>
+  <si>
+    <t>2022.08.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调栈/双指针/动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常好的一道题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1170,22 +1200,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.75" customWidth="1"/>
-    <col min="2" max="2" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.9140625" customWidth="1"/>
-    <col min="4" max="4" width="66.08203125" customWidth="1"/>
-    <col min="5" max="5" width="11.08203125" customWidth="1"/>
-    <col min="6" max="6" width="16.58203125" customWidth="1"/>
-    <col min="7" max="7" width="33.58203125" customWidth="1"/>
+    <col min="1" max="1" width="51.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="66.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
@@ -1228,7 +1258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
@@ -1246,7 +1276,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
@@ -1267,7 +1297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
@@ -1285,7 +1315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -1306,7 +1336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>37</v>
       </c>
@@ -1320,7 +1350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
@@ -1331,7 +1361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
@@ -1345,7 +1375,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>40</v>
       </c>
@@ -1359,12 +1389,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
@@ -1378,7 +1408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>49</v>
       </c>
@@ -1392,7 +1422,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>52</v>
       </c>
@@ -1406,7 +1436,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>58</v>
       </c>
@@ -1420,7 +1450,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>56</v>
       </c>
@@ -1434,7 +1464,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>61</v>
       </c>
@@ -1448,7 +1478,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>66</v>
       </c>
@@ -1462,7 +1492,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>64</v>
       </c>
@@ -1476,7 +1506,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
@@ -1490,7 +1520,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>71</v>
       </c>
@@ -1504,7 +1534,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>75</v>
       </c>
@@ -1518,7 +1548,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>77</v>
       </c>
@@ -1532,7 +1562,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>80</v>
       </c>
@@ -1546,7 +1576,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>86</v>
       </c>
@@ -1560,7 +1590,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>83</v>
       </c>
@@ -1574,7 +1604,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>89</v>
       </c>
@@ -1588,7 +1618,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>91</v>
       </c>
@@ -1602,7 +1632,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>94</v>
       </c>
@@ -1616,7 +1646,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>97</v>
       </c>
@@ -1630,7 +1660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>101</v>
       </c>
@@ -1644,7 +1674,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>104</v>
       </c>
@@ -1658,7 +1688,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>107</v>
       </c>
@@ -1672,7 +1702,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>109</v>
       </c>
@@ -1686,7 +1716,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>112</v>
       </c>
@@ -1700,7 +1730,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>115</v>
       </c>
@@ -1714,7 +1744,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>119</v>
       </c>
@@ -1728,7 +1758,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>123</v>
       </c>
@@ -1742,7 +1772,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>126</v>
       </c>
@@ -1756,7 +1786,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>129</v>
       </c>
@@ -1770,7 +1800,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>132</v>
       </c>
@@ -1784,7 +1814,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>135</v>
       </c>
@@ -1798,7 +1828,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>139</v>
       </c>
@@ -1812,7 +1842,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>142</v>
       </c>
@@ -1826,7 +1856,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>145</v>
       </c>
@@ -1840,7 +1870,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>149</v>
       </c>
@@ -1854,7 +1884,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>152</v>
       </c>
@@ -1868,7 +1898,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>154</v>
       </c>
@@ -1882,7 +1912,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>157</v>
       </c>
@@ -1896,7 +1926,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>159</v>
       </c>
@@ -1910,7 +1940,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>163</v>
       </c>
@@ -1925,7 +1955,7 @@
       </c>
       <c r="E51" s="19"/>
     </row>
-    <row r="52" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>166</v>
       </c>
@@ -1939,3935 +1969,3951 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
       <c r="D96" s="19"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
       <c r="D97" s="19"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
       <c r="D98" s="19"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
       <c r="D99" s="19"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
       <c r="D100" s="19"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
       <c r="D101" s="19"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
       <c r="D102" s="19"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
       <c r="D109" s="19"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
       <c r="D110" s="19"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
       <c r="D111" s="19"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
       <c r="D112" s="19"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
       <c r="D113" s="19"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
       <c r="D114" s="19"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
       <c r="D115" s="19"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
       <c r="D116" s="19"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
       <c r="D117" s="19"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
       <c r="D118" s="19"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
       <c r="D119" s="19"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
       <c r="D120" s="19"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
       <c r="D121" s="19"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
       <c r="D122" s="19"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
       <c r="D123" s="19"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
       <c r="D128" s="19"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
       <c r="D129" s="19"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
       <c r="D130" s="19"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
       <c r="D131" s="19"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
       <c r="D132" s="19"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
       <c r="D135" s="19"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
       <c r="D137" s="19"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
       <c r="D139" s="19"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
       <c r="D140" s="19"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
       <c r="D144" s="19"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
       <c r="D145" s="19"/>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
       <c r="D146" s="19"/>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
       <c r="D147" s="19"/>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
       <c r="D148" s="19"/>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
       <c r="D149" s="19"/>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
       <c r="D150" s="19"/>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
       <c r="D151" s="19"/>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" s="19"/>
       <c r="C152" s="19"/>
       <c r="D152" s="19"/>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
       <c r="D153" s="19"/>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
       <c r="D154" s="19"/>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
       <c r="D155" s="19"/>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
       <c r="D156" s="19"/>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
       <c r="D157" s="19"/>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
       <c r="D159" s="19"/>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
       <c r="D160" s="19"/>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="19"/>
       <c r="C161" s="19"/>
       <c r="D161" s="19"/>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
       <c r="D162" s="19"/>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
       <c r="D163" s="19"/>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
       <c r="D164" s="19"/>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
       <c r="D165" s="19"/>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
       <c r="D166" s="19"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="19"/>
       <c r="C167" s="19"/>
       <c r="D167" s="19"/>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" s="19"/>
       <c r="C168" s="19"/>
       <c r="D168" s="19"/>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" s="19"/>
       <c r="C169" s="19"/>
       <c r="D169" s="19"/>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" s="19"/>
       <c r="C170" s="19"/>
       <c r="D170" s="19"/>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
       <c r="D171" s="19"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
       <c r="D172" s="19"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" s="19"/>
       <c r="C173" s="19"/>
       <c r="D173" s="19"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
       <c r="D174" s="19"/>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" s="19"/>
       <c r="C175" s="19"/>
       <c r="D175" s="19"/>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
       <c r="D176" s="19"/>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" s="19"/>
       <c r="C177" s="19"/>
       <c r="D177" s="19"/>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
       <c r="D178" s="19"/>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
       <c r="D179" s="19"/>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" s="19"/>
       <c r="C180" s="19"/>
       <c r="D180" s="19"/>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" s="19"/>
       <c r="C181" s="19"/>
       <c r="D181" s="19"/>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
       <c r="D182" s="19"/>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" s="19"/>
       <c r="C183" s="19"/>
       <c r="D183" s="19"/>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
       <c r="D184" s="19"/>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
       <c r="D185" s="19"/>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" s="19"/>
       <c r="C186" s="19"/>
       <c r="D186" s="19"/>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
       <c r="D187" s="19"/>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
       <c r="D188" s="19"/>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" s="19"/>
       <c r="C189" s="19"/>
       <c r="D189" s="19"/>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
       <c r="D190" s="19"/>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
       <c r="D191" s="19"/>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
       <c r="D192" s="19"/>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" s="19"/>
       <c r="C193" s="19"/>
       <c r="D193" s="19"/>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" s="19"/>
       <c r="C194" s="19"/>
       <c r="D194" s="19"/>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" s="19"/>
       <c r="C195" s="19"/>
       <c r="D195" s="19"/>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" s="19"/>
       <c r="C196" s="19"/>
       <c r="D196" s="19"/>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" s="19"/>
       <c r="C197" s="19"/>
       <c r="D197" s="19"/>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" s="19"/>
       <c r="C198" s="19"/>
       <c r="D198" s="19"/>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" s="19"/>
       <c r="C199" s="19"/>
       <c r="D199" s="19"/>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" s="19"/>
       <c r="C200" s="19"/>
       <c r="D200" s="19"/>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="19"/>
       <c r="C201" s="19"/>
       <c r="D201" s="19"/>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" s="19"/>
       <c r="C202" s="19"/>
       <c r="D202" s="19"/>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" s="19"/>
       <c r="C203" s="19"/>
       <c r="D203" s="19"/>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" s="19"/>
       <c r="C204" s="19"/>
       <c r="D204" s="19"/>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" s="19"/>
       <c r="C205" s="19"/>
       <c r="D205" s="19"/>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" s="19"/>
       <c r="C206" s="19"/>
       <c r="D206" s="19"/>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" s="19"/>
       <c r="C207" s="19"/>
       <c r="D207" s="19"/>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" s="19"/>
       <c r="C208" s="19"/>
       <c r="D208" s="19"/>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="19"/>
       <c r="C209" s="19"/>
       <c r="D209" s="19"/>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="19"/>
       <c r="C210" s="19"/>
       <c r="D210" s="19"/>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" s="19"/>
       <c r="C211" s="19"/>
       <c r="D211" s="19"/>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="19"/>
       <c r="C212" s="19"/>
       <c r="D212" s="19"/>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="19"/>
       <c r="C213" s="19"/>
       <c r="D213" s="19"/>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="19"/>
       <c r="C214" s="19"/>
       <c r="D214" s="19"/>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="19"/>
       <c r="C215" s="19"/>
       <c r="D215" s="19"/>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" s="19"/>
       <c r="C216" s="19"/>
       <c r="D216" s="19"/>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="19"/>
       <c r="C217" s="19"/>
       <c r="D217" s="19"/>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" s="19"/>
       <c r="C218" s="19"/>
       <c r="D218" s="19"/>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" s="19"/>
       <c r="C219" s="19"/>
       <c r="D219" s="19"/>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="19"/>
       <c r="C220" s="19"/>
       <c r="D220" s="19"/>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="19"/>
       <c r="C221" s="19"/>
       <c r="D221" s="19"/>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="19"/>
       <c r="C222" s="19"/>
       <c r="D222" s="19"/>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" s="19"/>
       <c r="C223" s="19"/>
       <c r="D223" s="19"/>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="19"/>
       <c r="C224" s="19"/>
       <c r="D224" s="19"/>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" s="19"/>
       <c r="C225" s="19"/>
       <c r="D225" s="19"/>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" s="19"/>
       <c r="C226" s="19"/>
       <c r="D226" s="19"/>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" s="19"/>
       <c r="C227" s="19"/>
       <c r="D227" s="19"/>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" s="19"/>
       <c r="C228" s="19"/>
       <c r="D228" s="19"/>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="19"/>
       <c r="C229" s="19"/>
       <c r="D229" s="19"/>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="19"/>
       <c r="C230" s="19"/>
       <c r="D230" s="19"/>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="19"/>
       <c r="C231" s="19"/>
       <c r="D231" s="19"/>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" s="19"/>
       <c r="C232" s="19"/>
       <c r="D232" s="19"/>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="19"/>
       <c r="C233" s="19"/>
       <c r="D233" s="19"/>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="19"/>
       <c r="C234" s="19"/>
       <c r="D234" s="19"/>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" s="19"/>
       <c r="C235" s="19"/>
       <c r="D235" s="19"/>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" s="19"/>
       <c r="C236" s="19"/>
       <c r="D236" s="19"/>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" s="19"/>
       <c r="C237" s="19"/>
       <c r="D237" s="19"/>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" s="19"/>
       <c r="C238" s="19"/>
       <c r="D238" s="19"/>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" s="19"/>
       <c r="C239" s="19"/>
       <c r="D239" s="19"/>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" s="19"/>
       <c r="C240" s="19"/>
       <c r="D240" s="19"/>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" s="19"/>
       <c r="C241" s="19"/>
       <c r="D241" s="19"/>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" s="19"/>
       <c r="C242" s="19"/>
       <c r="D242" s="19"/>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" s="19"/>
       <c r="C243" s="19"/>
       <c r="D243" s="19"/>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" s="19"/>
       <c r="C244" s="19"/>
       <c r="D244" s="19"/>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" s="19"/>
       <c r="C245" s="19"/>
       <c r="D245" s="19"/>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" s="19"/>
       <c r="C246" s="19"/>
       <c r="D246" s="19"/>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" s="19"/>
       <c r="C247" s="19"/>
       <c r="D247" s="19"/>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" s="19"/>
       <c r="C248" s="19"/>
       <c r="D248" s="19"/>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" s="19"/>
       <c r="C249" s="19"/>
       <c r="D249" s="19"/>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" s="19"/>
       <c r="C250" s="19"/>
       <c r="D250" s="19"/>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" s="19"/>
       <c r="C251" s="19"/>
       <c r="D251" s="19"/>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" s="19"/>
       <c r="C252" s="19"/>
       <c r="D252" s="19"/>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="19"/>
       <c r="C253" s="19"/>
       <c r="D253" s="19"/>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" s="19"/>
       <c r="C254" s="19"/>
       <c r="D254" s="19"/>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" s="19"/>
       <c r="C255" s="19"/>
       <c r="D255" s="19"/>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" s="19"/>
       <c r="C256" s="19"/>
       <c r="D256" s="19"/>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" s="19"/>
       <c r="C257" s="19"/>
       <c r="D257" s="19"/>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" s="19"/>
       <c r="C258" s="19"/>
       <c r="D258" s="19"/>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" s="19"/>
       <c r="C259" s="19"/>
       <c r="D259" s="19"/>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" s="19"/>
       <c r="C260" s="19"/>
       <c r="D260" s="19"/>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" s="19"/>
       <c r="C261" s="19"/>
       <c r="D261" s="19"/>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" s="19"/>
       <c r="C262" s="19"/>
       <c r="D262" s="19"/>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" s="19"/>
       <c r="C263" s="19"/>
       <c r="D263" s="19"/>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" s="19"/>
       <c r="C264" s="19"/>
       <c r="D264" s="19"/>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" s="19"/>
       <c r="C265" s="19"/>
       <c r="D265" s="19"/>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" s="19"/>
       <c r="C266" s="19"/>
       <c r="D266" s="19"/>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" s="19"/>
       <c r="C267" s="19"/>
       <c r="D267" s="19"/>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" s="19"/>
       <c r="C268" s="19"/>
       <c r="D268" s="19"/>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" s="19"/>
       <c r="C269" s="19"/>
       <c r="D269" s="19"/>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" s="19"/>
       <c r="C270" s="19"/>
       <c r="D270" s="19"/>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" s="19"/>
       <c r="C271" s="19"/>
       <c r="D271" s="19"/>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" s="19"/>
       <c r="C272" s="19"/>
       <c r="D272" s="19"/>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" s="19"/>
       <c r="C273" s="19"/>
       <c r="D273" s="19"/>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" s="19"/>
       <c r="C274" s="19"/>
       <c r="D274" s="19"/>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" s="19"/>
       <c r="C275" s="19"/>
       <c r="D275" s="19"/>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" s="19"/>
       <c r="C276" s="19"/>
       <c r="D276" s="19"/>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" s="19"/>
       <c r="C277" s="19"/>
       <c r="D277" s="19"/>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" s="19"/>
       <c r="C278" s="19"/>
       <c r="D278" s="19"/>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" s="19"/>
       <c r="C279" s="19"/>
       <c r="D279" s="19"/>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" s="19"/>
       <c r="C280" s="19"/>
       <c r="D280" s="19"/>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" s="19"/>
       <c r="C281" s="19"/>
       <c r="D281" s="19"/>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" s="19"/>
       <c r="C282" s="19"/>
       <c r="D282" s="19"/>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" s="19"/>
       <c r="C283" s="19"/>
       <c r="D283" s="19"/>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" s="19"/>
       <c r="C284" s="19"/>
       <c r="D284" s="19"/>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" s="19"/>
       <c r="C285" s="19"/>
       <c r="D285" s="19"/>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" s="19"/>
       <c r="C286" s="19"/>
       <c r="D286" s="19"/>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" s="19"/>
       <c r="C287" s="19"/>
       <c r="D287" s="19"/>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" s="19"/>
       <c r="C288" s="19"/>
       <c r="D288" s="19"/>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" s="19"/>
       <c r="C289" s="19"/>
       <c r="D289" s="19"/>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" s="19"/>
       <c r="C290" s="19"/>
       <c r="D290" s="19"/>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" s="19"/>
       <c r="C291" s="19"/>
       <c r="D291" s="19"/>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" s="19"/>
       <c r="C292" s="19"/>
       <c r="D292" s="19"/>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" s="19"/>
       <c r="C293" s="19"/>
       <c r="D293" s="19"/>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" s="19"/>
       <c r="C294" s="19"/>
       <c r="D294" s="19"/>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" s="19"/>
       <c r="C295" s="19"/>
       <c r="D295" s="19"/>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" s="19"/>
       <c r="C296" s="19"/>
       <c r="D296" s="19"/>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" s="19"/>
       <c r="C297" s="19"/>
       <c r="D297" s="19"/>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" s="19"/>
       <c r="C298" s="19"/>
       <c r="D298" s="19"/>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" s="19"/>
       <c r="C299" s="19"/>
       <c r="D299" s="19"/>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" s="19"/>
       <c r="C300" s="19"/>
       <c r="D300" s="19"/>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" s="19"/>
       <c r="C301" s="19"/>
       <c r="D301" s="19"/>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" s="19"/>
       <c r="C302" s="19"/>
       <c r="D302" s="19"/>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" s="19"/>
       <c r="C303" s="19"/>
       <c r="D303" s="19"/>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" s="19"/>
       <c r="C304" s="19"/>
       <c r="D304" s="19"/>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" s="19"/>
       <c r="C305" s="19"/>
       <c r="D305" s="19"/>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" s="19"/>
       <c r="C306" s="19"/>
       <c r="D306" s="19"/>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" s="19"/>
       <c r="C307" s="19"/>
       <c r="D307" s="19"/>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" s="19"/>
       <c r="C308" s="19"/>
       <c r="D308" s="19"/>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" s="19"/>
       <c r="C309" s="19"/>
       <c r="D309" s="19"/>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" s="19"/>
       <c r="C310" s="19"/>
       <c r="D310" s="19"/>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" s="19"/>
       <c r="C311" s="19"/>
       <c r="D311" s="19"/>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" s="19"/>
       <c r="C312" s="19"/>
       <c r="D312" s="19"/>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" s="19"/>
       <c r="C313" s="19"/>
       <c r="D313" s="19"/>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" s="19"/>
       <c r="C314" s="19"/>
       <c r="D314" s="19"/>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" s="19"/>
       <c r="C315" s="19"/>
       <c r="D315" s="19"/>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" s="19"/>
       <c r="C316" s="19"/>
       <c r="D316" s="19"/>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" s="19"/>
       <c r="C317" s="19"/>
       <c r="D317" s="19"/>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" s="19"/>
       <c r="C318" s="19"/>
       <c r="D318" s="19"/>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" s="19"/>
       <c r="C319" s="19"/>
       <c r="D319" s="19"/>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" s="19"/>
       <c r="C320" s="19"/>
       <c r="D320" s="19"/>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" s="19"/>
       <c r="C321" s="19"/>
       <c r="D321" s="19"/>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" s="19"/>
       <c r="C322" s="19"/>
       <c r="D322" s="19"/>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" s="19"/>
       <c r="C323" s="19"/>
       <c r="D323" s="19"/>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" s="19"/>
       <c r="C324" s="19"/>
       <c r="D324" s="19"/>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" s="19"/>
       <c r="C325" s="19"/>
       <c r="D325" s="19"/>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" s="19"/>
       <c r="C326" s="19"/>
       <c r="D326" s="19"/>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" s="19"/>
       <c r="C327" s="19"/>
       <c r="D327" s="19"/>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" s="19"/>
       <c r="C328" s="19"/>
       <c r="D328" s="19"/>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" s="19"/>
       <c r="C329" s="19"/>
       <c r="D329" s="19"/>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" s="19"/>
       <c r="C330" s="19"/>
       <c r="D330" s="19"/>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" s="19"/>
       <c r="C331" s="19"/>
       <c r="D331" s="19"/>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" s="19"/>
       <c r="C332" s="19"/>
       <c r="D332" s="19"/>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" s="19"/>
       <c r="C333" s="19"/>
       <c r="D333" s="19"/>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" s="19"/>
       <c r="C334" s="19"/>
       <c r="D334" s="19"/>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" s="19"/>
       <c r="C335" s="19"/>
       <c r="D335" s="19"/>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" s="19"/>
       <c r="C336" s="19"/>
       <c r="D336" s="19"/>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" s="19"/>
       <c r="C337" s="19"/>
       <c r="D337" s="19"/>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" s="19"/>
       <c r="C338" s="19"/>
       <c r="D338" s="19"/>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" s="19"/>
       <c r="C339" s="19"/>
       <c r="D339" s="19"/>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" s="19"/>
       <c r="C340" s="19"/>
       <c r="D340" s="19"/>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" s="19"/>
       <c r="C341" s="19"/>
       <c r="D341" s="19"/>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" s="19"/>
       <c r="C342" s="19"/>
       <c r="D342" s="19"/>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" s="19"/>
       <c r="C343" s="19"/>
       <c r="D343" s="19"/>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" s="19"/>
       <c r="C344" s="19"/>
       <c r="D344" s="19"/>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" s="19"/>
       <c r="C345" s="19"/>
       <c r="D345" s="19"/>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" s="19"/>
       <c r="C346" s="19"/>
       <c r="D346" s="19"/>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" s="19"/>
       <c r="C347" s="19"/>
       <c r="D347" s="19"/>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" s="19"/>
       <c r="C348" s="19"/>
       <c r="D348" s="19"/>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" s="19"/>
       <c r="C349" s="19"/>
       <c r="D349" s="19"/>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" s="19"/>
       <c r="C350" s="19"/>
       <c r="D350" s="19"/>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" s="19"/>
       <c r="C351" s="19"/>
       <c r="D351" s="19"/>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" s="19"/>
       <c r="C352" s="19"/>
       <c r="D352" s="19"/>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" s="19"/>
       <c r="C353" s="19"/>
       <c r="D353" s="19"/>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" s="19"/>
       <c r="C354" s="19"/>
       <c r="D354" s="19"/>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" s="19"/>
       <c r="C355" s="19"/>
       <c r="D355" s="19"/>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B356" s="19"/>
       <c r="C356" s="19"/>
       <c r="D356" s="19"/>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" s="19"/>
       <c r="C357" s="19"/>
       <c r="D357" s="19"/>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" s="19"/>
       <c r="C358" s="19"/>
       <c r="D358" s="19"/>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B359" s="19"/>
       <c r="C359" s="19"/>
       <c r="D359" s="19"/>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" s="19"/>
       <c r="C360" s="19"/>
       <c r="D360" s="19"/>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B361" s="19"/>
       <c r="C361" s="19"/>
       <c r="D361" s="19"/>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" s="19"/>
       <c r="C362" s="19"/>
       <c r="D362" s="19"/>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" s="19"/>
       <c r="C363" s="19"/>
       <c r="D363" s="19"/>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B364" s="19"/>
       <c r="C364" s="19"/>
       <c r="D364" s="19"/>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B365" s="19"/>
       <c r="C365" s="19"/>
       <c r="D365" s="19"/>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" s="19"/>
       <c r="C366" s="19"/>
       <c r="D366" s="19"/>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" s="19"/>
       <c r="C367" s="19"/>
       <c r="D367" s="19"/>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" s="19"/>
       <c r="C368" s="19"/>
       <c r="D368" s="19"/>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B369" s="19"/>
       <c r="C369" s="19"/>
       <c r="D369" s="19"/>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B370" s="19"/>
       <c r="C370" s="19"/>
       <c r="D370" s="19"/>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B371" s="19"/>
       <c r="C371" s="19"/>
       <c r="D371" s="19"/>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B372" s="19"/>
       <c r="C372" s="19"/>
       <c r="D372" s="19"/>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B373" s="19"/>
       <c r="C373" s="19"/>
       <c r="D373" s="19"/>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B374" s="19"/>
       <c r="C374" s="19"/>
       <c r="D374" s="19"/>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B375" s="19"/>
       <c r="C375" s="19"/>
       <c r="D375" s="19"/>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B376" s="19"/>
       <c r="C376" s="19"/>
       <c r="D376" s="19"/>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B377" s="19"/>
       <c r="C377" s="19"/>
       <c r="D377" s="19"/>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B378" s="19"/>
       <c r="C378" s="19"/>
       <c r="D378" s="19"/>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B379" s="19"/>
       <c r="C379" s="19"/>
       <c r="D379" s="19"/>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B380" s="19"/>
       <c r="C380" s="19"/>
       <c r="D380" s="19"/>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B381" s="19"/>
       <c r="C381" s="19"/>
       <c r="D381" s="19"/>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B382" s="19"/>
       <c r="C382" s="19"/>
       <c r="D382" s="19"/>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B383" s="19"/>
       <c r="C383" s="19"/>
       <c r="D383" s="19"/>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B384" s="19"/>
       <c r="C384" s="19"/>
       <c r="D384" s="19"/>
     </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B385" s="19"/>
       <c r="C385" s="19"/>
       <c r="D385" s="19"/>
     </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B386" s="19"/>
       <c r="C386" s="19"/>
       <c r="D386" s="19"/>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B387" s="19"/>
       <c r="C387" s="19"/>
       <c r="D387" s="19"/>
     </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B388" s="19"/>
       <c r="C388" s="19"/>
       <c r="D388" s="19"/>
     </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B389" s="19"/>
       <c r="C389" s="19"/>
       <c r="D389" s="19"/>
     </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B390" s="19"/>
       <c r="C390" s="19"/>
       <c r="D390" s="19"/>
     </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B391" s="19"/>
       <c r="C391" s="19"/>
       <c r="D391" s="19"/>
     </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B392" s="19"/>
       <c r="C392" s="19"/>
       <c r="D392" s="19"/>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B393" s="19"/>
       <c r="C393" s="19"/>
       <c r="D393" s="19"/>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B394" s="19"/>
       <c r="C394" s="19"/>
       <c r="D394" s="19"/>
     </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B395" s="19"/>
       <c r="C395" s="19"/>
       <c r="D395" s="19"/>
     </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B396" s="19"/>
       <c r="C396" s="19"/>
       <c r="D396" s="19"/>
     </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B397" s="19"/>
       <c r="C397" s="19"/>
       <c r="D397" s="19"/>
     </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B398" s="19"/>
       <c r="C398" s="19"/>
       <c r="D398" s="19"/>
     </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B399" s="19"/>
       <c r="C399" s="19"/>
       <c r="D399" s="19"/>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B400" s="19"/>
       <c r="C400" s="19"/>
       <c r="D400" s="19"/>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B401" s="19"/>
       <c r="C401" s="19"/>
       <c r="D401" s="19"/>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B402" s="19"/>
       <c r="C402" s="19"/>
       <c r="D402" s="19"/>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B403" s="19"/>
       <c r="C403" s="19"/>
       <c r="D403" s="19"/>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B404" s="19"/>
       <c r="C404" s="19"/>
       <c r="D404" s="19"/>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B405" s="19"/>
       <c r="C405" s="19"/>
       <c r="D405" s="19"/>
     </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B406" s="19"/>
       <c r="C406" s="19"/>
       <c r="D406" s="19"/>
     </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B407" s="19"/>
       <c r="C407" s="19"/>
       <c r="D407" s="19"/>
     </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B408" s="19"/>
       <c r="C408" s="19"/>
       <c r="D408" s="19"/>
     </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B409" s="19"/>
       <c r="C409" s="19"/>
       <c r="D409" s="19"/>
     </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B410" s="19"/>
       <c r="C410" s="19"/>
       <c r="D410" s="19"/>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B411" s="19"/>
       <c r="C411" s="19"/>
       <c r="D411" s="19"/>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" s="19"/>
       <c r="C412" s="19"/>
       <c r="D412" s="19"/>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B413" s="19"/>
       <c r="C413" s="19"/>
       <c r="D413" s="19"/>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B414" s="19"/>
       <c r="C414" s="19"/>
       <c r="D414" s="19"/>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B415" s="19"/>
       <c r="C415" s="19"/>
       <c r="D415" s="19"/>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B416" s="19"/>
       <c r="C416" s="19"/>
       <c r="D416" s="19"/>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B417" s="19"/>
       <c r="C417" s="19"/>
       <c r="D417" s="19"/>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B418" s="19"/>
       <c r="C418" s="19"/>
       <c r="D418" s="19"/>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B419" s="19"/>
       <c r="C419" s="19"/>
       <c r="D419" s="19"/>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B420" s="19"/>
       <c r="C420" s="19"/>
       <c r="D420" s="19"/>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B421" s="19"/>
       <c r="C421" s="19"/>
       <c r="D421" s="19"/>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B422" s="19"/>
       <c r="C422" s="19"/>
       <c r="D422" s="19"/>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B423" s="19"/>
       <c r="C423" s="19"/>
       <c r="D423" s="19"/>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B424" s="19"/>
       <c r="C424" s="19"/>
       <c r="D424" s="19"/>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B425" s="19"/>
       <c r="C425" s="19"/>
       <c r="D425" s="19"/>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B426" s="19"/>
       <c r="C426" s="19"/>
       <c r="D426" s="19"/>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B427" s="19"/>
       <c r="C427" s="19"/>
       <c r="D427" s="19"/>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B428" s="19"/>
       <c r="C428" s="19"/>
       <c r="D428" s="19"/>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B429" s="19"/>
       <c r="C429" s="19"/>
       <c r="D429" s="19"/>
     </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B430" s="19"/>
       <c r="C430" s="19"/>
       <c r="D430" s="19"/>
     </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B431" s="19"/>
       <c r="C431" s="19"/>
       <c r="D431" s="19"/>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B432" s="19"/>
       <c r="C432" s="19"/>
       <c r="D432" s="19"/>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B433" s="19"/>
       <c r="C433" s="19"/>
       <c r="D433" s="19"/>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B434" s="19"/>
       <c r="C434" s="19"/>
       <c r="D434" s="19"/>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B435" s="19"/>
       <c r="C435" s="19"/>
       <c r="D435" s="19"/>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B436" s="19"/>
       <c r="C436" s="19"/>
       <c r="D436" s="19"/>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B437" s="19"/>
       <c r="C437" s="19"/>
       <c r="D437" s="19"/>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B438" s="19"/>
       <c r="C438" s="19"/>
       <c r="D438" s="19"/>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B439" s="19"/>
       <c r="C439" s="19"/>
       <c r="D439" s="19"/>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B440" s="19"/>
       <c r="C440" s="19"/>
       <c r="D440" s="19"/>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B441" s="19"/>
       <c r="C441" s="19"/>
       <c r="D441" s="19"/>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B442" s="19"/>
       <c r="C442" s="19"/>
       <c r="D442" s="19"/>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B443" s="19"/>
       <c r="C443" s="19"/>
       <c r="D443" s="19"/>
     </row>
-    <row r="444" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B444" s="19"/>
       <c r="C444" s="19"/>
       <c r="D444" s="19"/>
     </row>
-    <row r="445" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B445" s="19"/>
       <c r="C445" s="19"/>
       <c r="D445" s="19"/>
     </row>
-    <row r="446" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B446" s="19"/>
       <c r="C446" s="19"/>
       <c r="D446" s="19"/>
     </row>
-    <row r="447" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B447" s="19"/>
       <c r="C447" s="19"/>
       <c r="D447" s="19"/>
     </row>
-    <row r="448" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B448" s="19"/>
       <c r="C448" s="19"/>
       <c r="D448" s="19"/>
     </row>
-    <row r="449" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B449" s="19"/>
       <c r="C449" s="19"/>
       <c r="D449" s="19"/>
     </row>
-    <row r="450" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B450" s="19"/>
       <c r="C450" s="19"/>
       <c r="D450" s="19"/>
     </row>
-    <row r="451" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B451" s="19"/>
       <c r="C451" s="19"/>
       <c r="D451" s="19"/>
     </row>
-    <row r="452" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B452" s="19"/>
       <c r="C452" s="19"/>
       <c r="D452" s="19"/>
     </row>
-    <row r="453" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B453" s="19"/>
       <c r="C453" s="19"/>
       <c r="D453" s="19"/>
     </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B454" s="19"/>
       <c r="C454" s="19"/>
       <c r="D454" s="19"/>
     </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B455" s="19"/>
       <c r="C455" s="19"/>
       <c r="D455" s="19"/>
     </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B456" s="19"/>
       <c r="C456" s="19"/>
       <c r="D456" s="19"/>
     </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B457" s="19"/>
       <c r="C457" s="19"/>
       <c r="D457" s="19"/>
     </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B458" s="19"/>
       <c r="C458" s="19"/>
       <c r="D458" s="19"/>
     </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B459" s="19"/>
       <c r="C459" s="19"/>
       <c r="D459" s="19"/>
     </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B460" s="19"/>
       <c r="C460" s="19"/>
       <c r="D460" s="19"/>
     </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B461" s="19"/>
       <c r="C461" s="19"/>
       <c r="D461" s="19"/>
     </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B462" s="19"/>
       <c r="C462" s="19"/>
       <c r="D462" s="19"/>
     </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B463" s="19"/>
       <c r="C463" s="19"/>
       <c r="D463" s="19"/>
     </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B464" s="19"/>
       <c r="C464" s="19"/>
       <c r="D464" s="19"/>
     </row>
-    <row r="465" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B465" s="19"/>
       <c r="C465" s="19"/>
       <c r="D465" s="19"/>
     </row>
-    <row r="466" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B466" s="19"/>
       <c r="C466" s="19"/>
       <c r="D466" s="19"/>
     </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B467" s="19"/>
       <c r="C467" s="19"/>
       <c r="D467" s="19"/>
     </row>
-    <row r="468" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B468" s="19"/>
       <c r="C468" s="19"/>
       <c r="D468" s="19"/>
     </row>
-    <row r="469" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B469" s="19"/>
       <c r="C469" s="19"/>
       <c r="D469" s="19"/>
     </row>
-    <row r="470" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B470" s="19"/>
       <c r="C470" s="19"/>
       <c r="D470" s="19"/>
     </row>
-    <row r="471" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B471" s="19"/>
       <c r="C471" s="19"/>
       <c r="D471" s="19"/>
     </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B472" s="19"/>
       <c r="C472" s="19"/>
       <c r="D472" s="19"/>
     </row>
-    <row r="473" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B473" s="19"/>
       <c r="C473" s="19"/>
       <c r="D473" s="19"/>
     </row>
-    <row r="474" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B474" s="19"/>
       <c r="C474" s="19"/>
       <c r="D474" s="19"/>
     </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B475" s="19"/>
       <c r="C475" s="19"/>
       <c r="D475" s="19"/>
     </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B476" s="19"/>
       <c r="C476" s="19"/>
       <c r="D476" s="19"/>
     </row>
-    <row r="477" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B477" s="19"/>
       <c r="C477" s="19"/>
       <c r="D477" s="19"/>
     </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B478" s="19"/>
       <c r="C478" s="19"/>
       <c r="D478" s="19"/>
     </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B479" s="19"/>
       <c r="C479" s="19"/>
       <c r="D479" s="19"/>
     </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B480" s="19"/>
       <c r="C480" s="19"/>
       <c r="D480" s="19"/>
     </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B481" s="19"/>
       <c r="C481" s="19"/>
       <c r="D481" s="19"/>
     </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B482" s="19"/>
       <c r="C482" s="19"/>
       <c r="D482" s="19"/>
     </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B483" s="19"/>
       <c r="C483" s="19"/>
       <c r="D483" s="19"/>
     </row>
-    <row r="484" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B484" s="19"/>
       <c r="C484" s="19"/>
       <c r="D484" s="19"/>
     </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B485" s="19"/>
       <c r="C485" s="19"/>
       <c r="D485" s="19"/>
     </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B486" s="19"/>
       <c r="C486" s="19"/>
       <c r="D486" s="19"/>
     </row>
-    <row r="487" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B487" s="19"/>
       <c r="C487" s="19"/>
       <c r="D487" s="19"/>
     </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B488" s="19"/>
       <c r="C488" s="19"/>
       <c r="D488" s="19"/>
     </row>
-    <row r="489" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B489" s="19"/>
       <c r="C489" s="19"/>
       <c r="D489" s="19"/>
     </row>
-    <row r="490" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B490" s="19"/>
       <c r="C490" s="19"/>
       <c r="D490" s="19"/>
     </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B491" s="19"/>
       <c r="C491" s="19"/>
       <c r="D491" s="19"/>
     </row>
-    <row r="492" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B492" s="19"/>
       <c r="C492" s="19"/>
       <c r="D492" s="19"/>
     </row>
-    <row r="493" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B493" s="19"/>
       <c r="C493" s="19"/>
       <c r="D493" s="19"/>
     </row>
-    <row r="494" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B494" s="19"/>
       <c r="C494" s="19"/>
       <c r="D494" s="19"/>
     </row>
-    <row r="495" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B495" s="19"/>
       <c r="C495" s="19"/>
       <c r="D495" s="19"/>
     </row>
-    <row r="496" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B496" s="19"/>
       <c r="C496" s="19"/>
       <c r="D496" s="19"/>
     </row>
-    <row r="497" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B497" s="19"/>
       <c r="C497" s="19"/>
       <c r="D497" s="19"/>
     </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B498" s="19"/>
       <c r="C498" s="19"/>
       <c r="D498" s="19"/>
     </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B499" s="19"/>
       <c r="C499" s="19"/>
       <c r="D499" s="19"/>
     </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B500" s="19"/>
       <c r="C500" s="19"/>
       <c r="D500" s="19"/>
     </row>
-    <row r="501" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B501" s="19"/>
       <c r="C501" s="19"/>
       <c r="D501" s="19"/>
     </row>
-    <row r="502" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B502" s="19"/>
       <c r="C502" s="19"/>
       <c r="D502" s="19"/>
     </row>
-    <row r="503" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B503" s="19"/>
       <c r="C503" s="19"/>
       <c r="D503" s="19"/>
     </row>
-    <row r="504" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B504" s="19"/>
       <c r="C504" s="19"/>
       <c r="D504" s="19"/>
     </row>
-    <row r="505" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B505" s="19"/>
       <c r="C505" s="19"/>
       <c r="D505" s="19"/>
     </row>
-    <row r="506" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B506" s="19"/>
       <c r="C506" s="19"/>
       <c r="D506" s="19"/>
     </row>
-    <row r="507" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B507" s="19"/>
       <c r="C507" s="19"/>
       <c r="D507" s="19"/>
     </row>
-    <row r="508" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B508" s="19"/>
       <c r="C508" s="19"/>
       <c r="D508" s="19"/>
     </row>
-    <row r="509" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B509" s="19"/>
       <c r="C509" s="19"/>
       <c r="D509" s="19"/>
     </row>
-    <row r="510" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B510" s="19"/>
       <c r="C510" s="19"/>
       <c r="D510" s="19"/>
     </row>
-    <row r="511" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B511" s="19"/>
       <c r="C511" s="19"/>
       <c r="D511" s="19"/>
     </row>
-    <row r="512" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B512" s="19"/>
       <c r="C512" s="19"/>
       <c r="D512" s="19"/>
     </row>
-    <row r="513" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B513" s="19"/>
       <c r="C513" s="19"/>
       <c r="D513" s="19"/>
     </row>
-    <row r="514" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B514" s="19"/>
       <c r="C514" s="19"/>
       <c r="D514" s="19"/>
     </row>
-    <row r="515" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B515" s="19"/>
       <c r="C515" s="19"/>
       <c r="D515" s="19"/>
     </row>
-    <row r="516" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B516" s="19"/>
       <c r="C516" s="19"/>
       <c r="D516" s="19"/>
     </row>
-    <row r="517" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B517" s="19"/>
       <c r="C517" s="19"/>
       <c r="D517" s="19"/>
     </row>
-    <row r="518" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B518" s="19"/>
       <c r="C518" s="19"/>
       <c r="D518" s="19"/>
     </row>
-    <row r="519" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B519" s="19"/>
       <c r="C519" s="19"/>
       <c r="D519" s="19"/>
     </row>
-    <row r="520" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B520" s="19"/>
       <c r="C520" s="19"/>
       <c r="D520" s="19"/>
     </row>
-    <row r="521" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B521" s="19"/>
       <c r="C521" s="19"/>
       <c r="D521" s="19"/>
     </row>
-    <row r="522" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B522" s="19"/>
       <c r="C522" s="19"/>
       <c r="D522" s="19"/>
     </row>
-    <row r="523" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B523" s="19"/>
       <c r="C523" s="19"/>
       <c r="D523" s="19"/>
     </row>
-    <row r="524" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B524" s="19"/>
       <c r="C524" s="19"/>
       <c r="D524" s="19"/>
     </row>
-    <row r="525" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B525" s="19"/>
       <c r="C525" s="19"/>
       <c r="D525" s="19"/>
     </row>
-    <row r="526" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B526" s="19"/>
       <c r="C526" s="19"/>
       <c r="D526" s="19"/>
     </row>
-    <row r="527" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B527" s="19"/>
       <c r="C527" s="19"/>
       <c r="D527" s="19"/>
     </row>
-    <row r="528" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B528" s="19"/>
       <c r="C528" s="19"/>
       <c r="D528" s="19"/>
     </row>
-    <row r="529" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B529" s="19"/>
       <c r="C529" s="19"/>
       <c r="D529" s="19"/>
     </row>
-    <row r="530" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B530" s="19"/>
       <c r="C530" s="19"/>
       <c r="D530" s="19"/>
     </row>
-    <row r="531" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B531" s="19"/>
       <c r="C531" s="19"/>
       <c r="D531" s="19"/>
     </row>
-    <row r="532" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B532" s="19"/>
       <c r="C532" s="19"/>
       <c r="D532" s="19"/>
     </row>
-    <row r="533" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B533" s="19"/>
       <c r="C533" s="19"/>
       <c r="D533" s="19"/>
     </row>
-    <row r="534" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B534" s="19"/>
       <c r="C534" s="19"/>
       <c r="D534" s="19"/>
     </row>
-    <row r="535" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B535" s="19"/>
       <c r="C535" s="19"/>
       <c r="D535" s="19"/>
     </row>
-    <row r="536" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B536" s="19"/>
       <c r="C536" s="19"/>
       <c r="D536" s="19"/>
     </row>
-    <row r="537" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B537" s="19"/>
       <c r="C537" s="19"/>
       <c r="D537" s="19"/>
     </row>
-    <row r="538" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B538" s="19"/>
       <c r="C538" s="19"/>
       <c r="D538" s="19"/>
     </row>
-    <row r="539" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B539" s="19"/>
       <c r="C539" s="19"/>
       <c r="D539" s="19"/>
     </row>
-    <row r="540" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B540" s="19"/>
       <c r="C540" s="19"/>
       <c r="D540" s="19"/>
     </row>
-    <row r="541" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B541" s="19"/>
       <c r="C541" s="19"/>
       <c r="D541" s="19"/>
     </row>
-    <row r="542" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B542" s="19"/>
       <c r="C542" s="19"/>
       <c r="D542" s="19"/>
     </row>
-    <row r="543" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B543" s="19"/>
       <c r="C543" s="19"/>
       <c r="D543" s="19"/>
     </row>
-    <row r="544" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B544" s="19"/>
       <c r="C544" s="19"/>
       <c r="D544" s="19"/>
     </row>
-    <row r="545" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B545" s="19"/>
       <c r="C545" s="19"/>
       <c r="D545" s="19"/>
     </row>
-    <row r="546" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B546" s="19"/>
       <c r="C546" s="19"/>
       <c r="D546" s="19"/>
     </row>
-    <row r="547" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B547" s="19"/>
       <c r="C547" s="19"/>
       <c r="D547" s="19"/>
     </row>
-    <row r="548" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B548" s="19"/>
       <c r="C548" s="19"/>
       <c r="D548" s="19"/>
     </row>
-    <row r="549" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B549" s="19"/>
       <c r="C549" s="19"/>
       <c r="D549" s="19"/>
     </row>
-    <row r="550" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B550" s="19"/>
       <c r="C550" s="19"/>
       <c r="D550" s="19"/>
     </row>
-    <row r="551" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B551" s="19"/>
       <c r="C551" s="19"/>
       <c r="D551" s="19"/>
     </row>
-    <row r="552" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B552" s="19"/>
       <c r="C552" s="19"/>
       <c r="D552" s="19"/>
     </row>
-    <row r="553" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B553" s="19"/>
       <c r="C553" s="19"/>
       <c r="D553" s="19"/>
     </row>
-    <row r="554" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B554" s="19"/>
       <c r="C554" s="19"/>
       <c r="D554" s="19"/>
     </row>
-    <row r="555" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B555" s="19"/>
       <c r="C555" s="19"/>
       <c r="D555" s="19"/>
     </row>
-    <row r="556" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B556" s="19"/>
       <c r="C556" s="19"/>
       <c r="D556" s="19"/>
     </row>
-    <row r="557" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B557" s="19"/>
       <c r="C557" s="19"/>
       <c r="D557" s="19"/>
     </row>
-    <row r="558" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B558" s="19"/>
       <c r="C558" s="19"/>
       <c r="D558" s="19"/>
     </row>
-    <row r="559" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B559" s="19"/>
       <c r="C559" s="19"/>
       <c r="D559" s="19"/>
     </row>
-    <row r="560" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B560" s="19"/>
       <c r="C560" s="19"/>
       <c r="D560" s="19"/>
     </row>
-    <row r="561" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B561" s="19"/>
       <c r="C561" s="19"/>
       <c r="D561" s="19"/>
     </row>
-    <row r="562" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B562" s="19"/>
       <c r="C562" s="19"/>
       <c r="D562" s="19"/>
     </row>
-    <row r="563" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B563" s="19"/>
       <c r="C563" s="19"/>
       <c r="D563" s="19"/>
     </row>
-    <row r="564" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B564" s="19"/>
       <c r="C564" s="19"/>
       <c r="D564" s="19"/>
     </row>
-    <row r="565" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B565" s="19"/>
       <c r="C565" s="19"/>
       <c r="D565" s="19"/>
     </row>
-    <row r="566" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B566" s="19"/>
       <c r="C566" s="19"/>
       <c r="D566" s="19"/>
     </row>
-    <row r="567" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B567" s="19"/>
       <c r="C567" s="19"/>
       <c r="D567" s="19"/>
     </row>
-    <row r="568" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B568" s="19"/>
       <c r="C568" s="19"/>
       <c r="D568" s="19"/>
     </row>
-    <row r="569" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B569" s="19"/>
       <c r="C569" s="19"/>
       <c r="D569" s="19"/>
     </row>
-    <row r="570" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B570" s="19"/>
       <c r="C570" s="19"/>
       <c r="D570" s="19"/>
     </row>
-    <row r="571" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B571" s="19"/>
       <c r="C571" s="19"/>
       <c r="D571" s="19"/>
     </row>
-    <row r="572" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B572" s="19"/>
       <c r="C572" s="19"/>
       <c r="D572" s="19"/>
     </row>
-    <row r="573" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B573" s="19"/>
       <c r="C573" s="19"/>
       <c r="D573" s="19"/>
     </row>
-    <row r="574" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B574" s="19"/>
       <c r="C574" s="19"/>
       <c r="D574" s="19"/>
     </row>
-    <row r="575" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B575" s="19"/>
       <c r="C575" s="19"/>
       <c r="D575" s="19"/>
     </row>
-    <row r="576" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B576" s="19"/>
       <c r="C576" s="19"/>
       <c r="D576" s="19"/>
     </row>
-    <row r="577" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B577" s="19"/>
       <c r="C577" s="19"/>
       <c r="D577" s="19"/>
     </row>
-    <row r="578" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B578" s="19"/>
       <c r="C578" s="19"/>
       <c r="D578" s="19"/>
     </row>
-    <row r="579" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B579" s="19"/>
       <c r="C579" s="19"/>
       <c r="D579" s="19"/>
     </row>
-    <row r="580" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B580" s="19"/>
       <c r="C580" s="19"/>
       <c r="D580" s="19"/>
     </row>
-    <row r="581" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B581" s="19"/>
       <c r="C581" s="19"/>
       <c r="D581" s="19"/>
     </row>
-    <row r="582" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B582" s="19"/>
       <c r="C582" s="19"/>
       <c r="D582" s="19"/>
     </row>
-    <row r="583" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B583" s="19"/>
       <c r="C583" s="19"/>
       <c r="D583" s="19"/>
     </row>
-    <row r="584" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B584" s="19"/>
       <c r="C584" s="19"/>
       <c r="D584" s="19"/>
     </row>
-    <row r="585" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B585" s="19"/>
       <c r="C585" s="19"/>
       <c r="D585" s="19"/>
     </row>
-    <row r="586" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B586" s="19"/>
       <c r="C586" s="19"/>
       <c r="D586" s="19"/>
     </row>
-    <row r="587" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B587" s="19"/>
       <c r="C587" s="19"/>
       <c r="D587" s="19"/>
     </row>
-    <row r="588" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B588" s="19"/>
       <c r="C588" s="19"/>
       <c r="D588" s="19"/>
     </row>
-    <row r="589" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B589" s="19"/>
       <c r="C589" s="19"/>
       <c r="D589" s="19"/>
     </row>
-    <row r="590" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B590" s="19"/>
       <c r="C590" s="19"/>
       <c r="D590" s="19"/>
     </row>
-    <row r="591" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B591" s="19"/>
       <c r="C591" s="19"/>
       <c r="D591" s="19"/>
     </row>
-    <row r="592" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B592" s="19"/>
       <c r="C592" s="19"/>
       <c r="D592" s="19"/>
     </row>
-    <row r="593" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B593" s="19"/>
       <c r="C593" s="19"/>
       <c r="D593" s="19"/>
     </row>
-    <row r="594" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B594" s="19"/>
       <c r="C594" s="19"/>
       <c r="D594" s="19"/>
     </row>
-    <row r="595" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B595" s="19"/>
       <c r="C595" s="19"/>
       <c r="D595" s="19"/>
     </row>
-    <row r="596" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B596" s="19"/>
       <c r="C596" s="19"/>
       <c r="D596" s="19"/>
     </row>
-    <row r="597" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B597" s="19"/>
       <c r="C597" s="19"/>
       <c r="D597" s="19"/>
     </row>
-    <row r="598" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B598" s="19"/>
       <c r="C598" s="19"/>
       <c r="D598" s="19"/>
     </row>
-    <row r="599" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B599" s="19"/>
       <c r="C599" s="19"/>
       <c r="D599" s="19"/>
     </row>
-    <row r="600" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B600" s="19"/>
       <c r="C600" s="19"/>
       <c r="D600" s="19"/>
     </row>
-    <row r="601" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B601" s="19"/>
       <c r="C601" s="19"/>
       <c r="D601" s="19"/>
     </row>
-    <row r="602" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B602" s="19"/>
       <c r="C602" s="19"/>
       <c r="D602" s="19"/>
     </row>
-    <row r="603" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B603" s="19"/>
       <c r="C603" s="19"/>
       <c r="D603" s="19"/>
     </row>
-    <row r="604" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B604" s="19"/>
       <c r="C604" s="19"/>
       <c r="D604" s="19"/>
     </row>
-    <row r="605" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B605" s="19"/>
       <c r="C605" s="19"/>
       <c r="D605" s="19"/>
     </row>
-    <row r="606" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B606" s="19"/>
       <c r="C606" s="19"/>
       <c r="D606" s="19"/>
     </row>
-    <row r="607" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B607" s="19"/>
       <c r="C607" s="19"/>
       <c r="D607" s="19"/>
     </row>
-    <row r="608" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B608" s="19"/>
       <c r="C608" s="19"/>
       <c r="D608" s="19"/>
     </row>
-    <row r="609" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B609" s="19"/>
       <c r="C609" s="19"/>
       <c r="D609" s="19"/>
     </row>
-    <row r="610" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B610" s="19"/>
       <c r="C610" s="19"/>
       <c r="D610" s="19"/>
     </row>
-    <row r="611" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B611" s="19"/>
       <c r="C611" s="19"/>
       <c r="D611" s="19"/>
     </row>
-    <row r="612" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B612" s="19"/>
       <c r="C612" s="19"/>
       <c r="D612" s="19"/>
     </row>
-    <row r="613" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B613" s="19"/>
       <c r="C613" s="19"/>
       <c r="D613" s="19"/>
     </row>
-    <row r="614" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B614" s="19"/>
       <c r="C614" s="19"/>
       <c r="D614" s="19"/>
     </row>
-    <row r="615" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B615" s="19"/>
       <c r="C615" s="19"/>
       <c r="D615" s="19"/>
     </row>
-    <row r="616" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B616" s="19"/>
       <c r="C616" s="19"/>
       <c r="D616" s="19"/>
     </row>
-    <row r="617" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B617" s="19"/>
       <c r="C617" s="19"/>
       <c r="D617" s="19"/>
     </row>
-    <row r="618" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B618" s="19"/>
       <c r="C618" s="19"/>
       <c r="D618" s="19"/>
     </row>
-    <row r="619" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B619" s="19"/>
       <c r="C619" s="19"/>
       <c r="D619" s="19"/>
     </row>
-    <row r="620" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B620" s="19"/>
       <c r="C620" s="19"/>
       <c r="D620" s="19"/>
     </row>
-    <row r="621" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B621" s="19"/>
       <c r="C621" s="19"/>
       <c r="D621" s="19"/>
     </row>
-    <row r="622" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B622" s="19"/>
       <c r="C622" s="19"/>
       <c r="D622" s="19"/>
     </row>
-    <row r="623" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B623" s="19"/>
       <c r="C623" s="19"/>
       <c r="D623" s="19"/>
     </row>
-    <row r="624" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B624" s="19"/>
       <c r="C624" s="19"/>
       <c r="D624" s="19"/>
     </row>
-    <row r="625" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B625" s="19"/>
       <c r="C625" s="19"/>
       <c r="D625" s="19"/>
     </row>
-    <row r="626" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B626" s="19"/>
       <c r="C626" s="19"/>
       <c r="D626" s="19"/>
     </row>
-    <row r="627" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B627" s="19"/>
       <c r="C627" s="19"/>
       <c r="D627" s="19"/>
     </row>
-    <row r="628" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B628" s="19"/>
       <c r="C628" s="19"/>
       <c r="D628" s="19"/>
     </row>
-    <row r="629" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B629" s="19"/>
       <c r="C629" s="19"/>
       <c r="D629" s="19"/>
     </row>
-    <row r="630" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B630" s="19"/>
       <c r="C630" s="19"/>
       <c r="D630" s="19"/>
     </row>
-    <row r="631" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B631" s="19"/>
       <c r="C631" s="19"/>
       <c r="D631" s="19"/>
     </row>
-    <row r="632" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B632" s="19"/>
       <c r="C632" s="19"/>
       <c r="D632" s="19"/>
     </row>
-    <row r="633" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B633" s="19"/>
       <c r="C633" s="19"/>
       <c r="D633" s="19"/>
     </row>
-    <row r="634" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B634" s="19"/>
       <c r="C634" s="19"/>
       <c r="D634" s="19"/>
     </row>
-    <row r="635" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B635" s="19"/>
       <c r="C635" s="19"/>
       <c r="D635" s="19"/>
     </row>
-    <row r="636" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B636" s="19"/>
       <c r="C636" s="19"/>
       <c r="D636" s="19"/>
     </row>
-    <row r="637" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B637" s="19"/>
       <c r="C637" s="19"/>
       <c r="D637" s="19"/>
     </row>
-    <row r="638" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B638" s="19"/>
       <c r="C638" s="19"/>
       <c r="D638" s="19"/>
     </row>
-    <row r="639" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B639" s="19"/>
       <c r="C639" s="19"/>
       <c r="D639" s="19"/>
     </row>
-    <row r="640" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B640" s="19"/>
       <c r="C640" s="19"/>
       <c r="D640" s="19"/>
     </row>
-    <row r="641" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B641" s="19"/>
       <c r="C641" s="19"/>
       <c r="D641" s="19"/>
     </row>
-    <row r="642" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B642" s="19"/>
       <c r="C642" s="19"/>
       <c r="D642" s="19"/>
     </row>
-    <row r="643" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B643" s="19"/>
       <c r="C643" s="19"/>
       <c r="D643" s="19"/>
     </row>
-    <row r="644" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B644" s="19"/>
       <c r="C644" s="19"/>
       <c r="D644" s="19"/>
     </row>
-    <row r="645" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B645" s="19"/>
       <c r="C645" s="19"/>
       <c r="D645" s="19"/>
     </row>
-    <row r="646" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B646" s="19"/>
       <c r="C646" s="19"/>
       <c r="D646" s="19"/>
     </row>
-    <row r="647" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B647" s="19"/>
       <c r="C647" s="19"/>
       <c r="D647" s="19"/>
     </row>
-    <row r="648" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B648" s="19"/>
       <c r="C648" s="19"/>
       <c r="D648" s="19"/>
     </row>
-    <row r="649" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B649" s="19"/>
       <c r="C649" s="19"/>
       <c r="D649" s="19"/>
     </row>
-    <row r="650" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B650" s="19"/>
       <c r="C650" s="19"/>
       <c r="D650" s="19"/>
     </row>
-    <row r="651" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B651" s="19"/>
       <c r="C651" s="19"/>
       <c r="D651" s="19"/>
     </row>
-    <row r="652" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B652" s="19"/>
       <c r="C652" s="19"/>
       <c r="D652" s="19"/>
     </row>
-    <row r="653" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B653" s="19"/>
       <c r="C653" s="19"/>
       <c r="D653" s="19"/>
     </row>
-    <row r="654" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B654" s="19"/>
       <c r="C654" s="19"/>
       <c r="D654" s="19"/>
     </row>
-    <row r="655" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B655" s="19"/>
       <c r="C655" s="19"/>
       <c r="D655" s="19"/>
     </row>
-    <row r="656" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B656" s="19"/>
       <c r="C656" s="19"/>
       <c r="D656" s="19"/>
     </row>
-    <row r="657" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B657" s="19"/>
       <c r="C657" s="19"/>
       <c r="D657" s="19"/>
     </row>
-    <row r="658" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B658" s="19"/>
       <c r="C658" s="19"/>
       <c r="D658" s="19"/>
     </row>
-    <row r="659" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B659" s="19"/>
       <c r="C659" s="19"/>
       <c r="D659" s="19"/>
     </row>
-    <row r="660" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="660" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B660" s="19"/>
       <c r="C660" s="19"/>
       <c r="D660" s="19"/>
     </row>
-    <row r="661" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B661" s="19"/>
       <c r="C661" s="19"/>
       <c r="D661" s="19"/>
     </row>
-    <row r="662" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="662" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B662" s="19"/>
       <c r="C662" s="19"/>
       <c r="D662" s="19"/>
     </row>
-    <row r="663" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B663" s="19"/>
       <c r="C663" s="19"/>
       <c r="D663" s="19"/>
     </row>
-    <row r="664" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B664" s="19"/>
       <c r="C664" s="19"/>
       <c r="D664" s="19"/>
     </row>
-    <row r="665" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="665" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B665" s="19"/>
       <c r="C665" s="19"/>
       <c r="D665" s="19"/>
     </row>
-    <row r="666" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="666" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B666" s="19"/>
       <c r="C666" s="19"/>
       <c r="D666" s="19"/>
     </row>
-    <row r="667" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="667" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B667" s="19"/>
       <c r="C667" s="19"/>
       <c r="D667" s="19"/>
     </row>
-    <row r="668" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="668" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B668" s="19"/>
       <c r="C668" s="19"/>
       <c r="D668" s="19"/>
     </row>
-    <row r="669" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="669" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B669" s="19"/>
       <c r="C669" s="19"/>
       <c r="D669" s="19"/>
     </row>
-    <row r="670" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="670" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B670" s="19"/>
       <c r="C670" s="19"/>
       <c r="D670" s="19"/>
     </row>
-    <row r="671" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="671" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B671" s="19"/>
       <c r="C671" s="19"/>
       <c r="D671" s="19"/>
     </row>
-    <row r="672" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="672" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B672" s="19"/>
       <c r="C672" s="19"/>
       <c r="D672" s="19"/>
     </row>
-    <row r="673" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="673" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B673" s="19"/>
       <c r="C673" s="19"/>
       <c r="D673" s="19"/>
     </row>
-    <row r="674" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B674" s="19"/>
       <c r="C674" s="19"/>
       <c r="D674" s="19"/>
     </row>
-    <row r="675" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="675" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B675" s="19"/>
       <c r="C675" s="19"/>
       <c r="D675" s="19"/>
     </row>
-    <row r="676" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B676" s="19"/>
       <c r="C676" s="19"/>
       <c r="D676" s="19"/>
     </row>
-    <row r="677" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B677" s="19"/>
       <c r="C677" s="19"/>
       <c r="D677" s="19"/>
     </row>
-    <row r="678" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B678" s="19"/>
       <c r="C678" s="19"/>
       <c r="D678" s="19"/>
     </row>
-    <row r="679" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="679" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B679" s="19"/>
       <c r="C679" s="19"/>
       <c r="D679" s="19"/>
     </row>
-    <row r="680" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="680" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B680" s="19"/>
       <c r="C680" s="19"/>
       <c r="D680" s="19"/>
     </row>
-    <row r="681" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="681" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B681" s="19"/>
       <c r="C681" s="19"/>
       <c r="D681" s="19"/>
     </row>
-    <row r="682" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="682" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B682" s="19"/>
       <c r="C682" s="19"/>
       <c r="D682" s="19"/>
     </row>
-    <row r="683" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="683" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B683" s="19"/>
       <c r="C683" s="19"/>
       <c r="D683" s="19"/>
     </row>
-    <row r="684" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="684" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B684" s="19"/>
       <c r="C684" s="19"/>
       <c r="D684" s="19"/>
     </row>
-    <row r="685" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="685" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B685" s="19"/>
       <c r="C685" s="19"/>
       <c r="D685" s="19"/>
     </row>
-    <row r="686" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="686" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B686" s="19"/>
       <c r="C686" s="19"/>
       <c r="D686" s="19"/>
     </row>
-    <row r="687" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="687" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B687" s="19"/>
       <c r="C687" s="19"/>
       <c r="D687" s="19"/>
     </row>
-    <row r="688" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="688" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B688" s="19"/>
       <c r="C688" s="19"/>
       <c r="D688" s="19"/>
     </row>
-    <row r="689" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="689" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B689" s="19"/>
       <c r="C689" s="19"/>
       <c r="D689" s="19"/>
     </row>
-    <row r="690" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="690" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B690" s="19"/>
       <c r="C690" s="19"/>
       <c r="D690" s="19"/>
     </row>
-    <row r="691" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="691" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B691" s="19"/>
       <c r="C691" s="19"/>
       <c r="D691" s="19"/>
     </row>
-    <row r="692" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="692" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B692" s="19"/>
       <c r="C692" s="19"/>
       <c r="D692" s="19"/>
     </row>
-    <row r="693" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="693" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B693" s="19"/>
       <c r="C693" s="19"/>
       <c r="D693" s="19"/>
     </row>
-    <row r="694" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="694" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B694" s="19"/>
       <c r="C694" s="19"/>
       <c r="D694" s="19"/>
     </row>
-    <row r="695" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="695" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B695" s="19"/>
       <c r="C695" s="19"/>
       <c r="D695" s="19"/>
     </row>
-    <row r="696" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="696" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B696" s="19"/>
       <c r="C696" s="19"/>
       <c r="D696" s="19"/>
     </row>
-    <row r="697" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="697" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B697" s="19"/>
       <c r="C697" s="19"/>
       <c r="D697" s="19"/>
     </row>
-    <row r="698" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="698" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B698" s="19"/>
       <c r="C698" s="19"/>
       <c r="D698" s="19"/>
     </row>
-    <row r="699" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="699" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B699" s="19"/>
       <c r="C699" s="19"/>
       <c r="D699" s="19"/>
     </row>
-    <row r="700" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="700" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B700" s="19"/>
       <c r="C700" s="19"/>
       <c r="D700" s="19"/>
     </row>
-    <row r="701" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="701" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B701" s="19"/>
       <c r="C701" s="19"/>
       <c r="D701" s="19"/>
     </row>
-    <row r="702" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="702" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B702" s="19"/>
       <c r="C702" s="19"/>
       <c r="D702" s="19"/>
     </row>
-    <row r="703" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="703" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B703" s="19"/>
       <c r="C703" s="19"/>
       <c r="D703" s="19"/>
     </row>
-    <row r="704" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="704" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B704" s="19"/>
       <c r="C704" s="19"/>
       <c r="D704" s="19"/>
     </row>
-    <row r="705" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="705" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B705" s="19"/>
       <c r="C705" s="19"/>
       <c r="D705" s="19"/>
     </row>
-    <row r="706" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="706" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B706" s="19"/>
       <c r="C706" s="19"/>
       <c r="D706" s="19"/>
     </row>
-    <row r="707" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="707" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B707" s="19"/>
       <c r="C707" s="19"/>
       <c r="D707" s="19"/>
     </row>
-    <row r="708" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="708" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B708" s="19"/>
       <c r="C708" s="19"/>
       <c r="D708" s="19"/>
     </row>
-    <row r="709" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="709" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B709" s="19"/>
       <c r="C709" s="19"/>
       <c r="D709" s="19"/>
     </row>
-    <row r="710" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="710" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B710" s="19"/>
       <c r="C710" s="19"/>
       <c r="D710" s="19"/>
     </row>
-    <row r="711" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="711" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B711" s="19"/>
       <c r="C711" s="19"/>
       <c r="D711" s="19"/>
     </row>
-    <row r="712" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="712" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B712" s="19"/>
       <c r="C712" s="19"/>
       <c r="D712" s="19"/>
     </row>
-    <row r="713" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="713" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B713" s="19"/>
       <c r="C713" s="19"/>
       <c r="D713" s="19"/>
     </row>
-    <row r="714" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="714" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B714" s="19"/>
       <c r="C714" s="19"/>
       <c r="D714" s="19"/>
     </row>
-    <row r="715" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="715" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B715" s="19"/>
       <c r="C715" s="19"/>
       <c r="D715" s="19"/>
     </row>
-    <row r="716" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="716" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B716" s="19"/>
       <c r="C716" s="19"/>
       <c r="D716" s="19"/>
     </row>
-    <row r="717" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="717" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B717" s="19"/>
       <c r="C717" s="19"/>
       <c r="D717" s="19"/>
     </row>
-    <row r="718" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="718" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B718" s="19"/>
       <c r="C718" s="19"/>
       <c r="D718" s="19"/>
     </row>
-    <row r="719" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="719" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B719" s="19"/>
       <c r="C719" s="19"/>
       <c r="D719" s="19"/>
     </row>
-    <row r="720" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="720" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B720" s="19"/>
       <c r="C720" s="19"/>
       <c r="D720" s="19"/>
     </row>
-    <row r="721" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="721" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B721" s="19"/>
       <c r="C721" s="19"/>
       <c r="D721" s="19"/>
     </row>
-    <row r="722" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="722" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B722" s="19"/>
       <c r="C722" s="19"/>
       <c r="D722" s="19"/>
     </row>
-    <row r="723" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="723" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B723" s="19"/>
       <c r="C723" s="19"/>
       <c r="D723" s="19"/>
     </row>
-    <row r="724" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="724" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B724" s="19"/>
       <c r="C724" s="19"/>
       <c r="D724" s="19"/>
     </row>
-    <row r="725" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="725" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B725" s="19"/>
       <c r="C725" s="19"/>
       <c r="D725" s="19"/>
     </row>
-    <row r="726" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="726" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B726" s="19"/>
       <c r="C726" s="19"/>
       <c r="D726" s="19"/>
     </row>
-    <row r="727" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="727" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B727" s="19"/>
       <c r="C727" s="19"/>
       <c r="D727" s="19"/>
     </row>
-    <row r="728" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="728" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B728" s="19"/>
       <c r="C728" s="19"/>
       <c r="D728" s="19"/>
     </row>
-    <row r="729" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="729" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B729" s="19"/>
       <c r="C729" s="19"/>
       <c r="D729" s="19"/>
     </row>
-    <row r="730" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="730" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B730" s="19"/>
       <c r="C730" s="19"/>
       <c r="D730" s="19"/>
     </row>
-    <row r="731" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="731" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B731" s="19"/>
       <c r="C731" s="19"/>
       <c r="D731" s="19"/>
     </row>
-    <row r="732" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="732" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B732" s="19"/>
       <c r="C732" s="19"/>
       <c r="D732" s="19"/>
     </row>
-    <row r="733" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="733" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B733" s="19"/>
       <c r="C733" s="19"/>
       <c r="D733" s="19"/>
     </row>
-    <row r="734" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="734" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B734" s="19"/>
       <c r="C734" s="19"/>
       <c r="D734" s="19"/>
     </row>
-    <row r="735" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="735" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B735" s="19"/>
       <c r="C735" s="19"/>
       <c r="D735" s="19"/>
     </row>
-    <row r="736" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="736" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B736" s="19"/>
       <c r="C736" s="19"/>
       <c r="D736" s="19"/>
     </row>
-    <row r="737" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="737" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B737" s="19"/>
       <c r="C737" s="19"/>
       <c r="D737" s="19"/>
     </row>
-    <row r="738" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="738" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B738" s="19"/>
       <c r="C738" s="19"/>
       <c r="D738" s="19"/>
     </row>
-    <row r="739" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="739" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B739" s="19"/>
       <c r="C739" s="19"/>
       <c r="D739" s="19"/>
     </row>
-    <row r="740" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="740" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B740" s="19"/>
       <c r="C740" s="19"/>
       <c r="D740" s="19"/>
     </row>
-    <row r="741" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="741" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B741" s="19"/>
       <c r="C741" s="19"/>
       <c r="D741" s="19"/>
     </row>
-    <row r="742" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="742" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B742" s="19"/>
       <c r="C742" s="19"/>
       <c r="D742" s="19"/>
     </row>
-    <row r="743" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="743" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B743" s="19"/>
       <c r="C743" s="19"/>
       <c r="D743" s="19"/>
     </row>
-    <row r="744" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="744" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B744" s="19"/>
       <c r="C744" s="19"/>
       <c r="D744" s="19"/>
     </row>
-    <row r="745" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="745" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B745" s="19"/>
       <c r="C745" s="19"/>
       <c r="D745" s="19"/>
     </row>
-    <row r="746" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="746" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B746" s="19"/>
       <c r="C746" s="19"/>
       <c r="D746" s="19"/>
     </row>
-    <row r="747" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="747" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B747" s="19"/>
       <c r="C747" s="19"/>
       <c r="D747" s="19"/>
     </row>
-    <row r="748" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="748" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B748" s="19"/>
       <c r="C748" s="19"/>
       <c r="D748" s="19"/>
     </row>
-    <row r="749" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="749" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B749" s="19"/>
       <c r="C749" s="19"/>
       <c r="D749" s="19"/>
     </row>
-    <row r="750" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="750" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B750" s="19"/>
       <c r="C750" s="19"/>
       <c r="D750" s="19"/>
     </row>
-    <row r="751" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="751" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B751" s="19"/>
       <c r="C751" s="19"/>
       <c r="D751" s="19"/>
     </row>
-    <row r="752" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="752" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B752" s="19"/>
       <c r="C752" s="19"/>
       <c r="D752" s="19"/>
     </row>
-    <row r="753" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="753" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B753" s="19"/>
       <c r="C753" s="19"/>
       <c r="D753" s="19"/>
     </row>
-    <row r="754" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="754" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B754" s="19"/>
       <c r="C754" s="19"/>
       <c r="D754" s="19"/>
     </row>
-    <row r="755" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="755" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B755" s="19"/>
       <c r="C755" s="19"/>
       <c r="D755" s="19"/>
     </row>
-    <row r="756" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="756" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B756" s="19"/>
       <c r="C756" s="19"/>
       <c r="D756" s="19"/>
     </row>
-    <row r="757" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="757" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B757" s="19"/>
       <c r="C757" s="19"/>
       <c r="D757" s="19"/>
     </row>
-    <row r="758" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="758" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B758" s="19"/>
       <c r="C758" s="19"/>
       <c r="D758" s="19"/>
     </row>
-    <row r="759" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="759" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B759" s="19"/>
       <c r="C759" s="19"/>
       <c r="D759" s="19"/>
     </row>
-    <row r="760" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="760" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B760" s="19"/>
       <c r="C760" s="19"/>
       <c r="D760" s="19"/>
     </row>
-    <row r="761" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="761" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B761" s="19"/>
       <c r="C761" s="19"/>
       <c r="D761" s="19"/>
     </row>
-    <row r="762" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="762" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B762" s="19"/>
       <c r="C762" s="19"/>
       <c r="D762" s="19"/>
     </row>
-    <row r="763" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="763" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B763" s="19"/>
       <c r="C763" s="19"/>
       <c r="D763" s="19"/>
     </row>
-    <row r="764" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="764" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B764" s="19"/>
       <c r="C764" s="19"/>
       <c r="D764" s="19"/>
     </row>
-    <row r="765" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="765" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B765" s="19"/>
       <c r="C765" s="19"/>
       <c r="D765" s="19"/>
     </row>
-    <row r="766" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="766" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B766" s="19"/>
       <c r="C766" s="19"/>
       <c r="D766" s="19"/>
     </row>
-    <row r="767" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="767" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B767" s="19"/>
       <c r="C767" s="19"/>
       <c r="D767" s="19"/>
     </row>
-    <row r="768" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="768" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B768" s="19"/>
       <c r="C768" s="19"/>
       <c r="D768" s="19"/>
     </row>
-    <row r="769" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="769" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B769" s="19"/>
       <c r="C769" s="19"/>
       <c r="D769" s="19"/>
     </row>
-    <row r="770" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="770" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B770" s="19"/>
       <c r="C770" s="19"/>
       <c r="D770" s="19"/>
     </row>
-    <row r="771" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="771" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B771" s="19"/>
       <c r="C771" s="19"/>
       <c r="D771" s="19"/>
     </row>
-    <row r="772" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="772" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B772" s="19"/>
       <c r="C772" s="19"/>
       <c r="D772" s="19"/>
     </row>
-    <row r="773" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="773" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B773" s="19"/>
       <c r="C773" s="19"/>
       <c r="D773" s="19"/>
     </row>
-    <row r="774" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="774" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B774" s="19"/>
       <c r="C774" s="19"/>
       <c r="D774" s="19"/>
     </row>
-    <row r="775" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="775" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B775" s="19"/>
       <c r="C775" s="19"/>
       <c r="D775" s="19"/>
     </row>
-    <row r="776" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="776" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B776" s="19"/>
       <c r="C776" s="19"/>
       <c r="D776" s="19"/>
     </row>
-    <row r="777" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="777" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B777" s="19"/>
       <c r="C777" s="19"/>
       <c r="D777" s="19"/>
     </row>
-    <row r="778" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="778" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B778" s="19"/>
       <c r="C778" s="19"/>
       <c r="D778" s="19"/>
     </row>
-    <row r="779" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="779" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B779" s="19"/>
       <c r="C779" s="19"/>
       <c r="D779" s="19"/>
     </row>
-    <row r="780" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="780" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B780" s="19"/>
       <c r="C780" s="19"/>
       <c r="D780" s="19"/>
     </row>
-    <row r="781" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="781" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B781" s="19"/>
       <c r="C781" s="19"/>
       <c r="D781" s="19"/>
     </row>
-    <row r="782" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="782" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B782" s="19"/>
       <c r="C782" s="19"/>
       <c r="D782" s="19"/>
     </row>
-    <row r="783" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="783" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B783" s="19"/>
       <c r="C783" s="19"/>
       <c r="D783" s="19"/>
     </row>
-    <row r="784" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="784" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B784" s="19"/>
       <c r="C784" s="19"/>
       <c r="D784" s="19"/>
     </row>
-    <row r="785" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="785" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B785" s="19"/>
       <c r="C785" s="19"/>
       <c r="D785" s="19"/>
     </row>
-    <row r="786" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="786" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B786" s="19"/>
       <c r="C786" s="19"/>
       <c r="D786" s="19"/>
     </row>
-    <row r="787" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="787" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B787" s="19"/>
       <c r="C787" s="19"/>
       <c r="D787" s="19"/>
     </row>
-    <row r="788" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="788" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B788" s="19"/>
       <c r="C788" s="19"/>
       <c r="D788" s="19"/>
     </row>
-    <row r="789" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="789" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B789" s="19"/>
       <c r="C789" s="19"/>
       <c r="D789" s="19"/>
     </row>
-    <row r="790" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="790" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B790" s="19"/>
       <c r="C790" s="19"/>
       <c r="D790" s="19"/>
     </row>
-    <row r="791" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="791" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B791" s="19"/>
       <c r="C791" s="19"/>
       <c r="D791" s="19"/>
     </row>
-    <row r="792" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="792" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B792" s="19"/>
       <c r="C792" s="19"/>
       <c r="D792" s="19"/>
     </row>
-    <row r="793" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="793" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B793" s="19"/>
       <c r="C793" s="19"/>
       <c r="D793" s="19"/>
     </row>
-    <row r="794" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="794" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B794" s="19"/>
       <c r="C794" s="19"/>
       <c r="D794" s="19"/>
     </row>
-    <row r="795" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="795" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B795" s="19"/>
       <c r="C795" s="19"/>
       <c r="D795" s="19"/>
     </row>
-    <row r="796" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="796" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B796" s="19"/>
       <c r="C796" s="19"/>
       <c r="D796" s="19"/>
     </row>
-    <row r="797" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="797" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B797" s="19"/>
       <c r="C797" s="19"/>
       <c r="D797" s="19"/>
     </row>
-    <row r="798" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="798" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B798" s="19"/>
       <c r="C798" s="19"/>
       <c r="D798" s="19"/>
     </row>
-    <row r="799" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="799" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B799" s="19"/>
       <c r="C799" s="19"/>
       <c r="D799" s="19"/>
     </row>
-    <row r="800" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="800" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B800" s="19"/>
       <c r="C800" s="19"/>
       <c r="D800" s="19"/>
     </row>
-    <row r="801" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="801" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B801" s="19"/>
       <c r="C801" s="19"/>
       <c r="D801" s="19"/>
     </row>
-    <row r="802" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="802" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B802" s="19"/>
       <c r="C802" s="19"/>
       <c r="D802" s="19"/>
     </row>
-    <row r="803" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="803" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B803" s="19"/>
       <c r="C803" s="19"/>
       <c r="D803" s="19"/>
     </row>
-    <row r="804" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="804" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B804" s="19"/>
       <c r="C804" s="19"/>
       <c r="D804" s="19"/>
     </row>
-    <row r="805" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="805" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B805" s="19"/>
       <c r="C805" s="19"/>
       <c r="D805" s="19"/>
     </row>
-    <row r="806" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="806" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B806" s="19"/>
       <c r="C806" s="19"/>
       <c r="D806" s="19"/>
     </row>
-    <row r="807" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="807" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B807" s="19"/>
       <c r="C807" s="19"/>
       <c r="D807" s="19"/>
     </row>
-    <row r="808" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="808" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B808" s="19"/>
       <c r="C808" s="19"/>
       <c r="D808" s="19"/>
     </row>
-    <row r="809" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="809" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B809" s="19"/>
       <c r="C809" s="19"/>
       <c r="D809" s="19"/>
     </row>
-    <row r="810" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="810" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B810" s="19"/>
       <c r="C810" s="19"/>
       <c r="D810" s="19"/>
     </row>
-    <row r="811" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="811" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B811" s="19"/>
       <c r="C811" s="19"/>
       <c r="D811" s="19"/>
     </row>
-    <row r="812" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="812" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B812" s="19"/>
       <c r="C812" s="19"/>
       <c r="D812" s="19"/>
     </row>
-    <row r="813" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="813" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B813" s="19"/>
       <c r="C813" s="19"/>
       <c r="D813" s="19"/>
     </row>
-    <row r="814" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="814" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B814" s="19"/>
       <c r="C814" s="19"/>
       <c r="D814" s="19"/>
     </row>
-    <row r="815" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="815" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B815" s="19"/>
       <c r="C815" s="19"/>
       <c r="D815" s="19"/>
     </row>
-    <row r="816" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="816" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B816" s="19"/>
       <c r="C816" s="19"/>
       <c r="D816" s="19"/>
     </row>
-    <row r="817" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="817" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B817" s="19"/>
       <c r="C817" s="19"/>
       <c r="D817" s="19"/>
     </row>
-    <row r="818" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="818" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B818" s="19"/>
       <c r="C818" s="19"/>
       <c r="D818" s="19"/>
     </row>
-    <row r="819" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="819" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B819" s="19"/>
       <c r="C819" s="19"/>
       <c r="D819" s="19"/>
     </row>
-    <row r="820" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="820" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B820" s="19"/>
       <c r="C820" s="19"/>
       <c r="D820" s="19"/>
     </row>
-    <row r="821" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="821" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B821" s="19"/>
       <c r="C821" s="19"/>
       <c r="D821" s="19"/>
     </row>
-    <row r="822" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="822" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B822" s="19"/>
       <c r="C822" s="19"/>
       <c r="D822" s="19"/>
     </row>
-    <row r="823" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="823" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B823" s="19"/>
       <c r="C823" s="19"/>
       <c r="D823" s="19"/>
     </row>
-    <row r="824" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="824" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B824" s="19"/>
       <c r="C824" s="19"/>
       <c r="D824" s="19"/>
     </row>
-    <row r="825" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="825" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B825" s="19"/>
       <c r="C825" s="19"/>
       <c r="D825" s="19"/>
     </row>
-    <row r="826" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="826" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B826" s="19"/>
       <c r="C826" s="19"/>
       <c r="D826" s="19"/>
     </row>
-    <row r="827" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="827" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B827" s="19"/>
       <c r="C827" s="19"/>
       <c r="D827" s="19"/>
     </row>
-    <row r="828" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="828" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B828" s="19"/>
       <c r="C828" s="19"/>
       <c r="D828" s="19"/>
     </row>
-    <row r="829" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="829" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B829" s="19"/>
       <c r="C829" s="19"/>
       <c r="D829" s="19"/>
     </row>
-    <row r="830" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="830" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B830" s="19"/>
       <c r="C830" s="19"/>
       <c r="D830" s="19"/>
     </row>
-    <row r="831" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="831" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B831" s="19"/>
       <c r="C831" s="19"/>
       <c r="D831" s="19"/>
     </row>
-    <row r="832" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="832" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B832" s="19"/>
       <c r="C832" s="19"/>
       <c r="D832" s="19"/>
@@ -5928,8 +5974,10 @@
     <hyperlink ref="A50" r:id="rId48" display="https://leetcode.cn/problems/sudoku-solver/" xr:uid="{DCB6E377-CEDA-46DC-88BE-76C9FAAC4D66}"/>
     <hyperlink ref="A51" r:id="rId49" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{B1DAB062-EA61-4D68-BFB7-E46584681267}"/>
     <hyperlink ref="A52" r:id="rId50" display="https://leetcode.cn/problems/combination-sum-ii/" xr:uid="{43E1BA57-24BD-432A-9713-AC83587EA020}"/>
+    <hyperlink ref="A53" r:id="rId51" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{71845A78-0EFA-4665-A455-9DB46B6E8613}"/>
+    <hyperlink ref="A54" r:id="rId52" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{85C2B894-1E72-4E49-8D12-01FA5BB8C9FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId53"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4234413-839F-4653-9234-F7DD0F0474B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC514D6E-88F6-4714-965A-D95A7C96A9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="192">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,6 +690,61 @@
   </si>
   <si>
     <t>非常好的一道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>415. 字符串相加</t>
+  </si>
+  <si>
+    <t>2022.08.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意+'0' -'0'， 可以算术模拟，也可以先reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43. 字符串相乘</t>
+  </si>
+  <si>
+    <t>加法模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘法模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意点就是-'0'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44. 通配符匹配</t>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路想不出来，想出来了，下标也很容易写错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45. 跳跃游戏 II</t>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉像是贪心，就可以试试用贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46. 全排列</t>
+  </si>
+  <si>
+    <t>标准全排列， 排列树问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1201,7 +1256,7 @@
   <dimension ref="A1:G832"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1997,34 +2052,77 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
+    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
+      <c r="A56" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>183</v>
+      </c>
       <c r="E56" s="19"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
+    <row r="57" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
+      <c r="A58" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>189</v>
+      </c>
       <c r="E58" s="19"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
+      <c r="A59" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>191</v>
+      </c>
       <c r="E59" s="19"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -5976,8 +6074,13 @@
     <hyperlink ref="A52" r:id="rId50" display="https://leetcode.cn/problems/combination-sum-ii/" xr:uid="{43E1BA57-24BD-432A-9713-AC83587EA020}"/>
     <hyperlink ref="A53" r:id="rId51" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{71845A78-0EFA-4665-A455-9DB46B6E8613}"/>
     <hyperlink ref="A54" r:id="rId52" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{85C2B894-1E72-4E49-8D12-01FA5BB8C9FB}"/>
+    <hyperlink ref="A55" r:id="rId53" display="https://leetcode.cn/problems/add-strings/" xr:uid="{26F2F31C-048F-420F-BE94-94435CC13058}"/>
+    <hyperlink ref="A56" r:id="rId54" display="https://leetcode.cn/problems/multiply-strings/" xr:uid="{251D19FC-F570-416A-A971-67E04DA5103A}"/>
+    <hyperlink ref="A57" r:id="rId55" display="https://leetcode.cn/problems/wildcard-matching/" xr:uid="{1F5E8BCA-7725-4FAC-B046-6E5D8DD6280F}"/>
+    <hyperlink ref="A58" r:id="rId56" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{6EDBFF84-642E-4846-A464-D3D3703AE0BD}"/>
+    <hyperlink ref="A59" r:id="rId57" display="https://leetcode.cn/problems/permutations/" xr:uid="{5EE82039-6022-48C5-950A-3E1C763B5ECC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId53"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId58"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC514D6E-88F6-4714-965A-D95A7C96A9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6209381-C451-43A8-A279-B639BF4A0A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="204">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -745,6 +745,51 @@
   </si>
   <si>
     <t>标准全排列， 排列树问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47. 全排列 II</t>
+  </si>
+  <si>
+    <t>2022.08.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯，去重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去重也有套路了，大部分就是先sort，根据条件筛选合适的进入下一次循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48. 旋转图像</t>
+  </si>
+  <si>
+    <t>数组旋转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转=转置+翻转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49. 字母异位词分组</t>
+  </si>
+  <si>
+    <t>map的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试map测试了很久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50. Pow(x, n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二刷，还是不熟练</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1255,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2126,27 +2171,63 @@
       <c r="E59" s="19"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
+      <c r="A60" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>195</v>
+      </c>
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
+      <c r="A61" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="E61" s="19"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
+      <c r="A62" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>201</v>
+      </c>
       <c r="E62" s="19"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
+      <c r="A63" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>203</v>
+      </c>
       <c r="E63" s="19"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -6079,8 +6160,11 @@
     <hyperlink ref="A57" r:id="rId55" display="https://leetcode.cn/problems/wildcard-matching/" xr:uid="{1F5E8BCA-7725-4FAC-B046-6E5D8DD6280F}"/>
     <hyperlink ref="A58" r:id="rId56" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{6EDBFF84-642E-4846-A464-D3D3703AE0BD}"/>
     <hyperlink ref="A59" r:id="rId57" display="https://leetcode.cn/problems/permutations/" xr:uid="{5EE82039-6022-48C5-950A-3E1C763B5ECC}"/>
+    <hyperlink ref="A60" r:id="rId58" display="https://leetcode.cn/problems/permutations-ii/" xr:uid="{BF88BFBB-FB1C-412E-8667-603FE813E4F8}"/>
+    <hyperlink ref="A61" r:id="rId59" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{DC5BE5F8-5C28-4BC5-846B-454908F7B267}"/>
+    <hyperlink ref="A62" r:id="rId60" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{EE556F70-DDB0-488A-B636-1DF64BA18B08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId58"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId61"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6209381-C451-43A8-A279-B639BF4A0A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3037EA50-099D-4187-90CB-01DD7624D038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="215">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -785,11 +785,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50. Pow(x, n)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二刷，还是不熟练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51. N 皇后</t>
+  </si>
+  <si>
+    <t>2022.08.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯，剪枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>著名的n皇后问题！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52. N皇后 II</t>
+  </si>
+  <si>
+    <t>上一题的简化版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪枝值得借鉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53. 最大子数组和</t>
+  </si>
+  <si>
+    <t>经典动态规划，关键就是dp的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54. 螺旋矩阵</t>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟终点有意思，控制方向可以用数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1301,7 +1341,7 @@
   <dimension ref="A1:G832"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2216,8 +2256,8 @@
       <c r="E62" s="19"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>202</v>
+      <c r="A63" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>193</v>
@@ -2226,107 +2266,143 @@
         <v>130</v>
       </c>
       <c r="D63" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="E63" s="19"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
+      <c r="B64" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>206</v>
+      </c>
       <c r="E64" s="19"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>209</v>
+      </c>
       <c r="E65" s="19"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>211</v>
+      </c>
       <c r="E66" s="19"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="E67" s="19"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
@@ -6163,8 +6239,13 @@
     <hyperlink ref="A60" r:id="rId58" display="https://leetcode.cn/problems/permutations-ii/" xr:uid="{BF88BFBB-FB1C-412E-8667-603FE813E4F8}"/>
     <hyperlink ref="A61" r:id="rId59" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{DC5BE5F8-5C28-4BC5-846B-454908F7B267}"/>
     <hyperlink ref="A62" r:id="rId60" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{EE556F70-DDB0-488A-B636-1DF64BA18B08}"/>
+    <hyperlink ref="A64" r:id="rId61" display="https://leetcode.cn/problems/n-queens/" xr:uid="{7BF62AF3-0040-4ABD-A0D4-18899352845B}"/>
+    <hyperlink ref="A63" r:id="rId62" display="https://leetcode.cn/problems/powx-n/" xr:uid="{4824B643-EBBD-4936-85CA-969F711DC868}"/>
+    <hyperlink ref="A65" r:id="rId63" display="https://leetcode.cn/problems/n-queens-ii/" xr:uid="{24558138-F742-4C93-94E5-D0BA22E0D8E1}"/>
+    <hyperlink ref="A66" r:id="rId64" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{F598754B-AC09-494C-912F-D2284CECB076}"/>
+    <hyperlink ref="A67" r:id="rId65" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{231FD4B8-81EC-461F-865E-04DD4C6DFAE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId61"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId66"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3037EA50-099D-4187-90CB-01DD7624D038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC289F3-5692-40C1-9EB5-46C54F758843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="221">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -830,6 +830,28 @@
   </si>
   <si>
     <t>模拟终点有意思，控制方向可以用数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.08.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简洁写法的关键就是怎样控制终点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55. 跳跃游戏</t>
+  </si>
+  <si>
+    <t>56. 合并区间</t>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmp定义要么是static要么是匿名函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1340,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2331,16 +2353,33 @@
       <c r="E67" s="19"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
+      <c r="A68" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>216</v>
+      </c>
       <c r="E68" s="19"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
+    <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="19"/>
@@ -6244,8 +6283,10 @@
     <hyperlink ref="A65" r:id="rId63" display="https://leetcode.cn/problems/n-queens-ii/" xr:uid="{24558138-F742-4C93-94E5-D0BA22E0D8E1}"/>
     <hyperlink ref="A66" r:id="rId64" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{F598754B-AC09-494C-912F-D2284CECB076}"/>
     <hyperlink ref="A67" r:id="rId65" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{231FD4B8-81EC-461F-865E-04DD4C6DFAE8}"/>
+    <hyperlink ref="A68" r:id="rId66" display="https://leetcode.cn/problems/jump-game/" xr:uid="{A5732443-3D2D-4048-90A0-A53EA46F46D3}"/>
+    <hyperlink ref="A69" r:id="rId67" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{E50FC8F1-6D25-4F3C-B817-C78F4603DF6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId66"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId68"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC289F3-5692-40C1-9EB5-46C54F758843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C438851-2502-417D-A68A-28B205F2280D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="244">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,6 +852,90 @@
   </si>
   <si>
     <t>cmp定义要么是static要么是匿名函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57. 插入区间</t>
+  </si>
+  <si>
+    <t>合并区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上一题的加强版，答案看起来很简单，想半天没想出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58. 最后一个单词的长度</t>
+  </si>
+  <si>
+    <t>反向思维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强行判断边界，或者先处理特殊情况，或者逆向思维，转换顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59. 螺旋矩阵 II</t>
+  </si>
+  <si>
+    <t>矩阵模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和之前的做法几乎一模一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60. 排列序列</t>
+  </si>
+  <si>
+    <t>回溯/计数贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于计数，本题难点是技术起点的0和1互换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61. 旋转链表</t>
+  </si>
+  <si>
+    <t>链表闭环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表的旋转操作，可以用闭环来实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62. 不同路径</t>
+  </si>
+  <si>
+    <t>动态规划/组合数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求组合数的方法，值得借鉴 ，杨辉三角，简单动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63. 不同路径 II</t>
+  </si>
+  <si>
+    <t>动态规划/滚动数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划更上题一样，多了一个处理第一行第一列障碍物的问题，滚动数组暂时不写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64. 最小路径和</t>
+  </si>
+  <si>
+    <t>动态规划：最优解/计数问题 ：大问题的最优解/计数可由小问题最优解/计数推出来，像矩阵最优解题，很容易用动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1362,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G832"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1371,7 +1455,7 @@
     <col min="1" max="1" width="51.77734375" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="66.109375" customWidth="1"/>
+    <col min="4" max="4" width="111.5546875" customWidth="1"/>
     <col min="5" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="33.5546875" customWidth="1"/>
@@ -2381,53 +2465,121 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
+    <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="A73" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="E73" s="19"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
+      <c r="A74" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="E74" s="19"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
+      <c r="A75" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="E75" s="19"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
+      <c r="A76" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="E76" s="19"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
+    <row r="77" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="19"/>
@@ -6285,8 +6437,16 @@
     <hyperlink ref="A67" r:id="rId65" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{231FD4B8-81EC-461F-865E-04DD4C6DFAE8}"/>
     <hyperlink ref="A68" r:id="rId66" display="https://leetcode.cn/problems/jump-game/" xr:uid="{A5732443-3D2D-4048-90A0-A53EA46F46D3}"/>
     <hyperlink ref="A69" r:id="rId67" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{E50FC8F1-6D25-4F3C-B817-C78F4603DF6F}"/>
+    <hyperlink ref="A70" r:id="rId68" display="https://leetcode.cn/problems/insert-interval/" xr:uid="{D2DF9B78-DA43-441B-8A62-0C3339AF915B}"/>
+    <hyperlink ref="A71" r:id="rId69" display="https://leetcode.cn/problems/length-of-last-word/" xr:uid="{22CBFA6C-D2EC-4C29-993C-2C358C96DA66}"/>
+    <hyperlink ref="A72" r:id="rId70" display="https://leetcode.cn/problems/spiral-matrix-ii/" xr:uid="{B657F195-D491-4B66-837F-E872850A8E80}"/>
+    <hyperlink ref="A73" r:id="rId71" display="https://leetcode.cn/problems/permutation-sequence/" xr:uid="{7854794C-DEC5-4C31-AC02-4F203AB74605}"/>
+    <hyperlink ref="A74" r:id="rId72" display="https://leetcode.cn/problems/rotate-list/" xr:uid="{AB21382A-97DE-4228-8275-F2BB68804BFF}"/>
+    <hyperlink ref="A75" r:id="rId73" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{BE2B124B-36D1-45CA-8A14-434611A6B109}"/>
+    <hyperlink ref="A76" r:id="rId74" display="https://leetcode.cn/problems/unique-paths-ii/" xr:uid="{96512863-B5B3-40F9-B20D-9E09D30C1169}"/>
+    <hyperlink ref="A77" r:id="rId75" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{194AAFFA-70F3-45FF-B461-B3539972E399}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId68"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId76"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C438851-2502-417D-A68A-28B205F2280D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546F1853-9A19-410F-BB0B-87314F4F45F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3744" yWindow="2088" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="271">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -936,6 +936,105 @@
   </si>
   <si>
     <t>动态规划：最优解/计数问题 ：大问题的最优解/计数可由小问题最优解/计数推出来，像矩阵最优解题，很容易用动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65. 有效数字</t>
+  </si>
+  <si>
+    <t>2022.08.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.08.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限状态自动机不会写，纯模拟的代码写的又臭又长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66. 加一</t>
+  </si>
+  <si>
+    <t>四则加法， 找规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67. 二进制求和</t>
+  </si>
+  <si>
+    <t>四则加法/位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加法已经成为固定套路了,位运算有点意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68. 文本左右对齐</t>
+  </si>
+  <si>
+    <t>字符串模拟就是分类讨论加找规律，resize()很有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找规律还挺巧妙的, 第一次用find_last_of（）,或者用for，然后里面标记时候已有，这个是最好的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">69. x 的平方根 </t>
+  </si>
+  <si>
+    <t>对数/二分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这题有点意思的，算是经典二分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70. 爬楼梯</t>
+  </si>
+  <si>
+    <t>应该是最简单的动态规划了，太经典了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71. 简化路径</t>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像文件目录这种结构，明显是用栈来模拟的，栈可以用vector来写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从这里开始，按照出题频率来写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704. 二分查找</t>
+  </si>
+  <si>
+    <t>最简单的二分查找，没啥好说的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 09. 用两个栈实现队列</t>
+  </si>
+  <si>
+    <t>栈和队列转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟，没啥难度，也有改进的地方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,7 +1147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1079,6 +1178,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1093,7 +1204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1132,6 +1243,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1444,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G832"/>
+  <dimension ref="A1:G830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1494,7 +1611,7 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
@@ -1514,7 +1631,7 @@
       <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
@@ -1535,7 +1652,7 @@
       <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
@@ -1553,7 +1670,7 @@
       <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1574,7 +1691,7 @@
       <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
@@ -2470,7 +2587,7 @@
         <v>221</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>222</v>
@@ -2484,7 +2601,7 @@
         <v>224</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>225</v>
@@ -2498,7 +2615,7 @@
         <v>227</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>228</v>
@@ -2512,7 +2629,7 @@
         <v>230</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>231</v>
@@ -2527,7 +2644,7 @@
         <v>233</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>234</v>
@@ -2542,7 +2659,7 @@
         <v>236</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>237</v>
@@ -2557,7 +2674,7 @@
         <v>239</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>240</v>
@@ -2572,7 +2689,7 @@
         <v>242</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>27</v>
@@ -2581,105 +2698,182 @@
         <v>243</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
+    <row r="78" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>261</v>
+      </c>
       <c r="E83" s="19"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
       <c r="D96" s="19"/>
@@ -6353,16 +6547,6 @@
       <c r="B830" s="19"/>
       <c r="C830" s="19"/>
       <c r="D830" s="19"/>
-    </row>
-    <row r="831" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B831" s="19"/>
-      <c r="C831" s="19"/>
-      <c r="D831" s="19"/>
-    </row>
-    <row r="832" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B832" s="19"/>
-      <c r="C832" s="19"/>
-      <c r="D832" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6445,8 +6629,17 @@
     <hyperlink ref="A75" r:id="rId73" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{BE2B124B-36D1-45CA-8A14-434611A6B109}"/>
     <hyperlink ref="A76" r:id="rId74" display="https://leetcode.cn/problems/unique-paths-ii/" xr:uid="{96512863-B5B3-40F9-B20D-9E09D30C1169}"/>
     <hyperlink ref="A77" r:id="rId75" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{194AAFFA-70F3-45FF-B461-B3539972E399}"/>
+    <hyperlink ref="A78" r:id="rId76" display="https://leetcode.cn/problems/valid-number/" xr:uid="{38B2FB94-1FC6-4408-AE25-DDE3CDAC5BBA}"/>
+    <hyperlink ref="A79" r:id="rId77" display="https://leetcode.cn/problems/plus-one/" xr:uid="{53F38AD2-714B-449C-A936-EF935FCF5D5B}"/>
+    <hyperlink ref="A80" r:id="rId78" display="https://leetcode.cn/problems/add-binary/" xr:uid="{CDF063FA-2E37-4616-9371-39CF9613295E}"/>
+    <hyperlink ref="A81" r:id="rId79" display="https://leetcode.cn/problems/text-justification/" xr:uid="{6F05CECE-D3DD-4041-A3B6-F36417B5D2CF}"/>
+    <hyperlink ref="A82" r:id="rId80" display="https://leetcode.cn/problems/sqrtx/" xr:uid="{0134B917-0C69-4DFD-8874-5060B39A1B70}"/>
+    <hyperlink ref="A83" r:id="rId81" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{F6106870-2295-4633-8595-D2BD324388B8}"/>
+    <hyperlink ref="A84" r:id="rId82" display="https://leetcode.cn/problems/simplify-path/" xr:uid="{9C6EA7D1-673B-460C-9A61-9144A7740355}"/>
+    <hyperlink ref="A86" r:id="rId83" display="https://leetcode.cn/problems/binary-search/" xr:uid="{51A90CAE-6E5C-487D-8253-D810C880CC89}"/>
+    <hyperlink ref="A87" r:id="rId84" display="https://leetcode.cn/problems/yong-liang-ge-zhan-shi-xian-dui-lie-lcof/" xr:uid="{774D4F25-8E68-4577-A8FD-A242CE220097}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId76"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId85"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546F1853-9A19-410F-BB0B-87314F4F45F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ACF39B-717B-4E2B-8B69-5E25190C8F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="2088" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="284">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1035,6 +1035,54 @@
   </si>
   <si>
     <t>模拟，没啥难度，也有改进的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>146. LRU 缓存</t>
+  </si>
+  <si>
+    <t>2022.08.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map，双向链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多细节， map要与双向链表保持一致性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>217. 存在重复元素</t>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太简单的题目了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175. 组合两个表</t>
+  </si>
+  <si>
+    <t>sql外连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql中最简单的题目了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1480. 一维数组的动态和</t>
+  </si>
+  <si>
+    <t>常识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实用了动态规划的思想，但是确实是傻瓜式题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1563,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
@@ -2805,17 +2853,17 @@
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+    <row r="86" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C86" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="3" t="s">
         <v>267</v>
       </c>
     </row>
@@ -2833,25 +2881,61 @@
         <v>270</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
+    <row r="88" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
+      <c r="A90" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
+      <c r="A91" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" s="19"/>
@@ -6638,8 +6722,12 @@
     <hyperlink ref="A84" r:id="rId82" display="https://leetcode.cn/problems/simplify-path/" xr:uid="{9C6EA7D1-673B-460C-9A61-9144A7740355}"/>
     <hyperlink ref="A86" r:id="rId83" display="https://leetcode.cn/problems/binary-search/" xr:uid="{51A90CAE-6E5C-487D-8253-D810C880CC89}"/>
     <hyperlink ref="A87" r:id="rId84" display="https://leetcode.cn/problems/yong-liang-ge-zhan-shi-xian-dui-lie-lcof/" xr:uid="{774D4F25-8E68-4577-A8FD-A242CE220097}"/>
+    <hyperlink ref="A88" r:id="rId85" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{BF35CE1C-E33C-4C91-8401-63166BC9BE76}"/>
+    <hyperlink ref="A89" r:id="rId86" display="https://leetcode.cn/problems/contains-duplicate/" xr:uid="{EA24E86B-8050-48E2-86ED-6E8A3EFE7B7B}"/>
+    <hyperlink ref="A90" r:id="rId87" display="https://leetcode.cn/problems/combine-two-tables/" xr:uid="{97CF2066-C27A-445C-BBDD-3806EA6FDE74}"/>
+    <hyperlink ref="A91" r:id="rId88" display="https://leetcode.cn/problems/running-sum-of-1d-array/" xr:uid="{559B251C-1D77-4065-A895-4F316BF0E315}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId85"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId89"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ACF39B-717B-4E2B-8B69-5E25190C8F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8DE6B8-CBC5-403C-A9D9-65D609DD2995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="287">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1083,6 +1083,17 @@
   </si>
   <si>
     <t>其实用了动态规划的思想，但是确实是傻瓜式题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200. 岛屿数量</t>
+  </si>
+  <si>
+    <t>dfs/bfs/并查集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题太好了，考察知识点很全面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1611,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2937,10 +2948,19 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
+    <row r="92" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" s="19"/>
@@ -6726,8 +6746,9 @@
     <hyperlink ref="A89" r:id="rId86" display="https://leetcode.cn/problems/contains-duplicate/" xr:uid="{EA24E86B-8050-48E2-86ED-6E8A3EFE7B7B}"/>
     <hyperlink ref="A90" r:id="rId87" display="https://leetcode.cn/problems/combine-two-tables/" xr:uid="{97CF2066-C27A-445C-BBDD-3806EA6FDE74}"/>
     <hyperlink ref="A91" r:id="rId88" display="https://leetcode.cn/problems/running-sum-of-1d-array/" xr:uid="{559B251C-1D77-4065-A895-4F316BF0E315}"/>
+    <hyperlink ref="A92" r:id="rId89" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{6D629026-E2D4-4E9D-9FC7-2173B96EA3BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId89"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId90"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8DE6B8-CBC5-403C-A9D9-65D609DD2995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A743F9-377F-4165-90B4-E5204E809FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="310">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1094,6 +1094,90 @@
   </si>
   <si>
     <t>这道题太好了，考察知识点很全面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215. 数组中的第K个最大元素</t>
+  </si>
+  <si>
+    <t>2022.08.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快排/优先队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快排或者堆排序，堆排序可以用优先队列来写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121. 买卖股票的最佳时机</t>
+  </si>
+  <si>
+    <t>边遍历边记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把自己带进去，模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104. 二叉树的最大深度</t>
+  </si>
+  <si>
+    <t>树的dfs/bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题太经典了，不过确实简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>595. 大的国家</t>
+  </si>
+  <si>
+    <t>union</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最简单的sql了，用union优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 51. 数组中的逆序对</t>
+  </si>
+  <si>
+    <t>归并排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典归并排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>278. 第一个错误的版本</t>
+  </si>
+  <si>
+    <t>经典二分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>279. 完全平方数</t>
+  </si>
+  <si>
+    <t>很少见的动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 24. 反转链表</t>
+  </si>
+  <si>
+    <t>反转链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转链表类的，肯定有一个pre</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1622,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2962,102 +3046,174 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
       <c r="D101" s="19"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
       <c r="D102" s="19"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
       <c r="D109" s="19"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
       <c r="D110" s="19"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
       <c r="D111" s="19"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
       <c r="D112" s="19"/>
@@ -6747,8 +6903,16 @@
     <hyperlink ref="A90" r:id="rId87" display="https://leetcode.cn/problems/combine-two-tables/" xr:uid="{97CF2066-C27A-445C-BBDD-3806EA6FDE74}"/>
     <hyperlink ref="A91" r:id="rId88" display="https://leetcode.cn/problems/running-sum-of-1d-array/" xr:uid="{559B251C-1D77-4065-A895-4F316BF0E315}"/>
     <hyperlink ref="A92" r:id="rId89" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{6D629026-E2D4-4E9D-9FC7-2173B96EA3BD}"/>
+    <hyperlink ref="A93" r:id="rId90" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{3AA0B6AA-0067-4276-875C-BCC85E2ABBC5}"/>
+    <hyperlink ref="A94" r:id="rId91" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{C0FE75F1-6C71-4E6A-95CE-6D804F563C78}"/>
+    <hyperlink ref="A95" r:id="rId92" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{B1861641-FEC0-4F6B-8C9D-6CFB513AEE9A}"/>
+    <hyperlink ref="A96" r:id="rId93" display="https://leetcode.cn/problems/big-countries/" xr:uid="{ABB71956-176A-4451-BB76-87143B0389FE}"/>
+    <hyperlink ref="A97" r:id="rId94" display="https://leetcode.cn/problems/shu-zu-zhong-de-ni-xu-dui-lcof/" xr:uid="{90C8CDDD-187F-4E40-B1EA-7ECCB99D2757}"/>
+    <hyperlink ref="A98" r:id="rId95" display="https://leetcode.cn/problems/first-bad-version/" xr:uid="{642F7588-6AA7-4649-9D99-8A050AE586D5}"/>
+    <hyperlink ref="A99" r:id="rId96" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{A43F62E6-F2D1-42D7-93FE-2433ABC673F5}"/>
+    <hyperlink ref="A100" r:id="rId97" display="https://leetcode.cn/problems/fan-zhuan-lian-biao-lcof/" xr:uid="{9F87AAE6-41BF-4878-8B9B-76ACD19799D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId90"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId98"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A743F9-377F-4165-90B4-E5204E809FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F1FB60-0036-4019-A30C-F42E50F79E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="334">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1178,6 +1178,94 @@
   </si>
   <si>
     <t>反转链表类的，肯定有一个pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>239. 滑动窗口最大值</t>
+  </si>
+  <si>
+    <t>优先队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先队列删除并不一定要真删除，只要不停地pop不满足条件的top即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88. 合并两个有序数组</t>
+  </si>
+  <si>
+    <t>2022.08.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原地合并数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怕覆盖，就反着来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 42. 连续子数组的最大和</t>
+  </si>
+  <si>
+    <t>最长连续子序列和，经典动态规划了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93. 复原 IP 地址</t>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很值得再做一次的dfs，锻炼思维，理论上不难的，但是就是花了很长时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>543. 二叉树的直径</t>
+  </si>
+  <si>
+    <t>二叉树dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不难，但是卡住了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>912. 排序数组</t>
+  </si>
+  <si>
+    <t>快排/堆排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该是经常考的一道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136. 只出现一次的数字</t>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异或的最经典应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176. 第二高的薪水</t>
+  </si>
+  <si>
+    <t>select嵌套别名/ifnull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决null的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1706,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3159,44 +3247,116 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
+      <c r="A101" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
+      <c r="A102" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
+      <c r="A103" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
+      <c r="A105" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
+      <c r="A106" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
+      <c r="A107" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
+      <c r="A108" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" s="19"/>
@@ -6911,8 +7071,16 @@
     <hyperlink ref="A98" r:id="rId95" display="https://leetcode.cn/problems/first-bad-version/" xr:uid="{642F7588-6AA7-4649-9D99-8A050AE586D5}"/>
     <hyperlink ref="A99" r:id="rId96" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{A43F62E6-F2D1-42D7-93FE-2433ABC673F5}"/>
     <hyperlink ref="A100" r:id="rId97" display="https://leetcode.cn/problems/fan-zhuan-lian-biao-lcof/" xr:uid="{9F87AAE6-41BF-4878-8B9B-76ACD19799D7}"/>
+    <hyperlink ref="A101" r:id="rId98" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{7314CD20-ACA5-4B11-856F-A89B21836993}"/>
+    <hyperlink ref="A102" r:id="rId99" display="https://leetcode.cn/problems/merge-sorted-array/" xr:uid="{8BCE8016-1C43-47D3-B37F-06731114ED65}"/>
+    <hyperlink ref="A103" r:id="rId100" display="https://leetcode.cn/problems/lian-xu-zi-shu-zu-de-zui-da-he-lcof/" xr:uid="{553083FC-ED23-4197-A78C-EC23BEABB39F}"/>
+    <hyperlink ref="A104" r:id="rId101" display="https://leetcode.cn/problems/restore-ip-addresses/" xr:uid="{B9A8DF1F-4123-43B8-8E98-D37B914A312C}"/>
+    <hyperlink ref="A105" r:id="rId102" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{6B85AD7F-B3A3-4EA0-A942-0501DBA06684}"/>
+    <hyperlink ref="A106" r:id="rId103" display="https://leetcode.cn/problems/sort-an-array/" xr:uid="{1DD2C139-9300-40C9-8B8E-4324AE32F068}"/>
+    <hyperlink ref="A107" r:id="rId104" display="https://leetcode.cn/problems/single-number/" xr:uid="{1EE4135F-D260-44C6-9A1B-E0B2EBA118A9}"/>
+    <hyperlink ref="A108" r:id="rId105" display="https://leetcode.cn/problems/second-highest-salary/" xr:uid="{D832068C-6CB5-43DE-AC9D-B87C7916DE25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId98"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId106"/>
 </worksheet>
 </file>
--- a/leetcode_record.xlsx
+++ b/leetcode_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hx\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F1FB60-0036-4019-A30C-F42E50F79E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F00F68-53BC-484E-972F-071CCC6D6BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="355">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1086,186 +1086,264 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dfs/bfs/并查集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题太好了，考察知识点很全面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215. 数组中的第K个最大元素</t>
+  </si>
+  <si>
+    <t>2022.08.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快排/优先队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快排或者堆排序，堆排序可以用优先队列来写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121. 买卖股票的最佳时机</t>
+  </si>
+  <si>
+    <t>边遍历边记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把自己带进去，模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104. 二叉树的最大深度</t>
+  </si>
+  <si>
+    <t>树的dfs/bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这道题太经典了，不过确实简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>595. 大的国家</t>
+  </si>
+  <si>
+    <t>union</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最简单的sql了，用union优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 51. 数组中的逆序对</t>
+  </si>
+  <si>
+    <t>归并排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典归并排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>278. 第一个错误的版本</t>
+  </si>
+  <si>
+    <t>经典二分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>279. 完全平方数</t>
+  </si>
+  <si>
+    <t>很少见的动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 24. 反转链表</t>
+  </si>
+  <si>
+    <t>反转链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转链表类的，肯定有一个pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>239. 滑动窗口最大值</t>
+  </si>
+  <si>
+    <t>优先队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先队列删除并不一定要真删除，只要不停地pop不满足条件的top即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88. 合并两个有序数组</t>
+  </si>
+  <si>
+    <t>2022.08.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原地合并数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怕覆盖，就反着来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 42. 连续子数组的最大和</t>
+  </si>
+  <si>
+    <t>最长连续子序列和，经典动态规划了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93. 复原 IP 地址</t>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很值得再做一次的dfs，锻炼思维，理论上不难的，但是就是花了很长时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>543. 二叉树的直径</t>
+  </si>
+  <si>
+    <t>二叉树dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不难，但是卡住了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>912. 排序数组</t>
+  </si>
+  <si>
+    <t>快排/堆排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该是经常考的一道题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136. 只出现一次的数字</t>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异或的最经典应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176. 第二高的薪水</t>
+  </si>
+  <si>
+    <t>select嵌套别名/ifnull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决null的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>440. 字典序的第K小数字</t>
+  </si>
+  <si>
+    <t>2022.08.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次碰到的数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103. 二叉树的锯齿形层序遍历</t>
+  </si>
+  <si>
+    <t>bfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层一次性遍历的bfs， 第一次遇到deque数据结构，用vector也能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>876. 链表的中间结点</t>
+  </si>
+  <si>
+    <t>快慢指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表转为vt就可以用下标， 快慢指针就是指针走的速度不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>143. 重排链表</t>
+  </si>
+  <si>
+    <t>快慢指针,翻转/转vt取下标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束的条件有点难控制，最后节点后面是nullptr显式指出保险点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>199. 二叉树的右视图</t>
+  </si>
+  <si>
+    <t>一下子遍历一层，另外也可以用一个depthQ来和q保持同步，这样能得到每个节点的深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>200. 岛屿数量</t>
-  </si>
-  <si>
-    <t>dfs/bfs/并查集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这道题太好了，考察知识点很全面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>215. 数组中的第K个最大元素</t>
-  </si>
-  <si>
-    <t>2022.08.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快排/优先队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快排或者堆排序，堆排序可以用优先队列来写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>121. 买卖股票的最佳时机</t>
-  </si>
-  <si>
-    <t>边遍历边记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把自己带进去，模拟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104. 二叉树的最大深度</t>
-  </si>
-  <si>
-    <t>树的dfs/bfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这道题太经典了，不过确实简单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>595. 大的国家</t>
-  </si>
-  <si>
-    <t>union</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最简单的sql了，用union优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑指 Offer 51. 数组中的逆序对</t>
-  </si>
-  <si>
-    <t>归并排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经典归并排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>278. 第一个错误的版本</t>
-  </si>
-  <si>
-    <t>经典二分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>279. 完全平方数</t>
-  </si>
-  <si>
-    <t>很少见的动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑指 Offer 24. 反转链表</t>
-  </si>
-  <si>
-    <t>反转链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反转链表类的，肯定有一个pre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>239. 滑动窗口最大值</t>
-  </si>
-  <si>
-    <t>优先队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先队列删除并不一定要真删除，只要不停地pop不满足条件的top即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88. 合并两个有序数组</t>
-  </si>
-  <si>
-    <t>2022.08.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原地合并数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怕覆盖，就反着来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑指 Offer 42. 连续子数组的最大和</t>
-  </si>
-  <si>
-    <t>最长连续子序列和，经典动态规划了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93. 复原 IP 地址</t>
-  </si>
-  <si>
-    <t>dfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很值得再做一次的dfs，锻炼思维，理论上不难的，但是就是花了很长时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>543. 二叉树的直径</t>
-  </si>
-  <si>
-    <t>二叉树dfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不难，但是卡住了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>912. 排序数组</t>
-  </si>
-  <si>
-    <t>快排/堆排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应该是经常考的一道题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>136. 只出现一次的数字</t>
-  </si>
-  <si>
-    <t>位运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异或的最经典应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>176. 第二高的薪水</t>
-  </si>
-  <si>
-    <t>select嵌套别名/ifnull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决null的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206. 反转链表</t>
+  </si>
+  <si>
+    <t>翻转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种方法： 都很经典，一个固定pre和p,让pNext不停加到pre后面，一个移动pre, p, pNext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102. 二叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>层序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常标准的层序遍历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1794,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3122,338 +3200,401 @@
     </row>
     <row r="92" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
-        <v>284</v>
+        <v>348</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>272</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C94" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C95" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C96" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C97" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>147</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C100" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C101" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="C102" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C104" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C104" s="11" t="s">
+      <c r="D104" s="11" t="s">
         <v>320</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C105" s="5" t="s">
+      <c r="D105" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C106" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C107" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C108" s="5" t="s">
+      <c r="D108" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D108" s="5" t="s">
+    </row>
+    <row r="109" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="17" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
+      <c r="B109" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
+      <c r="A110" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
+      <c r="A111" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
       <c r="D116" s="19"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
       <c r="D117" s="19"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
       <c r="D118" s="19"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
       <c r="D119" s="19"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
       <c r="D120" s="19"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
       <c r="D121" s="19"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
       <c r="D122" s="19"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
       <c r="D123" s="19"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
       <c r="D128" s="19"/>
@@ -7079,8 +7220,15 @@
     <hyperlink ref="A106" r:id="rId103" display="https://leetcode.cn/problems/sort-an-array/" xr:uid="{1DD2C139-9300-40C9-8B8E-4324AE32F068}"/>
     <hyperlink ref="A107" r:id="rId104" display="https://leetcode.cn/problems/single-number/" xr:uid="{1EE4135F-D260-44C6-9A1B-E0B2EBA118A9}"/>
     <hyperlink ref="A108" r:id="rId105" display="https://leetcode.cn/problems/second-highest-salary/" xr:uid="{D832068C-6CB5-43DE-AC9D-B87C7916DE25}"/>
+    <hyperlink ref="A109" r:id="rId106" display="https://leetcode.cn/problems/k-th-smallest-in-lexicographical-order/" xr:uid="{505E95D3-4887-4D42-8619-2D64A9838E34}"/>
+    <hyperlink ref="A110" r:id="rId107" display="https://leetcode.cn/problems/binary-tree-zigzag-level-order-traversal/" xr:uid="{44DCAEAA-6E9B-42B2-9207-127AA32323FC}"/>
+    <hyperlink ref="A111" r:id="rId108" display="https://leetcode.cn/problems/middle-of-the-linked-list/" xr:uid="{C919D27B-E08B-468E-86FE-12A43CF1A8D0}"/>
+    <hyperlink ref="A112" r:id="rId109" display="https://leetcode.cn/problems/reorder-list/" xr:uid="{56BDC724-5CA3-473A-A735-DBA5998D15AA}"/>
+    <hyperlink ref="A113" r:id="rId110" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{E8BC522A-2064-44E2-B9A1-2D452DEED3B9}"/>
+    <hyperlink ref="A114" r:id="rId111" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{BEBDC00C-6288-4D89-8D29-6B9C21B70E68}"/>
+    <hyperlink ref="A115" r:id="rId112" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{9626B5B9-2D16-4CFC-8934-C3BF9B2B0FEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId106"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId113"/>
 </worksheet>
 </file>